--- a/results/train/DeepBench_NV_1080Ti.xlsx
+++ b/results/train/DeepBench_NV_1080Ti.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="1260" windowWidth="26160" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="3" r:id="rId1"/>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">K </t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>pad_h</t>
@@ -234,6 +228,12 @@
   <si>
     <t>Hidden units</t>
   </si>
+  <si>
+    <t>R (Filter height)</t>
+  </si>
+  <si>
+    <t>S (Filter width)</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,6 +270,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -294,8 +310,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -317,7 +351,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -596,7 +648,7 @@
   <dimension ref="A1:AE339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -618,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4849,52 +4901,52 @@
         <v>14</v>
       </c>
       <c r="H174" t="s">
+        <v>69</v>
+      </c>
+      <c r="I174" t="s">
+        <v>68</v>
+      </c>
+      <c r="J174" t="s">
+        <v>16</v>
+      </c>
+      <c r="K174" t="s">
         <v>15</v>
       </c>
-      <c r="I174" t="s">
-        <v>16</v>
-      </c>
-      <c r="J174" t="s">
+      <c r="L174" t="s">
+        <v>18</v>
+      </c>
+      <c r="M174" t="s">
         <v>17</v>
       </c>
-      <c r="K174" t="s">
-        <v>18</v>
-      </c>
-      <c r="L174" t="s">
+      <c r="N174" t="s">
         <v>19</v>
       </c>
-      <c r="M174" t="s">
+      <c r="O174" t="s">
         <v>20</v>
       </c>
-      <c r="N174" t="s">
+      <c r="P174" t="s">
         <v>21</v>
       </c>
-      <c r="O174" t="s">
+      <c r="R174" t="s">
         <v>22</v>
       </c>
-      <c r="P174" t="s">
+      <c r="S174" t="s">
         <v>23</v>
       </c>
-      <c r="R174" t="s">
+      <c r="T174" t="s">
         <v>24</v>
       </c>
-      <c r="S174" t="s">
+      <c r="U174" t="s">
         <v>25</v>
       </c>
-      <c r="T174" t="s">
+      <c r="V174" t="s">
         <v>26</v>
       </c>
-      <c r="U174" t="s">
+      <c r="W174" t="s">
         <v>27</v>
       </c>
-      <c r="V174" t="s">
+      <c r="X174" t="s">
         <v>28</v>
-      </c>
-      <c r="W174" t="s">
-        <v>29</v>
-      </c>
-      <c r="X174" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:31">
@@ -4914,10 +4966,10 @@
         <v>32</v>
       </c>
       <c r="H175">
+        <v>20</v>
+      </c>
+      <c r="I175">
         <v>5</v>
-      </c>
-      <c r="I175">
-        <v>20</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -4939,11 +4991,11 @@
         <v>0.26</v>
       </c>
       <c r="R175" s="5">
-        <f t="shared" ref="R175:R238" si="11">(D175-H175+1+2*J175)/L175</f>
+        <f>(D175-I175+1+2*K175)/M175</f>
         <v>78.5</v>
       </c>
       <c r="S175" s="5">
-        <f t="shared" ref="S175:S238" si="12">(C175-I175+1+2*K175)/M175</f>
+        <f>(C175-H175+1+2*J175)/L175</f>
         <v>340.5</v>
       </c>
       <c r="T175" s="1">
@@ -4951,18 +5003,18 @@
         <v>0.39</v>
       </c>
       <c r="U175" s="1">
-        <f t="shared" ref="U175:V210" si="13">(2*$R175*$S175*$F175*$G175*$E175*$H175*$I175)/(N175/1000)/10^12</f>
+        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
         <v>5.2636061538461529</v>
       </c>
       <c r="V175" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W175" s="1">
-        <f t="shared" ref="W175:W238" si="14">(2*$R175*$S175*$F175*$G175*$E175*$H175*$I175)/(P175/1000)/10^12</f>
+        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
         <v>2.6318030769230765</v>
       </c>
       <c r="X175" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA175" s="1"/>
       <c r="AE175" s="1"/>
@@ -4984,10 +5036,10 @@
         <v>32</v>
       </c>
       <c r="H176">
+        <v>20</v>
+      </c>
+      <c r="I176">
         <v>5</v>
-      </c>
-      <c r="I176">
-        <v>20</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -5009,11 +5061,11 @@
         <v>0.502</v>
       </c>
       <c r="R176" s="5">
-        <f t="shared" si="11"/>
+        <f>(D176-I176+1+2*K176)/M176</f>
         <v>78.5</v>
       </c>
       <c r="S176" s="5">
-        <f t="shared" si="12"/>
+        <f>(C176-H176+1+2*J176)/L176</f>
         <v>340.5</v>
       </c>
       <c r="T176" s="1">
@@ -5021,18 +5073,18 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="U176" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(N176/1000)/10^12</f>
         <v>6.3358222222222222</v>
       </c>
       <c r="V176" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W176" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(P176/1000)/10^12</f>
         <v>2.7261705179282871</v>
       </c>
       <c r="X176" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA176" s="1"/>
       <c r="AE176" s="1"/>
@@ -5054,10 +5106,10 @@
         <v>32</v>
       </c>
       <c r="H177">
+        <v>20</v>
+      </c>
+      <c r="I177">
         <v>5</v>
-      </c>
-      <c r="I177">
-        <v>20</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -5079,11 +5131,11 @@
         <v>0.94600000000000006</v>
       </c>
       <c r="R177" s="5">
-        <f t="shared" si="11"/>
+        <f>(D177-I177+1+2*K177)/M177</f>
         <v>78.5</v>
       </c>
       <c r="S177" s="5">
-        <f t="shared" si="12"/>
+        <f>(C177-H177+1+2*J177)/L177</f>
         <v>340.5</v>
       </c>
       <c r="T177" s="1">
@@ -5091,18 +5143,18 @@
         <v>1.367</v>
       </c>
       <c r="U177" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(N177/1000)/10^12</f>
         <v>6.5013662707838487</v>
       </c>
       <c r="V177" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W177" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(P177/1000)/10^12</f>
         <v>2.8933141649048628</v>
       </c>
       <c r="X177" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA177" s="1"/>
       <c r="AE177" s="1"/>
@@ -5124,10 +5176,10 @@
         <v>32</v>
       </c>
       <c r="H178">
+        <v>20</v>
+      </c>
+      <c r="I178">
         <v>5</v>
-      </c>
-      <c r="I178">
-        <v>20</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -5149,11 +5201,11 @@
         <v>1.7949999999999999</v>
       </c>
       <c r="R178" s="5">
-        <f t="shared" si="11"/>
+        <f>(D178-I178+1+2*K178)/M178</f>
         <v>78.5</v>
       </c>
       <c r="S178" s="5">
-        <f t="shared" si="12"/>
+        <f>(C178-H178+1+2*J178)/L178</f>
         <v>340.5</v>
       </c>
       <c r="T178" s="1">
@@ -5161,18 +5213,18 @@
         <v>2.6360000000000001</v>
       </c>
       <c r="U178" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(N178/1000)/10^12</f>
         <v>6.509096789536267</v>
       </c>
       <c r="V178" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W178" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(P178/1000)/10^12</f>
         <v>3.0496659610027859</v>
       </c>
       <c r="X178" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA178" s="1"/>
       <c r="AE178" s="1"/>
@@ -5194,10 +5246,10 @@
         <v>32</v>
       </c>
       <c r="H179">
+        <v>10</v>
+      </c>
+      <c r="I179">
         <v>5</v>
-      </c>
-      <c r="I179">
-        <v>10</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -5221,11 +5273,11 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="R179" s="5">
-        <f t="shared" si="11"/>
+        <f>(D179-I179+1+2*K179)/M179</f>
         <v>37.5</v>
       </c>
       <c r="S179" s="5">
-        <f t="shared" si="12"/>
+        <f>(C179-H179+1+2*J179)/L179</f>
         <v>166</v>
       </c>
       <c r="T179" s="1">
@@ -5233,19 +5285,19 @@
         <v>2.3079999999999998</v>
       </c>
       <c r="U179" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(N179/1000)/10^12</f>
         <v>6.6922834645669296</v>
       </c>
       <c r="V179" s="1">
-        <f>(2*$R179*$S179*$F179*$G179*$E179*$H179*$I179)/(O179/1000)/10^12</f>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(O179/1000)/10^12</f>
         <v>1.7204858299595143</v>
       </c>
       <c r="W179" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(P179/1000)/10^12</f>
         <v>5.7297977528089881</v>
       </c>
       <c r="X179" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA179" s="1"/>
       <c r="AE179" s="1"/>
@@ -5267,10 +5319,10 @@
         <v>32</v>
       </c>
       <c r="H180">
+        <v>10</v>
+      </c>
+      <c r="I180">
         <v>5</v>
-      </c>
-      <c r="I180">
-        <v>10</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -5294,11 +5346,11 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="R180" s="5">
-        <f t="shared" si="11"/>
+        <f>(D180-I180+1+2*K180)/M180</f>
         <v>37.5</v>
       </c>
       <c r="S180" s="5">
-        <f t="shared" si="12"/>
+        <f>(C180-H180+1+2*J180)/L180</f>
         <v>166</v>
       </c>
       <c r="T180" s="1">
@@ -5306,19 +5358,19 @@
         <v>4.468</v>
       </c>
       <c r="U180" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(N180/1000)/10^12</f>
         <v>7.8696296296296291</v>
       </c>
       <c r="V180" s="1">
-        <f>(2*$R180*$S180*$F180*$G180*$E180*$H180*$I180)/(O180/1000)/10^12</f>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(O180/1000)/10^12</f>
         <v>1.722228976697062</v>
       </c>
       <c r="W180" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(P180/1000)/10^12</f>
         <v>5.9365774155995341</v>
       </c>
       <c r="X180" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA180" s="1"/>
       <c r="AE180" s="1"/>
@@ -5340,10 +5392,10 @@
         <v>32</v>
       </c>
       <c r="H181">
+        <v>10</v>
+      </c>
+      <c r="I181">
         <v>5</v>
-      </c>
-      <c r="I181">
-        <v>10</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -5367,11 +5419,11 @@
         <v>1.663</v>
       </c>
       <c r="R181" s="5">
-        <f t="shared" si="11"/>
+        <f>(D181-I181+1+2*K181)/M181</f>
         <v>37.5</v>
       </c>
       <c r="S181" s="5">
-        <f t="shared" si="12"/>
+        <f>(C181-H181+1+2*J181)/L181</f>
         <v>166</v>
       </c>
       <c r="T181" s="1">
@@ -5379,19 +5431,19 @@
         <v>8.8949999999999996</v>
       </c>
       <c r="U181" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(N181/1000)/10^12</f>
         <v>7.8635620663068622</v>
       </c>
       <c r="V181" s="1">
-        <f>(2*$R181*$S181*$F181*$G181*$E181*$H181*$I181)/(O181/1000)/10^12</f>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(O181/1000)/10^12</f>
         <v>1.7184566133108676</v>
       </c>
       <c r="W181" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(P181/1000)/10^12</f>
         <v>6.1329164161154539</v>
       </c>
       <c r="X181" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA181" s="1"/>
       <c r="AE181" s="1"/>
@@ -5413,10 +5465,10 @@
         <v>32</v>
       </c>
       <c r="H182">
+        <v>10</v>
+      </c>
+      <c r="I182">
         <v>5</v>
-      </c>
-      <c r="I182">
-        <v>10</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -5440,11 +5492,11 @@
         <v>3.2930000000000001</v>
       </c>
       <c r="R182" s="5">
-        <f t="shared" si="11"/>
+        <f>(D182-I182+1+2*K182)/M182</f>
         <v>37.5</v>
       </c>
       <c r="S182" s="5">
-        <f t="shared" si="12"/>
+        <f>(C182-H182+1+2*J182)/L182</f>
         <v>166</v>
       </c>
       <c r="T182" s="1">
@@ -5452,19 +5504,19 @@
         <v>17.657999999999998</v>
       </c>
       <c r="U182" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(N182/1000)/10^12</f>
         <v>7.9493686671862829</v>
       </c>
       <c r="V182" s="1">
-        <f>(2*$R182*$S182*$F182*$G182*$E182*$H182*$I182)/(O182/1000)/10^12</f>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(O182/1000)/10^12</f>
         <v>1.7287973557081111</v>
       </c>
       <c r="W182" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(P182/1000)/10^12</f>
         <v>6.1943759489826897</v>
       </c>
       <c r="X182" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA182" s="1"/>
       <c r="AE182" s="1"/>
@@ -5511,11 +5563,11 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="R183" s="5">
-        <f t="shared" si="11"/>
+        <f>(D183-I183+1+2*K183)/M183</f>
         <v>48</v>
       </c>
       <c r="S183" s="5">
-        <f t="shared" si="12"/>
+        <f>(C183-H183+1+2*J183)/L183</f>
         <v>480</v>
       </c>
       <c r="T183" s="1">
@@ -5523,18 +5575,18 @@
         <v>0.54699999999999993</v>
       </c>
       <c r="U183" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(N183/1000)/10^12</f>
         <v>0.87023213114754105</v>
       </c>
       <c r="V183" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W183" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(P183/1000)/10^12</f>
         <v>0.2498078117647059</v>
       </c>
       <c r="X183" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA183" s="1"/>
       <c r="AE183" s="1"/>
@@ -5583,11 +5635,11 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="R184" s="5">
-        <f t="shared" si="11"/>
+        <f>(D184-I184+1+2*K184)/M184</f>
         <v>24</v>
       </c>
       <c r="S184" s="5">
-        <f t="shared" si="12"/>
+        <f>(C184-H184+1+2*J184)/L184</f>
         <v>240</v>
       </c>
       <c r="T184" s="1">
@@ -5595,19 +5647,19 @@
         <v>0.66000000000000014</v>
       </c>
       <c r="U184" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(N184/1000)/10^12</f>
         <v>5.9394864335664339</v>
       </c>
       <c r="V184" s="1">
-        <f>(2*$R184*$S184*$F184*$G184*$E184*$H184*$I184)/(O184/1000)/10^12</f>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(O184/1000)/10^12</f>
         <v>5.0859075449101789</v>
       </c>
       <c r="W184" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(P184/1000)/10^12</f>
         <v>2.4267044571428569</v>
       </c>
       <c r="X184" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA184" s="1"/>
       <c r="AE184" s="1"/>
@@ -5656,11 +5708,11 @@
         <v>0.248</v>
       </c>
       <c r="R185" s="5">
-        <f t="shared" si="11"/>
+        <f>(D185-I185+1+2*K185)/M185</f>
         <v>12</v>
       </c>
       <c r="S185" s="5">
-        <f t="shared" si="12"/>
+        <f>(C185-H185+1+2*J185)/L185</f>
         <v>120</v>
       </c>
       <c r="T185" s="1">
@@ -5668,19 +5720,19 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="U185" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(N185/1000)/10^12</f>
         <v>7.3856222608695656</v>
       </c>
       <c r="V185" s="1">
-        <f>(2*$R185*$S185*$F185*$G185*$E185*$H185*$I185)/(O185/1000)/10^12</f>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(O185/1000)/10^12</f>
         <v>9.9923124705882351</v>
       </c>
       <c r="W185" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(P185/1000)/10^12</f>
         <v>3.4247845161290322</v>
       </c>
       <c r="X185" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA185" s="1"/>
       <c r="AE185" s="1"/>
@@ -5729,11 +5781,11 @@
         <v>0.152</v>
       </c>
       <c r="R186" s="5">
-        <f t="shared" si="11"/>
+        <f>(D186-I186+1+2*K186)/M186</f>
         <v>6</v>
       </c>
       <c r="S186" s="5">
-        <f t="shared" si="12"/>
+        <f>(C186-H186+1+2*J186)/L186</f>
         <v>60</v>
       </c>
       <c r="T186" s="1">
@@ -5741,19 +5793,19 @@
         <v>0.30300000000000005</v>
       </c>
       <c r="U186" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(N186/1000)/10^12</f>
         <v>10.485760000000001</v>
       </c>
       <c r="V186" s="1">
-        <f>(2*$R186*$S186*$F186*$G186*$E186*$H186*$I186)/(O186/1000)/10^12</f>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(O186/1000)/10^12</f>
         <v>12.133522285714285</v>
       </c>
       <c r="W186" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(P186/1000)/10^12</f>
         <v>5.5878063157894733</v>
       </c>
       <c r="X186" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA186" s="1"/>
       <c r="AE186" s="1"/>
@@ -5800,11 +5852,11 @@
         <v>0.1</v>
       </c>
       <c r="R187" s="5">
-        <f t="shared" si="11"/>
+        <f>(D187-I187+1+2*K187)/M187</f>
         <v>54</v>
       </c>
       <c r="S187" s="5">
-        <f t="shared" si="12"/>
+        <f>(C187-H187+1+2*J187)/L187</f>
         <v>54</v>
       </c>
       <c r="T187" s="1">
@@ -5812,18 +5864,18 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="U187" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(N187/1000)/10^12</f>
         <v>2.2394880000000001</v>
       </c>
       <c r="V187" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W187" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(P187/1000)/10^12</f>
         <v>0.80621567999999999</v>
       </c>
       <c r="X187" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA187" s="1"/>
       <c r="AE187" s="1"/>
@@ -5872,11 +5924,11 @@
         <v>0.317</v>
       </c>
       <c r="R188" s="5">
-        <f t="shared" si="11"/>
+        <f>(D188-I188+1+2*K188)/M188</f>
         <v>54</v>
       </c>
       <c r="S188" s="5">
-        <f t="shared" si="12"/>
+        <f>(C188-H188+1+2*J188)/L188</f>
         <v>54</v>
       </c>
       <c r="T188" s="1">
@@ -5884,19 +5936,19 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="U188" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(N188/1000)/10^12</f>
         <v>10.423798690909091</v>
       </c>
       <c r="V188" s="1">
-        <f>(2*$R188*$S188*$F188*$G188*$E188*$H188*$I188)/(O188/1000)/10^12</f>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(O188/1000)/10^12</f>
         <v>10.423798690909091</v>
       </c>
       <c r="W188" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(P188/1000)/10^12</f>
         <v>5.4256365425867505</v>
       </c>
       <c r="X188" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA188" s="1"/>
       <c r="AE188" s="1"/>
@@ -5945,11 +5997,11 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="R189" s="5">
-        <f t="shared" si="11"/>
+        <f>(D189-I189+1+2*K189)/M189</f>
         <v>27</v>
       </c>
       <c r="S189" s="5">
-        <f t="shared" si="12"/>
+        <f>(C189-H189+1+2*J189)/L189</f>
         <v>27</v>
       </c>
       <c r="T189" s="1">
@@ -5957,19 +6009,19 @@
         <v>0.43600000000000005</v>
       </c>
       <c r="U189" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(N189/1000)/10^12</f>
         <v>12.740198400000001</v>
       </c>
       <c r="V189" s="1">
-        <f>(2*$R189*$S189*$F189*$G189*$E189*$H189*$I189)/(O189/1000)/10^12</f>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(O189/1000)/10^12</f>
         <v>12.646520470588236</v>
       </c>
       <c r="W189" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(P189/1000)/10^12</f>
         <v>10.423798690909091</v>
       </c>
       <c r="X189" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA189" s="1"/>
       <c r="AE189" s="1"/>
@@ -6018,11 +6070,11 @@
         <v>0.14300000000000002</v>
       </c>
       <c r="R190" s="5">
-        <f t="shared" si="11"/>
+        <f>(D190-I190+1+2*K190)/M190</f>
         <v>14</v>
       </c>
       <c r="S190" s="5">
-        <f t="shared" si="12"/>
+        <f>(C190-H190+1+2*J190)/L190</f>
         <v>14</v>
       </c>
       <c r="T190" s="1">
@@ -6030,19 +6082,19 @@
         <v>0.29400000000000004</v>
       </c>
       <c r="U190" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(N190/1000)/10^12</f>
         <v>11.417827555555554</v>
       </c>
       <c r="V190" s="1">
-        <f>(2*$R190*$S190*$F190*$G190*$E190*$H190*$I190)/(O190/1000)/10^12</f>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(O190/1000)/10^12</f>
         <v>13.212057599999998</v>
       </c>
       <c r="W190" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(P190/1000)/10^12</f>
         <v>6.4674407832167828</v>
       </c>
       <c r="X190" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA190" s="1"/>
       <c r="AE190" s="1"/>
@@ -6091,11 +6143,11 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="R191" s="5">
-        <f t="shared" si="11"/>
+        <f>(D191-I191+1+2*K191)/M191</f>
         <v>7</v>
       </c>
       <c r="S191" s="5">
-        <f t="shared" si="12"/>
+        <f>(C191-H191+1+2*J191)/L191</f>
         <v>7</v>
       </c>
       <c r="T191" s="1">
@@ -6103,19 +6155,19 @@
         <v>0.60399999999999998</v>
       </c>
       <c r="U191" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(N191/1000)/10^12</f>
         <v>4.9193831489361708</v>
       </c>
       <c r="V191" s="1">
-        <f>(2*$R191*$S191*$F191*$G191*$E191*$H191*$I191)/(O191/1000)/10^12</f>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(O191/1000)/10^12</f>
         <v>4.8933546666666663</v>
       </c>
       <c r="W191" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(P191/1000)/10^12</f>
         <v>4.0742027841409687</v>
       </c>
       <c r="X191" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA191" s="1"/>
       <c r="AE191" s="1"/>
@@ -6162,11 +6214,11 @@
         <v>1.423</v>
       </c>
       <c r="R192" s="5">
-        <f t="shared" si="11"/>
+        <f>(D192-I192+1+2*K192)/M192</f>
         <v>224</v>
       </c>
       <c r="S192" s="5">
-        <f t="shared" si="12"/>
+        <f>(C192-H192+1+2*J192)/L192</f>
         <v>224</v>
       </c>
       <c r="T192" s="1">
@@ -6174,18 +6226,18 @@
         <v>1.8140000000000001</v>
       </c>
       <c r="U192" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(N192/1000)/10^12</f>
         <v>3.5479950076726343</v>
       </c>
       <c r="V192" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W192" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(P192/1000)/10^12</f>
         <v>0.97488829796205201</v>
       </c>
       <c r="X192" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA192" s="1"/>
       <c r="AE192" s="1"/>
@@ -6234,11 +6286,11 @@
         <v>1.7870000000000001</v>
       </c>
       <c r="R193" s="5">
-        <f t="shared" si="11"/>
+        <f>(D193-I193+1+2*K193)/M193</f>
         <v>112</v>
       </c>
       <c r="S193" s="5">
-        <f t="shared" si="12"/>
+        <f>(C193-H193+1+2*J193)/L193</f>
         <v>112</v>
       </c>
       <c r="T193" s="1">
@@ -6246,19 +6298,19 @@
         <v>3.6779999999999999</v>
       </c>
       <c r="U193" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(N193/1000)/10^12</f>
         <v>14.992405787234043</v>
       </c>
       <c r="V193" s="1">
-        <f>(2*$R193*$S193*$F193*$G193*$E193*$H193*$I193)/(O193/1000)/10^12</f>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(O193/1000)/10^12</f>
         <v>16.368920920353979</v>
       </c>
       <c r="W193" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(P193/1000)/10^12</f>
         <v>8.2806404655847778</v>
       </c>
       <c r="X193" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA193" s="1"/>
       <c r="AE193" s="1"/>
@@ -6308,11 +6360,11 @@
         <v>1.0150000000000001</v>
       </c>
       <c r="R194" s="5">
-        <f t="shared" si="11"/>
+        <f>(D194-I194+1+2*K194)/M194</f>
         <v>56</v>
       </c>
       <c r="S194" s="5">
-        <f t="shared" si="12"/>
+        <f>(C194-H194+1+2*J194)/L194</f>
         <v>56</v>
       </c>
       <c r="T194" s="1">
@@ -6320,19 +6372,19 @@
         <v>2.8930000000000002</v>
       </c>
       <c r="U194" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(N194/1000)/10^12</f>
         <v>15.350108414937759</v>
       </c>
       <c r="V194" s="1">
-        <f>(2*$R194*$S194*$F194*$G194*$E194*$H194*$I194)/(O194/1000)/10^12</f>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(O194/1000)/10^12</f>
         <v>16.189829881838076</v>
       </c>
       <c r="W194" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(P194/1000)/10^12</f>
         <v>14.578822179310343</v>
       </c>
       <c r="X194" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA194" s="1"/>
       <c r="AE194" s="1"/>
@@ -6382,11 +6434,11 @@
         <v>0.745</v>
       </c>
       <c r="R195" s="5">
-        <f t="shared" si="11"/>
+        <f>(D195-I195+1+2*K195)/M195</f>
         <v>28</v>
       </c>
       <c r="S195" s="5">
-        <f t="shared" si="12"/>
+        <f>(C195-H195+1+2*J195)/L195</f>
         <v>28</v>
       </c>
       <c r="T195" s="1">
@@ -6394,19 +6446,19 @@
         <v>2.63</v>
       </c>
       <c r="U195" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(N195/1000)/10^12</f>
         <v>15.130372711656443</v>
       </c>
       <c r="V195" s="1">
-        <f>(2*$R195*$S195*$F195*$G195*$E195*$H195*$I195)/(O195/1000)/10^12</f>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(O195/1000)/10^12</f>
         <v>16.314778954796029</v>
       </c>
       <c r="W195" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(P195/1000)/10^12</f>
         <v>19.862422163758392</v>
       </c>
       <c r="X195" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA195" s="1"/>
       <c r="AE195" s="1"/>
@@ -6455,11 +6507,11 @@
         <v>0.14300000000000002</v>
       </c>
       <c r="R196" s="5">
-        <f t="shared" si="11"/>
+        <f>(D196-I196+1+2*K196)/M196</f>
         <v>14</v>
       </c>
       <c r="S196" s="5">
-        <f t="shared" si="12"/>
+        <f>(C196-H196+1+2*J196)/L196</f>
         <v>14</v>
       </c>
       <c r="T196" s="1">
@@ -6467,19 +6519,19 @@
         <v>0.29400000000000004</v>
       </c>
       <c r="U196" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(N196/1000)/10^12</f>
         <v>91.342620444444435</v>
       </c>
       <c r="V196" s="1">
-        <f>(2*$R196*$S196*$F196*$G196*$E196*$H196*$I196)/(O196/1000)/10^12</f>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(O196/1000)/10^12</f>
         <v>105.69646079999998</v>
       </c>
       <c r="W196" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(P196/1000)/10^12</f>
         <v>51.739526265734263</v>
       </c>
       <c r="X196" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA196" s="1"/>
       <c r="AE196" s="1"/>
@@ -6528,11 +6580,11 @@
         <v>0.38800000000000001</v>
       </c>
       <c r="R197" s="5">
-        <f t="shared" si="11"/>
+        <f>(D197-I197+1+2*K197)/M197</f>
         <v>7</v>
       </c>
       <c r="S197" s="5">
-        <f t="shared" si="12"/>
+        <f>(C197-H197+1+2*J197)/L197</f>
         <v>7</v>
       </c>
       <c r="T197" s="1">
@@ -6540,19 +6592,19 @@
         <v>1.0840000000000001</v>
       </c>
       <c r="U197" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(N197/1000)/10^12</f>
         <v>5.2399095297450433</v>
       </c>
       <c r="V197" s="1">
-        <f>(2*$R197*$S197*$F197*$G197*$E197*$H197*$I197)/(O197/1000)/10^12</f>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(O197/1000)/10^12</f>
         <v>5.39267657142857</v>
       </c>
       <c r="W197" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(P197/1000)/10^12</f>
         <v>4.7672372783505157</v>
       </c>
       <c r="X197" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA197" s="1"/>
       <c r="AE197" s="1"/>
@@ -6599,11 +6651,11 @@
         <v>2.855</v>
       </c>
       <c r="R198" s="5">
-        <f t="shared" si="11"/>
+        <f>(D198-I198+1+2*K198)/M198</f>
         <v>224</v>
       </c>
       <c r="S198" s="5">
-        <f t="shared" si="12"/>
+        <f>(C198-H198+1+2*J198)/L198</f>
         <v>224</v>
       </c>
       <c r="T198" s="1">
@@ -6611,18 +6663,18 @@
         <v>3.6179999999999999</v>
       </c>
       <c r="U198" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(N198/1000)/10^12</f>
         <v>3.6363461284403669</v>
       </c>
       <c r="V198" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W198" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(P198/1000)/10^12</f>
         <v>0.97181509492119089</v>
       </c>
       <c r="X198" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA198" s="1"/>
       <c r="AE198" s="1"/>
@@ -6671,11 +6723,11 @@
         <v>3.456</v>
       </c>
       <c r="R199" s="5">
-        <f t="shared" si="11"/>
+        <f>(D199-I199+1+2*K199)/M199</f>
         <v>112</v>
       </c>
       <c r="S199" s="5">
-        <f t="shared" si="12"/>
+        <f>(C199-H199+1+2*J199)/L199</f>
         <v>112</v>
       </c>
       <c r="T199" s="1">
@@ -6683,19 +6735,19 @@
         <v>7.2070000000000007</v>
       </c>
       <c r="U199" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(N199/1000)/10^12</f>
         <v>15.263026830324911</v>
       </c>
       <c r="V199" s="1">
-        <f>(2*$R199*$S199*$F199*$G199*$E199*$H199*$I199)/(O199/1000)/10^12</f>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(O199/1000)/10^12</f>
         <v>16.332786437086092</v>
       </c>
       <c r="W199" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(P199/1000)/10^12</f>
         <v>8.5633706666666676</v>
       </c>
       <c r="X199" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA199" s="1"/>
       <c r="AE199" s="1"/>
@@ -6745,11 +6797,11 @@
         <v>1.9259999999999999</v>
       </c>
       <c r="R200" s="5">
-        <f t="shared" si="11"/>
+        <f>(D200-I200+1+2*K200)/M200</f>
         <v>56</v>
       </c>
       <c r="S200" s="5">
-        <f t="shared" si="12"/>
+        <f>(C200-H200+1+2*J200)/L200</f>
         <v>56</v>
       </c>
       <c r="T200" s="1">
@@ -6757,19 +6809,19 @@
         <v>5.5250000000000004</v>
       </c>
       <c r="U200" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(N200/1000)/10^12</f>
         <v>16.834476122866896</v>
       </c>
       <c r="V200" s="1">
-        <f>(2*$R200*$S200*$F200*$G200*$E200*$H200*$I200)/(O200/1000)/10^12</f>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(O200/1000)/10^12</f>
         <v>16.075507346007605</v>
       </c>
       <c r="W200" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(P200/1000)/10^12</f>
         <v>15.366048299065421</v>
       </c>
       <c r="X200" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA200" s="1"/>
       <c r="AE200" s="1"/>
@@ -6819,11 +6871,11 @@
         <v>1.323</v>
       </c>
       <c r="R201" s="5">
-        <f t="shared" si="11"/>
+        <f>(D201-I201+1+2*K201)/M201</f>
         <v>28</v>
       </c>
       <c r="S201" s="5">
-        <f t="shared" si="12"/>
+        <f>(C201-H201+1+2*J201)/L201</f>
         <v>28</v>
       </c>
       <c r="T201" s="1">
@@ -6831,19 +6883,19 @@
         <v>3.9849999999999999</v>
       </c>
       <c r="U201" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(N201/1000)/10^12</f>
         <v>21.793084701030924</v>
       </c>
       <c r="V201" s="1">
-        <f>(2*$R201*$S201*$F201*$G201*$E201*$H201*$I201)/(O201/1000)/10^12</f>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(O201/1000)/10^12</f>
         <v>22.695559067484659</v>
       </c>
       <c r="W201" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(P201/1000)/10^12</f>
         <v>22.369621333333335</v>
       </c>
       <c r="X201" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA201" s="1"/>
       <c r="AE201" s="1"/>
@@ -6892,11 +6944,11 @@
         <v>0.89400000000000002</v>
       </c>
       <c r="R202" s="5">
-        <f t="shared" si="11"/>
+        <f>(D202-I202+1+2*K202)/M202</f>
         <v>14</v>
       </c>
       <c r="S202" s="5">
-        <f t="shared" si="12"/>
+        <f>(C202-H202+1+2*J202)/L202</f>
         <v>14</v>
       </c>
       <c r="T202" s="1">
@@ -6904,19 +6956,19 @@
         <v>2.5860000000000003</v>
       </c>
       <c r="U202" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(N202/1000)/10^12</f>
         <v>17.028198517836593</v>
       </c>
       <c r="V202" s="1">
-        <f>(2*$R202*$S202*$F202*$G202*$E202*$H202*$I202)/(O202/1000)/10^12</f>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(O202/1000)/10^12</f>
         <v>17.979956879708382</v>
       </c>
       <c r="W202" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(P202/1000)/10^12</f>
         <v>16.552018469798657</v>
       </c>
       <c r="X202" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA202" s="1"/>
       <c r="AE202" s="1"/>
@@ -6965,11 +7017,11 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="R203" s="5">
-        <f t="shared" si="11"/>
+        <f>(D203-I203+1+2*K203)/M203</f>
         <v>7</v>
       </c>
       <c r="S203" s="5">
-        <f t="shared" si="12"/>
+        <f>(C203-H203+1+2*J203)/L203</f>
         <v>7</v>
       </c>
       <c r="T203" s="1">
@@ -6977,19 +7029,19 @@
         <v>1.3699999999999999</v>
       </c>
       <c r="U203" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(N203/1000)/10^12</f>
         <v>7.6750542074688797</v>
       </c>
       <c r="V203" s="1">
-        <f>(2*$R203*$S203*$F203*$G203*$E203*$H203*$I203)/(O203/1000)/10^12</f>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(O203/1000)/10^12</f>
         <v>8.331928216216216</v>
       </c>
       <c r="W203" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(P203/1000)/10^12</f>
         <v>8.331928216216216</v>
       </c>
       <c r="X203" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA203" s="1"/>
       <c r="AE203" s="1"/>
@@ -7036,11 +7088,11 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="R204" s="5">
-        <f t="shared" si="11"/>
+        <f>(D204-I204+1+2*K204)/M204</f>
         <v>112</v>
       </c>
       <c r="S204" s="5">
-        <f t="shared" si="12"/>
+        <f>(C204-H204+1+2*J204)/L204</f>
         <v>112</v>
       </c>
       <c r="T204" s="1">
@@ -7048,18 +7100,18 @@
         <v>1.4340000000000002</v>
       </c>
       <c r="U204" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(N204/1000)/10^12</f>
         <v>7.3186946976744194</v>
       </c>
       <c r="V204" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W204" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(P204/1000)/10^12</f>
         <v>4.1137761045751633</v>
       </c>
       <c r="X204" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA204" s="1"/>
       <c r="AE204" s="1"/>
@@ -7108,31 +7160,31 @@
         <v>0.61</v>
       </c>
       <c r="R205" s="5">
-        <f t="shared" si="11"/>
+        <f>(D205-I205+1+2*K205)/M205</f>
         <v>28</v>
       </c>
       <c r="S205" s="5">
-        <f t="shared" si="12"/>
+        <f>(C205-H205+1+2*J205)/L205</f>
         <v>28</v>
       </c>
       <c r="T205" s="1">
-        <f t="shared" ref="T205:T228" si="15">N205+O205+P205</f>
+        <f t="shared" ref="T205:T228" si="11">N205+O205+P205</f>
         <v>1.9350000000000001</v>
       </c>
       <c r="U205" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(N205/1000)/10^12</f>
         <v>5.2715688098495219</v>
       </c>
       <c r="V205" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
         <v>6.4874020202020199</v>
       </c>
       <c r="W205" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(P205/1000)/10^12</f>
         <v>6.317240655737705</v>
       </c>
       <c r="X205" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA205" s="1"/>
       <c r="AE205" s="1"/>
@@ -7181,31 +7233,31 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="R206" s="5">
+        <f>(D206-I206+1+2*K206)/M206</f>
+        <v>28</v>
+      </c>
+      <c r="S206" s="5">
+        <f>(C206-H206+1+2*J206)/L206</f>
+        <v>28</v>
+      </c>
+      <c r="T206" s="1">
         <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="S206" s="5">
-        <f t="shared" si="12"/>
-        <v>28</v>
-      </c>
-      <c r="T206" s="1">
-        <f t="shared" si="15"/>
         <v>0.26300000000000001</v>
       </c>
       <c r="U206" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(N206/1000)/10^12</f>
         <v>5.8166291320754713</v>
       </c>
       <c r="V206" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(O206/1000)/10^12</f>
         <v>4.165964108108108</v>
       </c>
       <c r="W206" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(P206/1000)/10^12</f>
         <v>2.2667745882352941</v>
       </c>
       <c r="X206" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA206" s="1"/>
       <c r="AE206" s="1"/>
@@ -7254,31 +7306,31 @@
         <v>0.46900000000000003</v>
       </c>
       <c r="R207" s="5">
+        <f>(D207-I207+1+2*K207)/M207</f>
+        <v>14</v>
+      </c>
+      <c r="S207" s="5">
+        <f>(C207-H207+1+2*J207)/L207</f>
+        <v>14</v>
+      </c>
+      <c r="T207" s="1">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="S207" s="5">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="T207" s="1">
-        <f t="shared" si="15"/>
         <v>1.4320000000000002</v>
       </c>
       <c r="U207" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
         <v>7.1893970149253734</v>
       </c>
       <c r="V207" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(O207/1000)/10^12</f>
         <v>9.0246295081967229</v>
       </c>
       <c r="W207" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
         <v>8.2164537313432824</v>
       </c>
       <c r="X207" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA207" s="1"/>
       <c r="AE207" s="1"/>
@@ -7327,31 +7379,31 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="R208" s="5">
+        <f>(D208-I208+1+2*K208)/M208</f>
+        <v>14</v>
+      </c>
+      <c r="S208" s="5">
+        <f>(C208-H208+1+2*J208)/L208</f>
+        <v>14</v>
+      </c>
+      <c r="T208" s="1">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="S208" s="5">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="T208" s="1">
-        <f t="shared" si="15"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="U208" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(N208/1000)/10^12</f>
         <v>6.7017683478260865</v>
       </c>
       <c r="V208" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(O208/1000)/10^12</f>
         <v>6.7017683478260865</v>
       </c>
       <c r="W208" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(P208/1000)/10^12</f>
         <v>3.4064236906077352</v>
       </c>
       <c r="X208" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA208" s="1"/>
       <c r="AE208" s="1"/>
@@ -7400,31 +7452,31 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="R209" s="5">
+        <f>(D209-I209+1+2*K209)/M209</f>
+        <v>7</v>
+      </c>
+      <c r="S209" s="5">
+        <f>(C209-H209+1+2*J209)/L209</f>
+        <v>7</v>
+      </c>
+      <c r="T209" s="1">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="S209" s="5">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="T209" s="1">
-        <f t="shared" si="15"/>
         <v>0.25700000000000001</v>
       </c>
       <c r="U209" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(N209/1000)/10^12</f>
         <v>3.2742299607843135</v>
       </c>
       <c r="V209" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(O209/1000)/10^12</f>
         <v>5.5661909333333339</v>
       </c>
       <c r="W209" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(P209/1000)/10^12</f>
         <v>3.5154890105263155</v>
       </c>
       <c r="X209" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA209" s="1"/>
       <c r="AE209" s="1"/>
@@ -7473,31 +7525,31 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="R210" s="5">
+        <f>(D210-I210+1+2*K210)/M210</f>
+        <v>7</v>
+      </c>
+      <c r="S210" s="5">
+        <f>(C210-H210+1+2*J210)/L210</f>
+        <v>7</v>
+      </c>
+      <c r="T210" s="1">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="S210" s="5">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="T210" s="1">
-        <f t="shared" si="15"/>
         <v>2.617</v>
       </c>
       <c r="U210" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(N210/1000)/10^12</f>
         <v>2.9840194424588988</v>
       </c>
       <c r="V210" s="1">
-        <f t="shared" si="13"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(O210/1000)/10^12</f>
         <v>7.604085974499089</v>
       </c>
       <c r="W210" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(P210/1000)/10^12</f>
         <v>6.2401243647234681</v>
       </c>
       <c r="X210" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA210" s="1"/>
       <c r="AE210" s="1"/>
@@ -7546,31 +7598,31 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="R211" s="5">
+        <f>(D211-I211+1+2*K211)/M211</f>
+        <v>56</v>
+      </c>
+      <c r="S211" s="5">
+        <f>(C211-H211+1+2*J211)/L211</f>
+        <v>56</v>
+      </c>
+      <c r="T211" s="1">
         <f t="shared" si="11"/>
-        <v>56</v>
-      </c>
-      <c r="S211" s="5">
-        <f t="shared" si="12"/>
-        <v>56</v>
-      </c>
-      <c r="T211" s="1">
-        <f t="shared" si="15"/>
         <v>0.64300000000000002</v>
       </c>
       <c r="U211" s="1">
-        <f t="shared" ref="U211:V228" si="16">(2*$R211*$S211*$F211*$G211*$E211*$H211*$I211)/(N211/1000)/10^12</f>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(N211/1000)/10^12</f>
         <v>11.5605504</v>
       </c>
       <c r="V211" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(O211/1000)/10^12</f>
         <v>11.781452636942676</v>
       </c>
       <c r="W211" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(P211/1000)/10^12</f>
         <v>5.6738897668711648</v>
       </c>
       <c r="X211" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="2:31">
@@ -7617,31 +7669,31 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="R212" s="5">
+        <f>(D212-I212+1+2*K212)/M212</f>
+        <v>28</v>
+      </c>
+      <c r="S212" s="5">
+        <f>(C212-H212+1+2*J212)/L212</f>
+        <v>28</v>
+      </c>
+      <c r="T212" s="1">
         <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="S212" s="5">
-        <f t="shared" si="12"/>
-        <v>28</v>
-      </c>
-      <c r="T212" s="1">
-        <f t="shared" si="15"/>
         <v>0.23299999999999998</v>
       </c>
       <c r="U212" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(N212/1000)/10^12</f>
         <v>3.7367435636363631</v>
       </c>
       <c r="V212" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(O212/1000)/10^12</f>
         <v>2.0759686464646463</v>
       </c>
       <c r="W212" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(P212/1000)/10^12</f>
         <v>2.6015303291139245</v>
       </c>
       <c r="X212" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="2:31">
@@ -7688,31 +7740,31 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="R213" s="5">
+        <f>(D213-I213+1+2*K213)/M213</f>
+        <v>28</v>
+      </c>
+      <c r="S213" s="5">
+        <f>(C213-H213+1+2*J213)/L213</f>
+        <v>28</v>
+      </c>
+      <c r="T213" s="1">
         <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="S213" s="5">
-        <f t="shared" si="12"/>
-        <v>28</v>
-      </c>
-      <c r="T213" s="1">
-        <f t="shared" si="15"/>
         <v>0.44600000000000001</v>
       </c>
       <c r="U213" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(N213/1000)/10^12</f>
         <v>13.501372729927006</v>
       </c>
       <c r="V213" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(O213/1000)/10^12</f>
         <v>13.501372729927006</v>
       </c>
       <c r="W213" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(P213/1000)/10^12</f>
         <v>10.754000372093026</v>
       </c>
       <c r="X213" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="2:31">
@@ -7760,31 +7812,31 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="R214" s="5">
+        <f>(D214-I214+1+2*K214)/M214</f>
+        <v>14</v>
+      </c>
+      <c r="S214" s="5">
+        <f>(C214-H214+1+2*J214)/L214</f>
+        <v>14</v>
+      </c>
+      <c r="T214" s="1">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="S214" s="5">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="T214" s="1">
-        <f t="shared" si="15"/>
         <v>0.252</v>
       </c>
       <c r="U214" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(N214/1000)/10^12</f>
         <v>5.0127047804878044</v>
       </c>
       <c r="V214" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(O214/1000)/10^12</f>
         <v>1.580929969230769</v>
       </c>
       <c r="W214" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(P214/1000)/10^12</f>
         <v>2.5372950123456786</v>
       </c>
       <c r="X214" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="2:31">
@@ -7831,31 +7883,31 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="R215" s="5">
+        <f>(D215-I215+1+2*K215)/M215</f>
+        <v>14</v>
+      </c>
+      <c r="S215" s="5">
+        <f>(C215-H215+1+2*J215)/L215</f>
+        <v>14</v>
+      </c>
+      <c r="T215" s="1">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="S215" s="5">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="T215" s="1">
-        <f t="shared" si="15"/>
         <v>0.155</v>
       </c>
       <c r="U215" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(N215/1000)/10^12</f>
         <v>4.6709294545454547</v>
       </c>
       <c r="V215" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(O215/1000)/10^12</f>
         <v>4.4678455652173916</v>
       </c>
       <c r="W215" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(P215/1000)/10^12</f>
         <v>3.161859938461538</v>
       </c>
       <c r="X215" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="2:31">
@@ -7902,31 +7954,31 @@
         <v>0.223</v>
       </c>
       <c r="R216" s="5">
+        <f>(D216-I216+1+2*K216)/M216</f>
+        <v>14</v>
+      </c>
+      <c r="S216" s="5">
+        <f>(C216-H216+1+2*J216)/L216</f>
+        <v>14</v>
+      </c>
+      <c r="T216" s="1">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="S216" s="5">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="T216" s="1">
-        <f t="shared" si="15"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="U216" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(N216/1000)/10^12</f>
         <v>12.845056000000001</v>
       </c>
       <c r="V216" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(O216/1000)/10^12</f>
         <v>13.118355063829789</v>
       </c>
       <c r="W216" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(P216/1000)/10^12</f>
         <v>8.29456530941704</v>
       </c>
       <c r="X216" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="217" spans="2:31">
@@ -7974,31 +8026,31 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="R217" s="5">
+        <f>(D217-I217+1+2*K217)/M217</f>
+        <v>7</v>
+      </c>
+      <c r="S217" s="5">
+        <f>(C217-H217+1+2*J217)/L217</f>
+        <v>7</v>
+      </c>
+      <c r="T217" s="1">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="S217" s="5">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="T217" s="1">
-        <f t="shared" si="15"/>
         <v>0.26300000000000001</v>
       </c>
       <c r="U217" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(N217/1000)/10^12</f>
         <v>3.2112639999999999</v>
       </c>
       <c r="V217" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(O217/1000)/10^12</f>
         <v>1.8683717818181815</v>
       </c>
       <c r="W217" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(P217/1000)/10^12</f>
         <v>2.3092235505617977</v>
       </c>
       <c r="X217" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="2:31">
@@ -8046,31 +8098,31 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="R218" s="5">
+        <f>(D218-I218+1+2*K218)/M218</f>
+        <v>7</v>
+      </c>
+      <c r="S218" s="5">
+        <f>(C218-H218+1+2*J218)/L218</f>
+        <v>7</v>
+      </c>
+      <c r="T218" s="1">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="S218" s="5">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="T218" s="1">
-        <f t="shared" si="15"/>
         <v>0.193</v>
       </c>
       <c r="U218" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(N218/1000)/10^12</f>
         <v>3.7367435636363631</v>
       </c>
       <c r="V218" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(O218/1000)/10^12</f>
         <v>3.161859938461538</v>
       </c>
       <c r="W218" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(P218/1000)/10^12</f>
         <v>2.8153547397260272</v>
       </c>
       <c r="X218" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219" spans="2:31">
@@ -8118,31 +8170,31 @@
         <v>0.221</v>
       </c>
       <c r="R219" s="5">
+        <f>(D219-I219+1+2*K219)/M219</f>
+        <v>6.5</v>
+      </c>
+      <c r="S219" s="5">
+        <f>(C219-H219+1+2*J219)/L219</f>
+        <v>6.5</v>
+      </c>
+      <c r="T219" s="1">
         <f t="shared" si="11"/>
-        <v>6.5</v>
-      </c>
-      <c r="S219" s="5">
-        <f t="shared" si="12"/>
-        <v>6.5</v>
-      </c>
-      <c r="T219" s="1">
-        <f t="shared" si="15"/>
         <v>0.66899999999999993</v>
       </c>
       <c r="U219" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(N219/1000)/10^12</f>
         <v>3.3278750046948353</v>
       </c>
       <c r="V219" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(O219/1000)/10^12</f>
         <v>3.0163292595744684</v>
       </c>
       <c r="W219" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(P219/1000)/10^12</f>
         <v>3.2074089411764706</v>
       </c>
       <c r="X219" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220" spans="2:31">
@@ -8189,31 +8241,31 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="R220" s="5">
+        <f>(D220-I220+1+2*K220)/M220</f>
+        <v>56</v>
+      </c>
+      <c r="S220" s="5">
+        <f>(C220-H220+1+2*J220)/L220</f>
+        <v>56</v>
+      </c>
+      <c r="T220" s="1">
         <f t="shared" si="11"/>
-        <v>56</v>
-      </c>
-      <c r="S220" s="5">
-        <f t="shared" si="12"/>
-        <v>56</v>
-      </c>
-      <c r="T220" s="1">
-        <f t="shared" si="15"/>
         <v>1.23</v>
       </c>
       <c r="U220" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(N220/1000)/10^12</f>
         <v>12.129102059016395</v>
       </c>
       <c r="V220" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(O220/1000)/10^12</f>
         <v>11.895100090032154</v>
       </c>
       <c r="W220" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(P220/1000)/10^12</f>
         <v>6.0250425537459291</v>
       </c>
       <c r="X220" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="2:31">
@@ -8260,31 +8312,31 @@
         <v>0.129</v>
       </c>
       <c r="R221" s="5">
+        <f>(D221-I221+1+2*K221)/M221</f>
+        <v>28</v>
+      </c>
+      <c r="S221" s="5">
+        <f>(C221-H221+1+2*J221)/L221</f>
+        <v>28</v>
+      </c>
+      <c r="T221" s="1">
         <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="S221" s="5">
-        <f t="shared" si="12"/>
-        <v>28</v>
-      </c>
-      <c r="T221" s="1">
-        <f t="shared" si="15"/>
         <v>0.44600000000000001</v>
       </c>
       <c r="U221" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(N221/1000)/10^12</f>
         <v>3.9146837333333333</v>
       </c>
       <c r="V221" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(O221/1000)/10^12</f>
         <v>1.9388763773584905</v>
       </c>
       <c r="W221" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(P221/1000)/10^12</f>
         <v>3.1863704806201554</v>
       </c>
       <c r="X221" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222" spans="2:31">
@@ -8331,31 +8383,31 @@
         <v>0.313</v>
       </c>
       <c r="R222" s="5">
+        <f>(D222-I222+1+2*K222)/M222</f>
+        <v>28</v>
+      </c>
+      <c r="S222" s="5">
+        <f>(C222-H222+1+2*J222)/L222</f>
+        <v>28</v>
+      </c>
+      <c r="T222" s="1">
         <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="S222" s="5">
-        <f t="shared" si="12"/>
-        <v>28</v>
-      </c>
-      <c r="T222" s="1">
-        <f t="shared" si="15"/>
         <v>0.84899999999999998</v>
       </c>
       <c r="U222" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(N222/1000)/10^12</f>
         <v>14.012788363636364</v>
       </c>
       <c r="V222" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(O222/1000)/10^12</f>
         <v>13.600647529411766</v>
       </c>
       <c r="W222" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(P222/1000)/10^12</f>
         <v>11.819093060702874</v>
       </c>
       <c r="X222" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="223" spans="2:31">
@@ -8402,31 +8454,31 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="R223" s="5">
+        <f>(D223-I223+1+2*K223)/M223</f>
+        <v>14</v>
+      </c>
+      <c r="S223" s="5">
+        <f>(C223-H223+1+2*J223)/L223</f>
+        <v>14</v>
+      </c>
+      <c r="T223" s="1">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="S223" s="5">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="T223" s="1">
-        <f t="shared" si="15"/>
         <v>0.36399999999999999</v>
       </c>
       <c r="U223" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(N223/1000)/10^12</f>
         <v>4.9523107469879522</v>
       </c>
       <c r="V223" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(O223/1000)/10^12</f>
         <v>2.4911623757575758</v>
       </c>
       <c r="W223" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(P223/1000)/10^12</f>
         <v>3.543463724137931</v>
       </c>
       <c r="X223" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224" spans="2:31">
@@ -8474,34 +8526,34 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="R224" s="5">
+        <f>(D224-I224+1+2*K224)/M224</f>
+        <v>14</v>
+      </c>
+      <c r="S224" s="5">
+        <f>(C224-H224+1+2*J224)/L224</f>
+        <v>14</v>
+      </c>
+      <c r="T224" s="1">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="S224" s="5">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="T224" s="1">
-        <f t="shared" si="15"/>
         <v>0.20499999999999999</v>
       </c>
       <c r="U224" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(N224/1000)/10^12</f>
         <v>7.2112595087719296</v>
       </c>
       <c r="V224" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(O224/1000)/10^12</f>
         <v>6.738390032786886</v>
       </c>
       <c r="W224" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(P224/1000)/10^12</f>
         <v>4.724618298850574</v>
       </c>
       <c r="X224" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="225" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="2:24">
       <c r="C225">
         <v>14</v>
       </c>
@@ -8545,34 +8597,34 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="R225" s="5">
+        <f>(D225-I225+1+2*K225)/M225</f>
+        <v>14</v>
+      </c>
+      <c r="S225" s="5">
+        <f>(C225-H225+1+2*J225)/L225</f>
+        <v>14</v>
+      </c>
+      <c r="T225" s="1">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="S225" s="5">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="T225" s="1">
-        <f t="shared" si="15"/>
         <v>0.84699999999999998</v>
       </c>
       <c r="U225" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(N225/1000)/10^12</f>
         <v>14.283305513513513</v>
       </c>
       <c r="V225" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(O225/1000)/10^12</f>
         <v>14.066068927756655</v>
       </c>
       <c r="W225" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(P225/1000)/10^12</f>
         <v>11.382695778461539</v>
       </c>
       <c r="X225" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="226" spans="1:24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226" spans="2:24">
       <c r="C226" s="2">
         <v>14</v>
       </c>
@@ -8616,34 +8668,34 @@
         <v>0.127</v>
       </c>
       <c r="R226" s="5">
+        <f>(D226-I226+1+2*K226)/M226</f>
+        <v>7</v>
+      </c>
+      <c r="S226" s="5">
+        <f>(C226-H226+1+2*J226)/L226</f>
+        <v>7</v>
+      </c>
+      <c r="T226" s="1">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="S226" s="5">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="T226" s="1">
-        <f t="shared" si="15"/>
         <v>0.34199999999999997</v>
       </c>
       <c r="U226" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(N226/1000)/10^12</f>
         <v>5.7893210140845079</v>
       </c>
       <c r="V226" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(O226/1000)/10^12</f>
         <v>2.854456888888889</v>
       </c>
       <c r="W226" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(P226/1000)/10^12</f>
         <v>3.236549543307087</v>
       </c>
       <c r="X226" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="227" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="2:24">
       <c r="B227" s="2"/>
       <c r="C227">
         <v>7</v>
@@ -8688,34 +8740,34 @@
         <v>0.114</v>
       </c>
       <c r="R227" s="5">
+        <f>(D227-I227+1+2*K227)/M227</f>
+        <v>7</v>
+      </c>
+      <c r="S227" s="5">
+        <f>(C227-H227+1+2*J227)/L227</f>
+        <v>7</v>
+      </c>
+      <c r="T227" s="1">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="S227" s="5">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="T227" s="1">
-        <f t="shared" si="15"/>
         <v>0.27300000000000002</v>
       </c>
       <c r="U227" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(N227/1000)/10^12</f>
         <v>5.2030606582278489</v>
       </c>
       <c r="V227" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(O227/1000)/10^12</f>
         <v>5.1380223999999997</v>
       </c>
       <c r="W227" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(P227/1000)/10^12</f>
         <v>3.6056297543859648</v>
       </c>
       <c r="X227" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="228" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="2:24">
       <c r="B228" s="2"/>
       <c r="C228">
         <v>7</v>
@@ -8760,34 +8812,34 @@
         <v>0.40699999999999997</v>
       </c>
       <c r="R228" s="5">
+        <f>(D228-I228+1+2*K228)/M228</f>
+        <v>6.5</v>
+      </c>
+      <c r="S228" s="5">
+        <f>(C228-H228+1+2*J228)/L228</f>
+        <v>6.5</v>
+      </c>
+      <c r="T228" s="1">
         <f t="shared" si="11"/>
-        <v>6.5</v>
-      </c>
-      <c r="S228" s="5">
-        <f t="shared" si="12"/>
-        <v>6.5</v>
-      </c>
-      <c r="T228" s="1">
-        <f t="shared" si="15"/>
         <v>1.081</v>
       </c>
       <c r="U228" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(N228/1000)/10^12</f>
         <v>6.0326585191489368</v>
       </c>
       <c r="V228" s="1">
-        <f t="shared" si="16"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(O228/1000)/10^12</f>
         <v>3.2293274533029614</v>
       </c>
       <c r="W228" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(P228/1000)/10^12</f>
         <v>3.4832303488943492</v>
       </c>
       <c r="X228" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="229" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="2:24">
       <c r="B229" s="2"/>
       <c r="C229" s="11">
         <v>700</v>
@@ -8832,11 +8884,11 @@
         <v>1.7310000000000001</v>
       </c>
       <c r="R229" s="5">
-        <f t="shared" si="11"/>
+        <f>(D229-I229+1+2*K229)/M229</f>
         <v>79.5</v>
       </c>
       <c r="S229" s="5">
-        <f t="shared" si="12"/>
+        <f>(C229-H229+1+2*J229)/L229</f>
         <v>349</v>
       </c>
       <c r="T229" s="1">
@@ -8844,21 +8896,21 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="U229" s="1">
-        <f t="shared" ref="U229:W268" si="17">(2*$R229*$S229*$F229*$G229*$E229*$H229*$I229)/(N229/1000)/10^12</f>
+        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(N229/1000)/10^12</f>
         <v>3.1638521158129174</v>
       </c>
       <c r="V229" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W229" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(P229/1000)/10^12</f>
         <v>0.82066412478336215</v>
       </c>
       <c r="X229" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="230" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="2:24">
       <c r="B230" s="2"/>
       <c r="C230">
         <v>350</v>
@@ -8903,34 +8955,34 @@
         <v>5.64</v>
       </c>
       <c r="R230" s="5">
-        <f t="shared" si="11"/>
+        <f>(D230-I230+1+2*K230)/M230</f>
         <v>80</v>
       </c>
       <c r="S230" s="5">
-        <f t="shared" si="12"/>
+        <f>(C230-H230+1+2*J230)/L230</f>
         <v>350</v>
       </c>
       <c r="T230" s="1">
-        <f t="shared" ref="T230:T268" si="18">N230+O230+P230</f>
+        <f t="shared" ref="T230:T268" si="12">N230+O230+P230</f>
         <v>11.797999999999998</v>
       </c>
       <c r="U230" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(N230/1000)/10^12</f>
         <v>10.752000000000001</v>
       </c>
       <c r="V230" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
         <v>10.703222294232015</v>
       </c>
       <c r="W230" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(P230/1000)/10^12</f>
         <v>5.8564085106382979</v>
       </c>
       <c r="X230" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="231" spans="1:24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="2:24">
       <c r="B231" s="2"/>
       <c r="C231">
         <v>350</v>
@@ -8975,34 +9027,34 @@
         <v>5.5010000000000003</v>
       </c>
       <c r="R231" s="5">
-        <f t="shared" si="11"/>
+        <f>(D231-I231+1+2*K231)/M231</f>
         <v>39</v>
       </c>
       <c r="S231" s="5">
+        <f>(C231-H231+1+2*J231)/L231</f>
+        <v>174</v>
+      </c>
+      <c r="T231" s="1">
         <f t="shared" si="12"/>
-        <v>174</v>
-      </c>
-      <c r="T231" s="1">
-        <f t="shared" si="18"/>
         <v>21.531000000000002</v>
       </c>
       <c r="U231" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(N231/1000)/10^12</f>
         <v>9.1696349690721668</v>
       </c>
       <c r="V231" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(O231/1000)/10^12</f>
         <v>3.9778827906976746</v>
       </c>
       <c r="W231" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(P231/1000)/10^12</f>
         <v>8.0844809307398648</v>
       </c>
       <c r="X231" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="232" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="2:24">
       <c r="B232" s="2"/>
       <c r="C232">
         <v>175</v>
@@ -9047,34 +9099,34 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="R232" s="5">
-        <f t="shared" si="11"/>
+        <f>(D232-I232+1+2*K232)/M232</f>
         <v>40</v>
       </c>
       <c r="S232" s="5">
+        <f>(C232-H232+1+2*J232)/L232</f>
+        <v>175</v>
+      </c>
+      <c r="T232" s="1">
         <f t="shared" si="12"/>
-        <v>175</v>
-      </c>
-      <c r="T232" s="1">
-        <f t="shared" si="18"/>
         <v>6.738999999999999</v>
       </c>
       <c r="U232" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(N232/1000)/10^12</f>
         <v>15.668948766603416</v>
       </c>
       <c r="V232" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(O232/1000)/10^12</f>
         <v>15.721153736316039</v>
       </c>
       <c r="W232" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(P232/1000)/10^12</f>
         <v>13.055392885375497</v>
       </c>
       <c r="X232" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="2:24">
       <c r="B233" s="2"/>
       <c r="C233">
         <v>175</v>
@@ -9119,34 +9171,34 @@
         <v>5.0439999999999996</v>
       </c>
       <c r="R233" s="5">
-        <f t="shared" si="11"/>
+        <f>(D233-I233+1+2*K233)/M233</f>
         <v>19</v>
       </c>
       <c r="S233" s="5">
+        <f>(C233-H233+1+2*J233)/L233</f>
+        <v>86.5</v>
+      </c>
+      <c r="T233" s="1">
         <f t="shared" si="12"/>
-        <v>86.5</v>
-      </c>
-      <c r="T233" s="1">
-        <f t="shared" si="18"/>
         <v>19.537000000000003</v>
       </c>
       <c r="U233" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(N233/1000)/10^12</f>
         <v>8.7496682372055226</v>
       </c>
       <c r="V233" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(O233/1000)/10^12</f>
         <v>4.5023896331905107</v>
       </c>
       <c r="W233" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(P233/1000)/10^12</f>
         <v>8.5415080095162565</v>
       </c>
       <c r="X233" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="234" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="2:24">
       <c r="B234" s="2"/>
       <c r="C234">
         <v>84</v>
@@ -9191,34 +9243,34 @@
         <v>1.633</v>
       </c>
       <c r="R234" s="5">
-        <f t="shared" si="11"/>
+        <f>(D234-I234+1+2*K234)/M234</f>
         <v>20</v>
       </c>
       <c r="S234" s="5">
+        <f>(C234-H234+1+2*J234)/L234</f>
+        <v>84</v>
+      </c>
+      <c r="T234" s="1">
         <f t="shared" si="12"/>
-        <v>84</v>
-      </c>
-      <c r="T234" s="1">
-        <f t="shared" si="18"/>
         <v>4.8040000000000003</v>
       </c>
       <c r="U234" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(N234/1000)/10^12</f>
         <v>20.32624246153846</v>
       </c>
       <c r="V234" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(O234/1000)/10^12</f>
         <v>19.682767374301676</v>
       </c>
       <c r="W234" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(P234/1000)/10^12</f>
         <v>19.417598432333129</v>
       </c>
       <c r="X234" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="235" spans="2:24">
       <c r="B235" s="2"/>
       <c r="C235">
         <v>84</v>
@@ -9263,34 +9315,34 @@
         <v>4.6219999999999999</v>
       </c>
       <c r="R235" s="5">
-        <f t="shared" si="11"/>
+        <f>(D235-I235+1+2*K235)/M235</f>
         <v>9</v>
       </c>
       <c r="S235" s="5">
+        <f>(C235-H235+1+2*J235)/L235</f>
+        <v>41</v>
+      </c>
+      <c r="T235" s="1">
         <f t="shared" si="12"/>
-        <v>41</v>
-      </c>
-      <c r="T235" s="1">
-        <f t="shared" si="18"/>
         <v>17.035</v>
       </c>
       <c r="U235" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(N235/1000)/10^12</f>
         <v>7.8293108862808571</v>
       </c>
       <c r="V235" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(O235/1000)/10^12</f>
         <v>5.1790194619194221</v>
       </c>
       <c r="W235" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(P235/1000)/10^12</f>
         <v>8.3713661618347039</v>
       </c>
       <c r="X235" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="236" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="2:24">
       <c r="B236" s="2"/>
       <c r="C236">
         <v>42</v>
@@ -9335,35 +9387,34 @@
         <v>1.7210000000000001</v>
       </c>
       <c r="R236" s="5">
-        <f t="shared" si="11"/>
+        <f>(D236-I236+1+2*K236)/M236</f>
         <v>10</v>
       </c>
       <c r="S236" s="5">
+        <f>(C236-H236+1+2*J236)/L236</f>
+        <v>42</v>
+      </c>
+      <c r="T236" s="1">
         <f t="shared" si="12"/>
-        <v>42</v>
-      </c>
-      <c r="T236" s="1">
-        <f t="shared" si="18"/>
         <v>5.1680000000000001</v>
       </c>
       <c r="U236" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(N236/1000)/10^12</f>
         <v>18.597617736070379</v>
       </c>
       <c r="V236" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(O236/1000)/10^12</f>
         <v>18.202605189437424</v>
       </c>
       <c r="W236" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(P236/1000)/10^12</f>
         <v>18.424717164439276</v>
       </c>
       <c r="X236" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="237" spans="1:24">
-      <c r="A237" s="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="237" spans="2:24">
       <c r="B237" s="2"/>
       <c r="C237">
         <v>112</v>
@@ -9408,35 +9459,34 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="R237" s="5">
-        <f t="shared" si="11"/>
+        <f>(D237-I237+1+2*K237)/M237</f>
         <v>112</v>
       </c>
       <c r="S237" s="5">
+        <f>(C237-H237+1+2*J237)/L237</f>
+        <v>112</v>
+      </c>
+      <c r="T237" s="1">
         <f t="shared" si="12"/>
-        <v>112</v>
-      </c>
-      <c r="T237" s="1">
-        <f t="shared" si="18"/>
         <v>0.94699999999999995</v>
       </c>
       <c r="U237" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(N237/1000)/10^12</f>
         <v>4.567131022222223</v>
       </c>
       <c r="V237" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(O237/1000)/10^12</f>
         <v>4.4678455652173916</v>
       </c>
       <c r="W237" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(P237/1000)/10^12</f>
         <v>1.4100919108061751</v>
       </c>
       <c r="X237" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="238" spans="1:24">
-      <c r="A238" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="2:24">
       <c r="B238" s="2"/>
       <c r="C238">
         <v>56</v>
@@ -9481,35 +9531,34 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="R238" s="5">
-        <f t="shared" si="11"/>
+        <f>(D238-I238+1+2*K238)/M238</f>
         <v>56</v>
       </c>
       <c r="S238" s="5">
+        <f>(C238-H238+1+2*J238)/L238</f>
+        <v>56</v>
+      </c>
+      <c r="T238" s="1">
         <f t="shared" si="12"/>
-        <v>56</v>
-      </c>
-      <c r="T238" s="1">
-        <f t="shared" si="18"/>
         <v>0.55500000000000005</v>
       </c>
       <c r="U238" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(N238/1000)/10^12</f>
         <v>5.1703370062893077</v>
       </c>
       <c r="V238" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(O238/1000)/10^12</f>
         <v>6.1349521194029855</v>
       </c>
       <c r="W238" s="1">
-        <f t="shared" si="14"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(P238/1000)/10^12</f>
         <v>3.1377236030534346</v>
       </c>
       <c r="X238" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="239" spans="1:24">
-      <c r="A239" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="2:24">
       <c r="B239" s="2"/>
       <c r="C239">
         <v>56</v>
@@ -9554,35 +9603,34 @@
         <v>0.37</v>
       </c>
       <c r="R239" s="5">
-        <f t="shared" ref="R239:R268" si="19">(D239-H239+1+2*J239)/L239</f>
+        <f>(D239-I239+1+2*K239)/M239</f>
         <v>56</v>
       </c>
       <c r="S239" s="5">
-        <f t="shared" ref="S239:S268" si="20">(C239-I239+1+2*K239)/M239</f>
+        <f>(C239-H239+1+2*J239)/L239</f>
         <v>56</v>
       </c>
       <c r="T239" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.65700000000000003</v>
       </c>
       <c r="U239" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
         <v>6.4225279999999998</v>
       </c>
       <c r="V239" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(O239/1000)/10^12</f>
         <v>5.1703370062893077</v>
       </c>
       <c r="W239" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
         <v>2.2218475243243243</v>
       </c>
       <c r="X239" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="240" spans="1:24">
-      <c r="A240" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="2:24">
       <c r="B240" s="2"/>
       <c r="C240">
         <v>56</v>
@@ -9627,35 +9675,34 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="R240" s="5">
-        <f t="shared" si="19"/>
+        <f>(D240-I240+1+2*K240)/M240</f>
         <v>28</v>
       </c>
       <c r="S240" s="5">
-        <f t="shared" si="20"/>
+        <f>(C240-H240+1+2*J240)/L240</f>
         <v>28</v>
       </c>
       <c r="T240" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="U240" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(N240/1000)/10^12</f>
         <v>5.9571274202898543</v>
       </c>
       <c r="V240" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(O240/1000)/10^12</f>
         <v>1.4524444946996466</v>
       </c>
       <c r="W240" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(P240/1000)/10^12</f>
         <v>2.7773094054054059</v>
       </c>
       <c r="X240" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="241" spans="1:24">
-      <c r="A241" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="2:24">
       <c r="B241" s="2"/>
       <c r="C241" s="2">
         <v>28</v>
@@ -9700,35 +9747,34 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="R241" s="5">
-        <f t="shared" si="19"/>
+        <f>(D241-I241+1+2*K241)/M241</f>
         <v>28</v>
       </c>
       <c r="S241" s="5">
-        <f t="shared" si="20"/>
+        <f>(C241-H241+1+2*J241)/L241</f>
         <v>28</v>
       </c>
       <c r="T241" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.433</v>
       </c>
       <c r="U241" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(N241/1000)/10^12</f>
         <v>6.4225279999999998</v>
       </c>
       <c r="V241" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(O241/1000)/10^12</f>
         <v>7.4734871272727261</v>
       </c>
       <c r="W241" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(P241/1000)/10^12</f>
         <v>4.215813251282051</v>
       </c>
       <c r="X241" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="242" spans="1:24">
-      <c r="A242" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="2:24">
       <c r="B242" s="2"/>
       <c r="C242" s="2">
         <v>28</v>
@@ -9773,35 +9819,34 @@
         <v>0.19</v>
       </c>
       <c r="R242" s="5">
-        <f t="shared" si="19"/>
+        <f>(D242-I242+1+2*K242)/M242</f>
         <v>28</v>
       </c>
       <c r="S242" s="5">
-        <f t="shared" si="20"/>
+        <f>(C242-H242+1+2*J242)/L242</f>
         <v>28</v>
       </c>
       <c r="T242" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.42699999999999999</v>
       </c>
       <c r="U242" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(N242/1000)/10^12</f>
         <v>7.6830241495327103</v>
       </c>
       <c r="V242" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(O242/1000)/10^12</f>
         <v>6.323719876923076</v>
       </c>
       <c r="W242" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(P242/1000)/10^12</f>
         <v>4.3267557052631576</v>
       </c>
       <c r="X242" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="243" spans="1:24">
-      <c r="A243" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="2:24">
       <c r="B243" s="2"/>
       <c r="C243" s="2">
         <v>28</v>
@@ -9846,35 +9891,34 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="R243" s="5">
-        <f t="shared" si="19"/>
+        <f>(D243-I243+1+2*K243)/M243</f>
         <v>14</v>
       </c>
       <c r="S243" s="5">
-        <f t="shared" si="20"/>
+        <f>(C243-H243+1+2*J243)/L243</f>
         <v>14</v>
       </c>
       <c r="T243" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.46299999999999997</v>
       </c>
       <c r="U243" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(N243/1000)/10^12</f>
         <v>4.9523107469879522</v>
       </c>
       <c r="V243" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(O243/1000)/10^12</f>
         <v>1.7198401338912137</v>
       </c>
       <c r="W243" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(P243/1000)/10^12</f>
         <v>2.9151900141843976</v>
       </c>
       <c r="X243" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24">
-      <c r="A244" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="2:24">
       <c r="B244" s="2"/>
       <c r="C244" s="2">
         <v>14</v>
@@ -9919,35 +9963,34 @@
         <v>0.188</v>
       </c>
       <c r="R244" s="5">
-        <f t="shared" si="19"/>
+        <f>(D244-I244+1+2*K244)/M244</f>
         <v>14</v>
       </c>
       <c r="S244" s="5">
-        <f t="shared" si="20"/>
+        <f>(C244-H244+1+2*J244)/L244</f>
         <v>14</v>
       </c>
       <c r="T244" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.44</v>
       </c>
       <c r="U244" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(N244/1000)/10^12</f>
         <v>7.4734871272727261</v>
       </c>
       <c r="V244" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(O244/1000)/10^12</f>
         <v>5.7893210140845079</v>
       </c>
       <c r="W244" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(P244/1000)/10^12</f>
         <v>4.372785021276596</v>
       </c>
       <c r="X244" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="245" spans="1:24">
-      <c r="A245" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="2:24">
       <c r="B245" s="2"/>
       <c r="C245" s="2">
         <v>28</v>
@@ -9992,35 +10035,34 @@
         <v>0.40400000000000003</v>
       </c>
       <c r="R245" s="5">
-        <f t="shared" si="19"/>
+        <f>(D245-I245+1+2*K245)/M245</f>
         <v>14</v>
       </c>
       <c r="S245" s="5">
-        <f t="shared" si="20"/>
+        <f>(C245-H245+1+2*J245)/L245</f>
         <v>14</v>
       </c>
       <c r="T245" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.2130000000000001</v>
       </c>
       <c r="U245" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(N245/1000)/10^12</f>
         <v>7.4061584144144144</v>
       </c>
       <c r="V245" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(O245/1000)/10^12</f>
         <v>2.8009662146507668</v>
       </c>
       <c r="W245" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(P245/1000)/10^12</f>
         <v>4.0697207128712867</v>
       </c>
       <c r="X245" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24">
-      <c r="A246" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="2:24">
       <c r="B246" s="2"/>
       <c r="C246" s="2">
         <v>14</v>
@@ -10065,35 +10107,34 @@
         <v>0.187</v>
       </c>
       <c r="R246" s="5">
-        <f t="shared" si="19"/>
+        <f>(D246-I246+1+2*K246)/M246</f>
         <v>14</v>
       </c>
       <c r="S246" s="5">
-        <f t="shared" si="20"/>
+        <f>(C246-H246+1+2*J246)/L246</f>
         <v>14</v>
       </c>
       <c r="T246" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.44</v>
       </c>
       <c r="U246" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(N246/1000)/10^12</f>
         <v>5.8720255999999988</v>
       </c>
       <c r="V246" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(O246/1000)/10^12</f>
         <v>7.2750759646017693</v>
       </c>
       <c r="W246" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(P246/1000)/10^12</f>
         <v>4.3961688983957226</v>
       </c>
       <c r="X246" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="247" spans="1:24">
-      <c r="A247" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="2:24">
       <c r="B247" s="2"/>
       <c r="C247" s="2">
         <v>14</v>
@@ -10138,35 +10179,34 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="R247" s="5">
-        <f t="shared" si="19"/>
+        <f>(D247-I247+1+2*K247)/M247</f>
         <v>14</v>
       </c>
       <c r="S247" s="5">
-        <f t="shared" si="20"/>
+        <f>(C247-H247+1+2*J247)/L247</f>
         <v>14</v>
       </c>
       <c r="T247" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.41199999999999998</v>
       </c>
       <c r="U247" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(N247/1000)/10^12</f>
         <v>7.4061584144144144</v>
       </c>
       <c r="V247" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(O247/1000)/10^12</f>
         <v>6.5766686720000003</v>
       </c>
       <c r="W247" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(P247/1000)/10^12</f>
         <v>4.6709294545454547</v>
       </c>
       <c r="X247" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24">
-      <c r="A248" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="2:24">
       <c r="B248" s="2"/>
       <c r="C248" s="2">
         <v>14</v>
@@ -10211,35 +10251,34 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="R248" s="5">
-        <f t="shared" si="19"/>
+        <f>(D248-I248+1+2*K248)/M248</f>
         <v>7</v>
       </c>
       <c r="S248" s="5">
-        <f t="shared" si="20"/>
+        <f>(C248-H248+1+2*J248)/L248</f>
         <v>7</v>
       </c>
       <c r="T248" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.42100000000000004</v>
       </c>
       <c r="U248" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(N248/1000)/10^12</f>
         <v>3.6056297543859648</v>
       </c>
       <c r="V248" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(O248/1000)/10^12</f>
         <v>2.8347709793103446</v>
       </c>
       <c r="W248" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(P248/1000)/10^12</f>
         <v>2.5372950123456786</v>
       </c>
       <c r="X248" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="249" spans="1:24">
-      <c r="A249" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="2:24">
       <c r="B249" s="2"/>
       <c r="C249" s="2">
         <v>7</v>
@@ -10284,35 +10323,34 @@
         <v>0.38600000000000001</v>
       </c>
       <c r="R249" s="5">
-        <f t="shared" si="19"/>
+        <f>(D249-I249+1+2*K249)/M249</f>
         <v>7</v>
       </c>
       <c r="S249" s="5">
-        <f t="shared" si="20"/>
+        <f>(C249-H249+1+2*J249)/L249</f>
         <v>7</v>
       </c>
       <c r="T249" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.0859999999999999</v>
       </c>
       <c r="U249" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(N249/1000)/10^12</f>
         <v>5.254795636363637</v>
       </c>
       <c r="V249" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(O249/1000)/10^12</f>
         <v>5.3151955862068965</v>
       </c>
       <c r="W249" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(P249/1000)/10^12</f>
         <v>4.7919379896373053</v>
       </c>
       <c r="X249" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24">
-      <c r="A250" s="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="250" spans="2:24">
       <c r="B250" s="2"/>
       <c r="C250" s="2">
         <v>7</v>
@@ -10357,35 +10395,34 @@
         <v>0.29099999999999998</v>
       </c>
       <c r="R250" s="5">
-        <f t="shared" si="19"/>
+        <f>(D250-I250+1+2*K250)/M250</f>
         <v>7</v>
       </c>
       <c r="S250" s="5">
-        <f t="shared" si="20"/>
+        <f>(C250-H250+1+2*J250)/L250</f>
         <v>7</v>
       </c>
       <c r="T250" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.68399999999999994</v>
       </c>
       <c r="U250" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(N250/1000)/10^12</f>
         <v>4.6445400225988704</v>
       </c>
       <c r="V250" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(O250/1000)/10^12</f>
         <v>3.8059425185185187</v>
       </c>
       <c r="W250" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(P250/1000)/10^12</f>
         <v>2.8250294982817872</v>
       </c>
       <c r="X250" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24">
-      <c r="A251" s="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="251" spans="2:24">
       <c r="B251" s="2"/>
       <c r="C251" s="2">
         <v>14</v>
@@ -10430,35 +10467,34 @@
         <v>0.58599999999999997</v>
       </c>
       <c r="R251" s="5">
-        <f t="shared" si="19"/>
+        <f>(D251-I251+1+2*K251)/M251</f>
         <v>7</v>
       </c>
       <c r="S251" s="5">
-        <f t="shared" si="20"/>
+        <f>(C251-H251+1+2*J251)/L251</f>
         <v>7</v>
       </c>
       <c r="T251" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.2749999999999999</v>
       </c>
       <c r="U251" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(N251/1000)/10^12</f>
         <v>5.2697665641025644</v>
       </c>
       <c r="V251" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(O251/1000)/10^12</f>
         <v>4.3611861220159147</v>
       </c>
       <c r="W251" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(P251/1000)/10^12</f>
         <v>2.805746020477816</v>
       </c>
       <c r="X251" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24">
-      <c r="A252" s="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="252" spans="2:24">
       <c r="B252" s="2"/>
       <c r="C252" s="2">
         <v>7</v>
@@ -10503,35 +10539,34 @@
         <v>0.29299999999999998</v>
       </c>
       <c r="R252" s="5">
-        <f t="shared" si="19"/>
+        <f>(D252-I252+1+2*K252)/M252</f>
         <v>7</v>
       </c>
       <c r="S252" s="5">
-        <f t="shared" si="20"/>
+        <f>(C252-H252+1+2*J252)/L252</f>
         <v>7</v>
       </c>
       <c r="T252" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.68599999999999994</v>
       </c>
       <c r="U252" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(N252/1000)/10^12</f>
         <v>3.7198352217194572</v>
       </c>
       <c r="V252" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(O252/1000)/10^12</f>
         <v>4.7795557209302331</v>
       </c>
       <c r="W252" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(P252/1000)/10^12</f>
         <v>2.805746020477816</v>
       </c>
       <c r="X252" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="253" spans="1:24">
-      <c r="A253" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="2:24">
       <c r="B253" s="2"/>
       <c r="C253">
         <v>112</v>
@@ -10576,35 +10611,34 @@
         <v>1.135</v>
       </c>
       <c r="R253" s="5">
-        <f t="shared" si="19"/>
+        <f>(D253-I253+1+2*K253)/M253</f>
         <v>112</v>
       </c>
       <c r="S253" s="5">
-        <f t="shared" si="20"/>
+        <f>(C253-H253+1+2*J253)/L253</f>
         <v>112</v>
       </c>
       <c r="T253" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.82</v>
       </c>
       <c r="U253" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(N253/1000)/10^12</f>
         <v>4.8788343264094953</v>
       </c>
       <c r="V253" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(O253/1000)/10^12</f>
         <v>4.724618298850574</v>
       </c>
       <c r="W253" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(P253/1000)/10^12</f>
         <v>1.4486054343612336</v>
       </c>
       <c r="X253" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="254" spans="1:24">
-      <c r="A254" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="2:24">
       <c r="B254" s="2"/>
       <c r="C254">
         <v>56</v>
@@ -10649,35 +10683,34 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="R254" s="5">
-        <f t="shared" si="19"/>
+        <f>(D254-I254+1+2*K254)/M254</f>
         <v>56</v>
       </c>
       <c r="S254" s="5">
-        <f t="shared" si="20"/>
+        <f>(C254-H254+1+2*J254)/L254</f>
         <v>56</v>
       </c>
       <c r="T254" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.0609999999999999</v>
       </c>
       <c r="U254" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(N254/1000)/10^12</f>
         <v>5.6307094794520545</v>
       </c>
       <c r="V254" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(O254/1000)/10^12</f>
         <v>6.4225279999999998</v>
       </c>
       <c r="W254" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(P254/1000)/10^12</f>
         <v>3.2050042261208578</v>
       </c>
       <c r="X254" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="255" spans="1:24">
-      <c r="A255" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255" spans="2:24">
       <c r="B255" s="2"/>
       <c r="C255">
         <v>56</v>
@@ -10722,35 +10755,34 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="R255" s="5">
-        <f t="shared" si="19"/>
+        <f>(D255-I255+1+2*K255)/M255</f>
         <v>56</v>
       </c>
       <c r="S255" s="5">
-        <f t="shared" si="20"/>
+        <f>(C255-H255+1+2*J255)/L255</f>
         <v>56</v>
       </c>
       <c r="T255" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.2709999999999999</v>
       </c>
       <c r="U255" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(N255/1000)/10^12</f>
         <v>6.738390032786886</v>
       </c>
       <c r="V255" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(O255/1000)/10^12</f>
         <v>5.3382050909090912</v>
       </c>
       <c r="W255" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(P255/1000)/10^12</f>
         <v>2.2867415410292069</v>
       </c>
       <c r="X255" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="256" spans="1:24">
-      <c r="A256" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256" spans="2:24">
       <c r="B256" s="2"/>
       <c r="C256">
         <v>56</v>
@@ -10795,35 +10827,34 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="R256" s="5">
-        <f t="shared" si="19"/>
+        <f>(D256-I256+1+2*K256)/M256</f>
         <v>28</v>
       </c>
       <c r="S256" s="5">
-        <f t="shared" si="20"/>
+        <f>(C256-H256+1+2*J256)/L256</f>
         <v>28</v>
       </c>
       <c r="T256" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.92300000000000004</v>
       </c>
       <c r="U256" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(N256/1000)/10^12</f>
         <v>6.1349521194029855</v>
       </c>
       <c r="V256" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(O256/1000)/10^12</f>
         <v>1.6025021130604289</v>
       </c>
       <c r="W256" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(P256/1000)/10^12</f>
         <v>2.9785637101449272</v>
       </c>
       <c r="X256" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="257" spans="1:24">
-      <c r="A257" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="2:24">
       <c r="B257" s="2"/>
       <c r="C257" s="2">
         <v>28</v>
@@ -10868,35 +10899,34 @@
         <v>0.315</v>
       </c>
       <c r="R257" s="5">
-        <f t="shared" si="19"/>
+        <f>(D257-I257+1+2*K257)/M257</f>
         <v>28</v>
       </c>
       <c r="S257" s="5">
-        <f t="shared" si="20"/>
+        <f>(C257-H257+1+2*J257)/L257</f>
         <v>28</v>
       </c>
       <c r="T257" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.748</v>
       </c>
       <c r="U257" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(N257/1000)/10^12</f>
         <v>7.2112595087719296</v>
       </c>
       <c r="V257" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(O257/1000)/10^12</f>
         <v>8.0203276487804889</v>
       </c>
       <c r="W257" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(P257/1000)/10^12</f>
         <v>5.2195783111111114</v>
       </c>
       <c r="X257" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="258" spans="1:24">
-      <c r="A258" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="2:24">
       <c r="B258" s="2"/>
       <c r="C258" s="2">
         <v>28</v>
@@ -10941,35 +10971,34 @@
         <v>0.316</v>
       </c>
       <c r="R258" s="5">
-        <f t="shared" si="19"/>
+        <f>(D258-I258+1+2*K258)/M258</f>
         <v>28</v>
       </c>
       <c r="S258" s="5">
-        <f t="shared" si="20"/>
+        <f>(C258-H258+1+2*J258)/L258</f>
         <v>28</v>
       </c>
       <c r="T258" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.74900000000000011</v>
       </c>
       <c r="U258" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(N258/1000)/10^12</f>
         <v>8.1799361592039794</v>
       </c>
       <c r="V258" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(O258/1000)/10^12</f>
         <v>7.086927448275862</v>
       </c>
       <c r="W258" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(P258/1000)/10^12</f>
         <v>5.2030606582278489</v>
       </c>
       <c r="X258" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="259" spans="1:24">
-      <c r="A259" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="2:24">
       <c r="B259" s="2"/>
       <c r="C259" s="2">
         <v>28</v>
@@ -11014,35 +11043,34 @@
         <v>0.216</v>
       </c>
       <c r="R259" s="5">
-        <f t="shared" si="19"/>
+        <f>(D259-I259+1+2*K259)/M259</f>
         <v>14</v>
       </c>
       <c r="S259" s="5">
-        <f t="shared" si="20"/>
+        <f>(C259-H259+1+2*J259)/L259</f>
         <v>14</v>
       </c>
       <c r="T259" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.73499999999999999</v>
       </c>
       <c r="U259" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(N259/1000)/10^12</f>
         <v>7.1485529043478264</v>
       </c>
       <c r="V259" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(O259/1000)/10^12</f>
         <v>2.0348603564356433</v>
       </c>
       <c r="W259" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(P259/1000)/10^12</f>
         <v>3.8059425185185187</v>
       </c>
       <c r="X259" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="260" spans="1:24">
-      <c r="A260" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" spans="2:24">
       <c r="B260" s="2"/>
       <c r="C260" s="2">
         <v>14</v>
@@ -11087,35 +11115,34 @@
         <v>0.314</v>
       </c>
       <c r="R260" s="5">
-        <f t="shared" si="19"/>
+        <f>(D260-I260+1+2*K260)/M260</f>
         <v>14</v>
       </c>
       <c r="S260" s="5">
-        <f t="shared" si="20"/>
+        <f>(C260-H260+1+2*J260)/L260</f>
         <v>14</v>
       </c>
       <c r="T260" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="U260" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(N260/1000)/10^12</f>
         <v>7.2112595087719296</v>
       </c>
       <c r="V260" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(O260/1000)/10^12</f>
         <v>7.4734871272727261</v>
       </c>
       <c r="W260" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(P260/1000)/10^12</f>
         <v>5.2362011719745221</v>
       </c>
       <c r="X260" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24">
-      <c r="A261" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="2:24">
       <c r="B261" s="2"/>
       <c r="C261" s="2">
         <v>28</v>
@@ -11160,35 +11187,34 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="R261" s="5">
-        <f t="shared" si="19"/>
+        <f>(D261-I261+1+2*K261)/M261</f>
         <v>14</v>
       </c>
       <c r="S261" s="5">
-        <f t="shared" si="20"/>
+        <f>(C261-H261+1+2*J261)/L261</f>
         <v>14</v>
       </c>
       <c r="T261" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2.0920000000000001</v>
       </c>
       <c r="U261" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(N261/1000)/10^12</f>
         <v>7.2430271718061672</v>
       </c>
       <c r="V261" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(O261/1000)/10^12</f>
         <v>3.454132705882353</v>
       </c>
       <c r="W261" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(P261/1000)/10^12</f>
         <v>4.7934902857142854</v>
       </c>
       <c r="X261" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="262" spans="1:24">
-      <c r="A262" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" spans="2:24">
       <c r="B262" s="2"/>
       <c r="C262" s="2">
         <v>14</v>
@@ -11233,35 +11259,34 @@
         <v>0.311</v>
       </c>
       <c r="R262" s="5">
-        <f t="shared" si="19"/>
+        <f>(D262-I262+1+2*K262)/M262</f>
         <v>14</v>
       </c>
       <c r="S262" s="5">
-        <f t="shared" si="20"/>
+        <f>(C262-H262+1+2*J262)/L262</f>
         <v>14</v>
       </c>
       <c r="T262" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.73199999999999998</v>
       </c>
       <c r="U262" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(N262/1000)/10^12</f>
         <v>8.2621465728643209</v>
       </c>
       <c r="V262" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(O262/1000)/10^12</f>
         <v>7.4061584144144144</v>
       </c>
       <c r="W262" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(P262/1000)/10^12</f>
         <v>5.2867111511254015</v>
       </c>
       <c r="X262" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="263" spans="1:24">
-      <c r="A263" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" spans="2:24">
       <c r="B263" s="2"/>
       <c r="C263" s="2">
         <v>14</v>
@@ -11306,35 +11331,34 @@
         <v>0.312</v>
       </c>
       <c r="R263" s="5">
-        <f t="shared" si="19"/>
+        <f>(D263-I263+1+2*K263)/M263</f>
         <v>14</v>
       </c>
       <c r="S263" s="5">
-        <f t="shared" si="20"/>
+        <f>(C263-H263+1+2*J263)/L263</f>
         <v>14</v>
       </c>
       <c r="T263" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.754</v>
       </c>
       <c r="U263" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(N263/1000)/10^12</f>
         <v>7.4061584144144144</v>
       </c>
       <c r="V263" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(O263/1000)/10^12</f>
         <v>7.4734871272727261</v>
       </c>
       <c r="W263" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(P263/1000)/10^12</f>
         <v>5.2697665641025644</v>
       </c>
       <c r="X263" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="264" spans="1:24">
-      <c r="A264" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="264" spans="2:24">
       <c r="B264" s="2"/>
       <c r="C264" s="2">
         <v>14</v>
@@ -11379,35 +11403,34 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="R264" s="5">
-        <f t="shared" si="19"/>
+        <f>(D264-I264+1+2*K264)/M264</f>
         <v>7</v>
       </c>
       <c r="S264" s="5">
-        <f t="shared" si="20"/>
+        <f>(C264-H264+1+2*J264)/L264</f>
         <v>7</v>
       </c>
       <c r="T264" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.72799999999999998</v>
       </c>
       <c r="U264" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(N264/1000)/10^12</f>
         <v>5.8720255999999988</v>
       </c>
       <c r="V264" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(O264/1000)/10^12</f>
         <v>2.5140170764525993</v>
       </c>
       <c r="W264" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(P264/1000)/10^12</f>
         <v>3.1497455325670498</v>
       </c>
       <c r="X264" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="265" spans="1:24">
-      <c r="A265" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265" spans="2:24">
       <c r="B265" s="2"/>
       <c r="C265" s="2">
         <v>7</v>
@@ -11452,35 +11475,34 @@
         <v>0.5</v>
       </c>
       <c r="R265" s="5">
-        <f t="shared" si="19"/>
+        <f>(D265-I265+1+2*K265)/M265</f>
         <v>7</v>
       </c>
       <c r="S265" s="5">
-        <f t="shared" si="20"/>
+        <f>(C265-H265+1+2*J265)/L265</f>
         <v>7</v>
       </c>
       <c r="T265" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.556</v>
       </c>
       <c r="U265" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(N265/1000)/10^12</f>
         <v>6.6535541870503581</v>
       </c>
       <c r="V265" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(O265/1000)/10^12</f>
         <v>7.3987522559999999</v>
       </c>
       <c r="W265" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(P265/1000)/10^12</f>
         <v>7.3987522559999999</v>
       </c>
       <c r="X265" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="266" spans="1:24">
-      <c r="A266" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266" spans="2:24">
       <c r="B266" s="2"/>
       <c r="C266" s="2">
         <v>7</v>
@@ -11525,35 +11547,34 @@
         <v>0.40100000000000002</v>
       </c>
       <c r="R266" s="5">
-        <f t="shared" si="19"/>
+        <f>(D266-I266+1+2*K266)/M266</f>
         <v>7</v>
       </c>
       <c r="S266" s="5">
-        <f t="shared" si="20"/>
+        <f>(C266-H266+1+2*J266)/L266</f>
         <v>7</v>
       </c>
       <c r="T266" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.88200000000000001</v>
       </c>
       <c r="U266" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(N266/1000)/10^12</f>
         <v>7.4396704434389145</v>
       </c>
       <c r="V266" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(O266/1000)/10^12</f>
         <v>6.323719876923076</v>
       </c>
       <c r="W266" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(P266/1000)/10^12</f>
         <v>4.1001675012468821</v>
       </c>
       <c r="X266" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="267" spans="1:24">
-      <c r="A267" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267" spans="2:24">
       <c r="B267" s="2"/>
       <c r="C267" s="2">
         <v>14</v>
@@ -11598,35 +11619,34 @@
         <v>0.86299999999999999</v>
       </c>
       <c r="R267" s="5">
-        <f t="shared" si="19"/>
+        <f>(D267-I267+1+2*K267)/M267</f>
         <v>7</v>
       </c>
       <c r="S267" s="5">
-        <f t="shared" si="20"/>
+        <f>(C267-H267+1+2*J267)/L267</f>
         <v>7</v>
       </c>
       <c r="T267" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2.149</v>
       </c>
       <c r="U267" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(N267/1000)/10^12</f>
         <v>8.2208358399999995</v>
       </c>
       <c r="V267" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(O267/1000)/10^12</f>
         <v>3.7114383024830704</v>
       </c>
       <c r="W267" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(P267/1000)/10^12</f>
         <v>3.810352648899189</v>
       </c>
       <c r="X267" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="268" spans="1:24">
-      <c r="A268" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" spans="2:24">
       <c r="B268" s="2"/>
       <c r="C268" s="2">
         <v>7</v>
@@ -11671,39 +11691,39 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="R268" s="5">
-        <f t="shared" si="19"/>
+        <f>(D268-I268+1+2*K268)/M268</f>
         <v>7</v>
       </c>
       <c r="S268" s="5">
-        <f t="shared" si="20"/>
+        <f>(C268-H268+1+2*J268)/L268</f>
         <v>7</v>
       </c>
       <c r="T268" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.89900000000000002</v>
       </c>
       <c r="U268" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(N268/1000)/10^12</f>
         <v>6.524472888888889</v>
       </c>
       <c r="V268" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(O268/1000)/10^12</f>
         <v>7.3729469417040363</v>
       </c>
       <c r="W268" s="1">
-        <f t="shared" si="17"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(P268/1000)/10^12</f>
         <v>3.877752754716981</v>
       </c>
       <c r="X268" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="270" spans="1:24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270" spans="2:24">
       <c r="T270" s="1"/>
     </row>
-    <row r="271" spans="1:24">
+    <row r="271" spans="2:24">
       <c r="D271" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -11711,28 +11731,28 @@
     </row>
     <row r="278" spans="1:12">
       <c r="A278" t="s">
+        <v>34</v>
+      </c>
+      <c r="C278" t="s">
+        <v>35</v>
+      </c>
+      <c r="D278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E278" t="s">
         <v>36</v>
       </c>
-      <c r="C278" t="s">
+      <c r="G278" t="s">
         <v>37</v>
       </c>
-      <c r="D278" t="s">
-        <v>2</v>
-      </c>
-      <c r="E278" t="s">
+      <c r="H278" t="s">
         <v>38</v>
       </c>
-      <c r="G278" t="s">
+      <c r="I278" t="s">
         <v>39</v>
       </c>
-      <c r="H278" t="s">
+      <c r="J278" t="s">
         <v>40</v>
-      </c>
-      <c r="I278" t="s">
-        <v>41</v>
-      </c>
-      <c r="J278" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -11752,11 +11772,11 @@
         <v>3.6139999999999999</v>
       </c>
       <c r="I280" s="1">
-        <f t="shared" ref="I280:J291" si="21">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
+        <f t="shared" ref="I280:J291" si="13">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
         <v>1.1963243243243242</v>
       </c>
       <c r="J280" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.3717675705589376</v>
       </c>
     </row>
@@ -11777,11 +11797,11 @@
         <v>9.7910000000000004</v>
       </c>
       <c r="I281" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0.94890764666475258</v>
       </c>
       <c r="J281" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.0126785823715656</v>
       </c>
     </row>
@@ -11802,11 +11822,11 @@
         <v>5.0819999999999999</v>
       </c>
       <c r="I282" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>3.3639138252756573</v>
       </c>
       <c r="J282" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>3.9020606060606062</v>
       </c>
     </row>
@@ -11827,11 +11847,11 @@
         <v>6.1890000000000001</v>
       </c>
       <c r="I283" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>5.9810803800331769</v>
       </c>
       <c r="J283" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>6.4082313782517373</v>
       </c>
     </row>
@@ -11852,11 +11872,11 @@
         <v>5.444</v>
       </c>
       <c r="I284" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.0005253838127888</v>
       </c>
       <c r="J284" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.2330133725202057</v>
       </c>
     </row>
@@ -11877,11 +11897,11 @@
         <v>11.206</v>
       </c>
       <c r="I285" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.136271654676259</v>
       </c>
       <c r="J285" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.1980233446368018</v>
       </c>
     </row>
@@ -11902,11 +11922,11 @@
         <v>9.7850000000000001</v>
       </c>
       <c r="I286" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>2.5630106147384497</v>
       </c>
       <c r="J286" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>2.7440060500766479</v>
       </c>
     </row>
@@ -11927,11 +11947,11 @@
         <v>8.7479999999999993</v>
       </c>
       <c r="I287" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>5.9063130664320269</v>
       </c>
       <c r="J287" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>6.1385686328303626</v>
       </c>
     </row>
@@ -11952,11 +11972,11 @@
         <v>9.1549999999999994</v>
       </c>
       <c r="I288" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.0129233146610004</v>
       </c>
       <c r="J288" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.1455825232113599</v>
       </c>
     </row>
@@ -11977,11 +11997,11 @@
         <v>13.86</v>
       </c>
       <c r="I289" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.4271068172540482</v>
       </c>
       <c r="J289" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>1.513392207792208</v>
       </c>
     </row>
@@ -12002,11 +12022,11 @@
         <v>15.082000000000001</v>
       </c>
       <c r="I290" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>2.6871145272867021</v>
       </c>
       <c r="J290" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>2.7815430314281926</v>
       </c>
     </row>
@@ -12027,38 +12047,38 @@
         <v>15.711</v>
       </c>
       <c r="I291" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>5.220087351458969</v>
       </c>
       <c r="J291" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>5.3403643307236974</v>
       </c>
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
+        <v>41</v>
+      </c>
+      <c r="C295" t="s">
+        <v>35</v>
+      </c>
+      <c r="D295" t="s">
+        <v>2</v>
+      </c>
+      <c r="E295" t="s">
+        <v>36</v>
+      </c>
+      <c r="G295" t="s">
+        <v>42</v>
+      </c>
+      <c r="H295" t="s">
         <v>43</v>
       </c>
-      <c r="C295" t="s">
-        <v>37</v>
-      </c>
-      <c r="D295" t="s">
-        <v>2</v>
-      </c>
-      <c r="E295" t="s">
-        <v>38</v>
-      </c>
-      <c r="G295" t="s">
-        <v>44</v>
-      </c>
-      <c r="H295" t="s">
-        <v>45</v>
-      </c>
       <c r="I295" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J295" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -12078,11 +12098,11 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="I296" s="1">
-        <f t="shared" ref="I296:J311" si="22">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
+        <f t="shared" ref="I296:J311" si="14">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
         <v>0.65536000000000005</v>
       </c>
       <c r="J296" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.59918628571428567</v>
       </c>
     </row>
@@ -12103,11 +12123,11 @@
         <v>5.5309999999999997</v>
       </c>
       <c r="I297" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.74433078970718725</v>
       </c>
       <c r="J297" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.30333060929307543</v>
       </c>
     </row>
@@ -12128,11 +12148,11 @@
         <v>2.0960000000000001</v>
       </c>
       <c r="I298" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1.6360035104826911</v>
       </c>
       <c r="J298" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1.6008793893129771</v>
       </c>
     </row>
@@ -12153,11 +12173,11 @@
         <v>2.452</v>
       </c>
       <c r="I299" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>2.8472152736529481</v>
       </c>
       <c r="J299" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>2.7369030995106041</v>
       </c>
     </row>
@@ -12178,11 +12198,11 @@
         <v>2.4809999999999999</v>
       </c>
       <c r="I300" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.8336504844720497</v>
       </c>
       <c r="J300" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1.352455945183394</v>
       </c>
     </row>
@@ -12203,11 +12223,11 @@
         <v>10.18</v>
       </c>
       <c r="I301" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1.732288693856479</v>
       </c>
       <c r="J301" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.65922263261296654</v>
       </c>
     </row>
@@ -12228,11 +12248,11 @@
         <v>3.3080000000000003</v>
       </c>
       <c r="I302" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>3.1827775195636709</v>
       </c>
       <c r="J302" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>4.0573678355501812</v>
       </c>
     </row>
@@ -12253,11 +12273,11 @@
         <v>4.59</v>
       </c>
       <c r="I303" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>4.8480306303052192</v>
       </c>
       <c r="J303" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>5.8482670152505447</v>
       </c>
     </row>
@@ -12278,11 +12298,11 @@
         <v>9.2750000000000004</v>
       </c>
       <c r="I304" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.67415605002762569</v>
       </c>
       <c r="J304" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1.4470914070080863</v>
       </c>
     </row>
@@ -12303,11 +12323,11 @@
         <v>19.946000000000002</v>
       </c>
       <c r="I305" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>3.4304850607028752</v>
       </c>
       <c r="J305" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1.3458109696179685</v>
       </c>
     </row>
@@ -12328,11 +12348,11 @@
         <v>20.661999999999999</v>
       </c>
       <c r="I306" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>5.0557577172991808</v>
       </c>
       <c r="J306" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>2.5983492014325815</v>
       </c>
     </row>
@@ -12353,11 +12373,11 @@
         <v>13.276</v>
       </c>
       <c r="I307" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>6.5568015632633116</v>
       </c>
       <c r="J307" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>8.0878413980114487</v>
       </c>
     </row>
@@ -12378,11 +12398,11 @@
         <v>59.713000000000001</v>
       </c>
       <c r="I308" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.68407756272218767</v>
       </c>
       <c r="J308" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0.89908547887394707</v>
       </c>
     </row>
@@ -12403,11 +12423,11 @@
         <v>46.56</v>
       </c>
       <c r="I309" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>4.6138785837057403</v>
       </c>
       <c r="J309" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>2.3061465292096215</v>
       </c>
     </row>
@@ -12428,11 +12448,11 @@
         <v>51.094999999999999</v>
       </c>
       <c r="I310" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>4.4927376053892347</v>
       </c>
       <c r="J310" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>4.2029232762501216</v>
       </c>
     </row>
@@ -12453,11 +12473,11 @@
         <v>64.820999999999998</v>
       </c>
       <c r="I311" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>8.3337549643945135</v>
       </c>
       <c r="J311" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>6.6258886718810253</v>
       </c>
     </row>
@@ -12478,11 +12498,11 @@
         <v>7.4509999999999996</v>
       </c>
       <c r="I312" s="1">
-        <f t="shared" ref="I312:J317" si="23">(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
+        <f t="shared" ref="I312:J317" si="15">(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
         <v>0.65689960845732187</v>
       </c>
       <c r="J312" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>1.0132528788082138</v>
       </c>
     </row>
@@ -12503,11 +12523,11 @@
         <v>11.335000000000001</v>
       </c>
       <c r="I313" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0.69247853244668667</v>
       </c>
       <c r="J313" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>1.3321124305249226</v>
       </c>
     </row>
@@ -12528,11 +12548,11 @@
         <v>30.027999999999999</v>
       </c>
       <c r="I314" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>2.5959759993123011</v>
       </c>
       <c r="J314" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>1.0056943119754895</v>
       </c>
     </row>
@@ -12553,11 +12573,11 @@
         <v>4.0860000000000003</v>
       </c>
       <c r="I315" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0.75391923307369679</v>
       </c>
       <c r="J315" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0.30795183553597649</v>
       </c>
     </row>
@@ -12578,11 +12598,11 @@
         <v>14.672000000000001</v>
       </c>
       <c r="I316" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0.38153159490600358</v>
       </c>
       <c r="J316" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0.17152279171210469</v>
       </c>
     </row>
@@ -12603,11 +12623,11 @@
         <v>8.5050000000000008</v>
       </c>
       <c r="I317" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0.84208880709385969</v>
       </c>
       <c r="J317" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0.59178892416225748</v>
       </c>
     </row>
@@ -12621,28 +12641,28 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C320" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D320" t="s">
         <v>2</v>
       </c>
       <c r="E320" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I320" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J320" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="321" spans="3:10">
@@ -12687,11 +12707,11 @@
         <v>635.21500000000003</v>
       </c>
       <c r="I322" s="1">
-        <f t="shared" ref="I322:I339" si="24">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <f t="shared" ref="I322:I339" si="16">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
         <v>3.5760678698597315</v>
       </c>
       <c r="J322" s="1">
-        <f t="shared" ref="J322:J339" si="25">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <f t="shared" ref="J322:J339" si="17">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
         <v>1.7976579016553447</v>
       </c>
     </row>
@@ -12712,11 +12732,11 @@
         <v>318.56099999999998</v>
       </c>
       <c r="I323" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>3.5703096125465867</v>
       </c>
       <c r="J323" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.7922772467439518</v>
       </c>
     </row>
@@ -12737,11 +12757,11 @@
         <v>159.52600000000001</v>
       </c>
       <c r="I324" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>3.5506640788167503</v>
       </c>
       <c r="J324" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.7847469993856802</v>
       </c>
     </row>
@@ -12762,11 +12782,11 @@
         <v>890.202</v>
       </c>
       <c r="I325" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.953222499028191</v>
       </c>
       <c r="J325" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.3569499416986257</v>
       </c>
     </row>
@@ -12787,11 +12807,11 @@
         <v>446.22199999999998</v>
       </c>
       <c r="I326" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.9361596079803989</v>
       </c>
       <c r="J326" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.3535410087355619</v>
       </c>
     </row>
@@ -12812,11 +12832,11 @@
         <v>224.10599999999999</v>
       </c>
       <c r="I327" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.8918201648967234</v>
       </c>
       <c r="J327" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.3475314717142781</v>
       </c>
     </row>
@@ -12837,11 +12857,11 @@
         <v>112.39100000000001</v>
       </c>
       <c r="I328" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.8549384017593087</v>
       </c>
       <c r="J328" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.3398963512736786</v>
       </c>
     </row>
@@ -12862,11 +12882,11 @@
         <v>661.13400000000001</v>
       </c>
       <c r="I329" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.2515872581409453</v>
       </c>
       <c r="J329" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.0277451288241113</v>
       </c>
     </row>
@@ -12887,11 +12907,11 @@
         <v>331.88799999999998</v>
       </c>
       <c r="I330" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.2880795247908838</v>
       </c>
       <c r="J330" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.0236544376416141</v>
       </c>
     </row>
@@ -12912,11 +12932,11 @@
         <v>167.13499999999999</v>
       </c>
       <c r="I331" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.2609749903501886</v>
       </c>
       <c r="J331" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.016359900679092</v>
       </c>
     </row>
@@ -12937,11 +12957,11 @@
         <v>84.582999999999998</v>
       </c>
       <c r="I332" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.1945688640638363</v>
       </c>
       <c r="J332" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.0014797723419602</v>
       </c>
     </row>
@@ -12962,11 +12982,11 @@
         <v>1143.086</v>
       </c>
       <c r="I333" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>3.3774854204058848</v>
       </c>
       <c r="J333" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.6511765518954828</v>
       </c>
     </row>
@@ -12987,11 +13007,11 @@
         <v>573.70699999999999</v>
       </c>
       <c r="I334" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>3.3510585260885319</v>
       </c>
       <c r="J334" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.6449483795735453</v>
       </c>
     </row>
@@ -13012,11 +13032,11 @@
         <v>287.89499999999998</v>
       </c>
       <c r="I335" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>3.3422287701602906</v>
       </c>
       <c r="J335" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.6389975511905386</v>
       </c>
     </row>
@@ -13037,11 +13057,11 @@
         <v>144.161</v>
       </c>
       <c r="I336" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>3.3351351400385529</v>
       </c>
       <c r="J336" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.6322060363066291</v>
       </c>
     </row>
@@ -13062,11 +13082,11 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="I337" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.76260072727272721</v>
       </c>
       <c r="J337" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.29433712280701751</v>
       </c>
     </row>
@@ -13087,11 +13107,11 @@
         <v>447.82400000000001</v>
       </c>
       <c r="I338" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.6922846495676684</v>
       </c>
       <c r="J338" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.67434949444424597</v>
       </c>
     </row>
@@ -13112,11 +13132,11 @@
         <v>169.47399999999999</v>
       </c>
       <c r="I339" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.8526885411599117</v>
       </c>
       <c r="J339" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3.5638491804052546</v>
       </c>
     </row>
@@ -13143,53 +13163,53 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="10">
         <v>375.38</v>
@@ -13197,15 +13217,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>3502</v>
@@ -13213,17 +13233,17 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/results/train/DeepBench_NV_1080Ti.xlsx
+++ b/results/train/DeepBench_NV_1080Ti.xlsx
@@ -637,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -648,7 +648,7 @@
   <dimension ref="A1:AE339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4991,27 +4991,27 @@
         <v>0.26</v>
       </c>
       <c r="R175" s="5">
-        <f>(D175-I175+1+2*K175)/M175</f>
-        <v>78.5</v>
+        <f>1+ROUNDDOWN((($C175-$H175+2*$J175)/$L175),0)</f>
+        <v>341</v>
       </c>
       <c r="S175" s="5">
-        <f>(C175-H175+1+2*J175)/L175</f>
-        <v>340.5</v>
+        <f>1+ROUNDDOWN((($D175-$I175+2*$K175)/$M175),0)</f>
+        <v>79</v>
       </c>
       <c r="T175" s="1">
         <f>N175+P175</f>
         <v>0.39</v>
       </c>
       <c r="U175" s="1">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
-        <v>5.2636061538461529</v>
+        <f t="shared" ref="U175:U206" si="11">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
+        <v>5.3049107692307684</v>
       </c>
       <c r="V175" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W175" s="1">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
-        <v>2.6318030769230765</v>
+        <f t="shared" ref="W175:W206" si="12">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
+        <v>2.6524553846153842</v>
       </c>
       <c r="X175" s="2" t="s">
         <v>30</v>
@@ -5061,27 +5061,27 @@
         <v>0.502</v>
       </c>
       <c r="R176" s="5">
-        <f>(D176-I176+1+2*K176)/M176</f>
-        <v>78.5</v>
+        <f t="shared" ref="R176:R239" si="13">1+ROUNDDOWN((($C176-$H176+2*$J176)/$L176),0)</f>
+        <v>341</v>
       </c>
       <c r="S176" s="5">
-        <f>(C176-H176+1+2*J176)/L176</f>
-        <v>340.5</v>
+        <f t="shared" ref="S176:S239" si="14">1+ROUNDDOWN((($D176-$I176+2*$K176)/$M176),0)</f>
+        <v>79</v>
       </c>
       <c r="T176" s="1">
         <f>N176+P176</f>
         <v>0.71799999999999997</v>
       </c>
       <c r="U176" s="1">
-        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(N176/1000)/10^12</f>
-        <v>6.3358222222222222</v>
+        <f t="shared" si="11"/>
+        <v>6.3855407407407414</v>
       </c>
       <c r="V176" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W176" s="1">
-        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(P176/1000)/10^12</f>
-        <v>2.7261705179282871</v>
+        <f t="shared" si="12"/>
+        <v>2.7475633466135458</v>
       </c>
       <c r="X176" s="2" t="s">
         <v>30</v>
@@ -5131,27 +5131,27 @@
         <v>0.94600000000000006</v>
       </c>
       <c r="R177" s="5">
-        <f>(D177-I177+1+2*K177)/M177</f>
-        <v>78.5</v>
+        <f t="shared" si="13"/>
+        <v>341</v>
       </c>
       <c r="S177" s="5">
-        <f>(C177-H177+1+2*J177)/L177</f>
-        <v>340.5</v>
+        <f t="shared" si="14"/>
+        <v>79</v>
       </c>
       <c r="T177" s="1">
         <f>N177+P177</f>
         <v>1.367</v>
       </c>
       <c r="U177" s="1">
-        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(N177/1000)/10^12</f>
-        <v>6.5013662707838487</v>
+        <f t="shared" si="11"/>
+        <v>6.5523838479809982</v>
       </c>
       <c r="V177" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W177" s="1">
-        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(P177/1000)/10^12</f>
-        <v>2.8933141649048628</v>
+        <f t="shared" si="12"/>
+        <v>2.9160186046511627</v>
       </c>
       <c r="X177" s="2" t="s">
         <v>30</v>
@@ -5201,27 +5201,27 @@
         <v>1.7949999999999999</v>
       </c>
       <c r="R178" s="5">
-        <f>(D178-I178+1+2*K178)/M178</f>
-        <v>78.5</v>
+        <f t="shared" si="13"/>
+        <v>341</v>
       </c>
       <c r="S178" s="5">
-        <f>(C178-H178+1+2*J178)/L178</f>
-        <v>340.5</v>
+        <f t="shared" si="14"/>
+        <v>79</v>
       </c>
       <c r="T178" s="1">
         <f>N178+P178</f>
         <v>2.6360000000000001</v>
       </c>
       <c r="U178" s="1">
-        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(N178/1000)/10^12</f>
-        <v>6.509096789536267</v>
+        <f t="shared" si="11"/>
+        <v>6.5601750297265164</v>
       </c>
       <c r="V178" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W178" s="1">
-        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(P178/1000)/10^12</f>
-        <v>3.0496659610027859</v>
+        <f t="shared" si="12"/>
+        <v>3.0735973259052924</v>
       </c>
       <c r="X178" s="2" t="s">
         <v>30</v>
@@ -5273,28 +5273,28 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="R179" s="5">
-        <f>(D179-I179+1+2*K179)/M179</f>
-        <v>37.5</v>
+        <f t="shared" si="13"/>
+        <v>166</v>
       </c>
       <c r="S179" s="5">
-        <f>(C179-H179+1+2*J179)/L179</f>
-        <v>166</v>
+        <f t="shared" si="14"/>
+        <v>38</v>
       </c>
       <c r="T179" s="1">
         <f>N179+O179+P179</f>
         <v>2.3079999999999998</v>
       </c>
       <c r="U179" s="1">
-        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(N179/1000)/10^12</f>
-        <v>6.6922834645669296</v>
+        <f t="shared" si="11"/>
+        <v>6.7815139107611548</v>
       </c>
       <c r="V179" s="1">
         <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(O179/1000)/10^12</f>
-        <v>1.7204858299595143</v>
+        <v>1.743425641025641</v>
       </c>
       <c r="W179" s="1">
-        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(P179/1000)/10^12</f>
-        <v>5.7297977528089881</v>
+        <f t="shared" si="12"/>
+        <v>5.8061950561797753</v>
       </c>
       <c r="X179" s="2" t="s">
         <v>30</v>
@@ -5346,28 +5346,28 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="R180" s="5">
-        <f>(D180-I180+1+2*K180)/M180</f>
-        <v>37.5</v>
+        <f t="shared" si="13"/>
+        <v>166</v>
       </c>
       <c r="S180" s="5">
-        <f>(C180-H180+1+2*J180)/L180</f>
-        <v>166</v>
+        <f t="shared" si="14"/>
+        <v>38</v>
       </c>
       <c r="T180" s="1">
         <f>N180+O180+P180</f>
         <v>4.468</v>
       </c>
       <c r="U180" s="1">
-        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(N180/1000)/10^12</f>
-        <v>7.8696296296296291</v>
+        <f t="shared" si="11"/>
+        <v>7.9745580246913574</v>
       </c>
       <c r="V180" s="1">
         <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(O180/1000)/10^12</f>
-        <v>1.722228976697062</v>
+        <v>1.7451920297196895</v>
       </c>
       <c r="W180" s="1">
-        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(P180/1000)/10^12</f>
-        <v>5.9365774155995341</v>
+        <f t="shared" si="12"/>
+        <v>6.015731781140861</v>
       </c>
       <c r="X180" s="2" t="s">
         <v>30</v>
@@ -5419,28 +5419,28 @@
         <v>1.663</v>
       </c>
       <c r="R181" s="5">
-        <f>(D181-I181+1+2*K181)/M181</f>
-        <v>37.5</v>
+        <f t="shared" si="13"/>
+        <v>166</v>
       </c>
       <c r="S181" s="5">
-        <f>(C181-H181+1+2*J181)/L181</f>
-        <v>166</v>
+        <f t="shared" si="14"/>
+        <v>38</v>
       </c>
       <c r="T181" s="1">
         <f>N181+O181+P181</f>
         <v>8.8949999999999996</v>
       </c>
       <c r="U181" s="1">
-        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(N181/1000)/10^12</f>
-        <v>7.8635620663068622</v>
+        <f t="shared" si="11"/>
+        <v>7.9684095605242868</v>
       </c>
       <c r="V181" s="1">
         <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(O181/1000)/10^12</f>
-        <v>1.7184566133108676</v>
+        <v>1.7413693681550126</v>
       </c>
       <c r="W181" s="1">
-        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(P181/1000)/10^12</f>
-        <v>6.1329164161154539</v>
+        <f t="shared" si="12"/>
+        <v>6.2146886349969934</v>
       </c>
       <c r="X181" s="2" t="s">
         <v>30</v>
@@ -5492,28 +5492,28 @@
         <v>3.2930000000000001</v>
       </c>
       <c r="R182" s="5">
-        <f>(D182-I182+1+2*K182)/M182</f>
-        <v>37.5</v>
+        <f t="shared" si="13"/>
+        <v>166</v>
       </c>
       <c r="S182" s="5">
-        <f>(C182-H182+1+2*J182)/L182</f>
-        <v>166</v>
+        <f t="shared" si="14"/>
+        <v>38</v>
       </c>
       <c r="T182" s="1">
         <f>N182+O182+P182</f>
         <v>17.657999999999998</v>
       </c>
       <c r="U182" s="1">
-        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(N182/1000)/10^12</f>
-        <v>7.9493686671862829</v>
+        <f t="shared" si="11"/>
+        <v>8.0553602494154344</v>
       </c>
       <c r="V182" s="1">
         <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(O182/1000)/10^12</f>
-        <v>1.7287973557081111</v>
+        <v>1.7518479871175525</v>
       </c>
       <c r="W182" s="1">
-        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(P182/1000)/10^12</f>
-        <v>6.1943759489826897</v>
+        <f t="shared" si="12"/>
+        <v>6.2769676283024589</v>
       </c>
       <c r="X182" s="2" t="s">
         <v>30</v>
@@ -5563,26 +5563,26 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="R183" s="5">
-        <f>(D183-I183+1+2*K183)/M183</f>
+        <f t="shared" si="13"/>
+        <v>480</v>
+      </c>
+      <c r="S183" s="5">
+        <f t="shared" si="14"/>
         <v>48</v>
-      </c>
-      <c r="S183" s="5">
-        <f>(C183-H183+1+2*J183)/L183</f>
-        <v>480</v>
       </c>
       <c r="T183" s="1">
         <f>N183+P183</f>
         <v>0.54699999999999993</v>
       </c>
       <c r="U183" s="1">
-        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(N183/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>0.87023213114754105</v>
       </c>
       <c r="V183" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W183" s="1">
-        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(P183/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>0.2498078117647059</v>
       </c>
       <c r="X183" s="2" t="s">
@@ -5635,19 +5635,19 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="R184" s="5">
-        <f>(D184-I184+1+2*K184)/M184</f>
+        <f t="shared" si="13"/>
+        <v>240</v>
+      </c>
+      <c r="S184" s="5">
+        <f t="shared" si="14"/>
         <v>24</v>
-      </c>
-      <c r="S184" s="5">
-        <f>(C184-H184+1+2*J184)/L184</f>
-        <v>240</v>
       </c>
       <c r="T184" s="1">
         <f>N184+O184+P184</f>
         <v>0.66000000000000014</v>
       </c>
       <c r="U184" s="1">
-        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(N184/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>5.9394864335664339</v>
       </c>
       <c r="V184" s="1">
@@ -5655,7 +5655,7 @@
         <v>5.0859075449101789</v>
       </c>
       <c r="W184" s="1">
-        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(P184/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>2.4267044571428569</v>
       </c>
       <c r="X184" s="2" t="s">
@@ -5708,19 +5708,19 @@
         <v>0.248</v>
       </c>
       <c r="R185" s="5">
-        <f>(D185-I185+1+2*K185)/M185</f>
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="S185" s="5">
+        <f t="shared" si="14"/>
         <v>12</v>
-      </c>
-      <c r="S185" s="5">
-        <f>(C185-H185+1+2*J185)/L185</f>
-        <v>120</v>
       </c>
       <c r="T185" s="1">
         <f>N185+O185+P185</f>
         <v>0.44800000000000001</v>
       </c>
       <c r="U185" s="1">
-        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(N185/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>7.3856222608695656</v>
       </c>
       <c r="V185" s="1">
@@ -5728,7 +5728,7 @@
         <v>9.9923124705882351</v>
       </c>
       <c r="W185" s="1">
-        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(P185/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>3.4247845161290322</v>
       </c>
       <c r="X185" s="2" t="s">
@@ -5781,19 +5781,19 @@
         <v>0.152</v>
       </c>
       <c r="R186" s="5">
-        <f>(D186-I186+1+2*K186)/M186</f>
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="S186" s="5">
+        <f t="shared" si="14"/>
         <v>6</v>
-      </c>
-      <c r="S186" s="5">
-        <f>(C186-H186+1+2*J186)/L186</f>
-        <v>60</v>
       </c>
       <c r="T186" s="1">
         <f>N186+O186+P186</f>
         <v>0.30300000000000005</v>
       </c>
       <c r="U186" s="1">
-        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(N186/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>10.485760000000001</v>
       </c>
       <c r="V186" s="1">
@@ -5801,7 +5801,7 @@
         <v>12.133522285714285</v>
       </c>
       <c r="W186" s="1">
-        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(P186/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>5.5878063157894733</v>
       </c>
       <c r="X186" s="2" t="s">
@@ -5852,11 +5852,11 @@
         <v>0.1</v>
       </c>
       <c r="R187" s="5">
-        <f>(D187-I187+1+2*K187)/M187</f>
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
       <c r="S187" s="5">
-        <f>(C187-H187+1+2*J187)/L187</f>
+        <f t="shared" si="14"/>
         <v>54</v>
       </c>
       <c r="T187" s="1">
@@ -5864,14 +5864,14 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="U187" s="1">
-        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(N187/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>2.2394880000000001</v>
       </c>
       <c r="V187" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W187" s="1">
-        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(P187/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>0.80621567999999999</v>
       </c>
       <c r="X187" s="2" t="s">
@@ -5924,11 +5924,11 @@
         <v>0.317</v>
       </c>
       <c r="R188" s="5">
-        <f>(D188-I188+1+2*K188)/M188</f>
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
       <c r="S188" s="5">
-        <f>(C188-H188+1+2*J188)/L188</f>
+        <f t="shared" si="14"/>
         <v>54</v>
       </c>
       <c r="T188" s="1">
@@ -5936,7 +5936,7 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="U188" s="1">
-        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(N188/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>10.423798690909091</v>
       </c>
       <c r="V188" s="1">
@@ -5944,7 +5944,7 @@
         <v>10.423798690909091</v>
       </c>
       <c r="W188" s="1">
-        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(P188/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>5.4256365425867505</v>
       </c>
       <c r="X188" s="2" t="s">
@@ -5997,11 +5997,11 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="R189" s="5">
-        <f>(D189-I189+1+2*K189)/M189</f>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="S189" s="5">
-        <f>(C189-H189+1+2*J189)/L189</f>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="T189" s="1">
@@ -6009,7 +6009,7 @@
         <v>0.43600000000000005</v>
       </c>
       <c r="U189" s="1">
-        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(N189/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>12.740198400000001</v>
       </c>
       <c r="V189" s="1">
@@ -6017,7 +6017,7 @@
         <v>12.646520470588236</v>
       </c>
       <c r="W189" s="1">
-        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(P189/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>10.423798690909091</v>
       </c>
       <c r="X189" s="2" t="s">
@@ -6070,11 +6070,11 @@
         <v>0.14300000000000002</v>
       </c>
       <c r="R190" s="5">
-        <f>(D190-I190+1+2*K190)/M190</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S190" s="5">
-        <f>(C190-H190+1+2*J190)/L190</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T190" s="1">
@@ -6082,7 +6082,7 @@
         <v>0.29400000000000004</v>
       </c>
       <c r="U190" s="1">
-        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(N190/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>11.417827555555554</v>
       </c>
       <c r="V190" s="1">
@@ -6090,7 +6090,7 @@
         <v>13.212057599999998</v>
       </c>
       <c r="W190" s="1">
-        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(P190/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>6.4674407832167828</v>
       </c>
       <c r="X190" s="2" t="s">
@@ -6143,11 +6143,11 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="R191" s="5">
-        <f>(D191-I191+1+2*K191)/M191</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S191" s="5">
-        <f>(C191-H191+1+2*J191)/L191</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T191" s="1">
@@ -6155,7 +6155,7 @@
         <v>0.60399999999999998</v>
       </c>
       <c r="U191" s="1">
-        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(N191/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>4.9193831489361708</v>
       </c>
       <c r="V191" s="1">
@@ -6163,7 +6163,7 @@
         <v>4.8933546666666663</v>
       </c>
       <c r="W191" s="1">
-        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(P191/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>4.0742027841409687</v>
       </c>
       <c r="X191" s="2" t="s">
@@ -6214,11 +6214,11 @@
         <v>1.423</v>
       </c>
       <c r="R192" s="5">
-        <f>(D192-I192+1+2*K192)/M192</f>
+        <f t="shared" si="13"/>
         <v>224</v>
       </c>
       <c r="S192" s="5">
-        <f>(C192-H192+1+2*J192)/L192</f>
+        <f t="shared" si="14"/>
         <v>224</v>
       </c>
       <c r="T192" s="1">
@@ -6226,14 +6226,14 @@
         <v>1.8140000000000001</v>
       </c>
       <c r="U192" s="1">
-        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(N192/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>3.5479950076726343</v>
       </c>
       <c r="V192" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W192" s="1">
-        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(P192/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>0.97488829796205201</v>
       </c>
       <c r="X192" s="2" t="s">
@@ -6286,11 +6286,11 @@
         <v>1.7870000000000001</v>
       </c>
       <c r="R193" s="5">
-        <f>(D193-I193+1+2*K193)/M193</f>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="S193" s="5">
-        <f>(C193-H193+1+2*J193)/L193</f>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
       <c r="T193" s="1">
@@ -6298,7 +6298,7 @@
         <v>3.6779999999999999</v>
       </c>
       <c r="U193" s="1">
-        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(N193/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>14.992405787234043</v>
       </c>
       <c r="V193" s="1">
@@ -6306,7 +6306,7 @@
         <v>16.368920920353979</v>
       </c>
       <c r="W193" s="1">
-        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(P193/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>8.2806404655847778</v>
       </c>
       <c r="X193" s="2" t="s">
@@ -6360,11 +6360,11 @@
         <v>1.0150000000000001</v>
       </c>
       <c r="R194" s="5">
-        <f>(D194-I194+1+2*K194)/M194</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="S194" s="5">
-        <f>(C194-H194+1+2*J194)/L194</f>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="T194" s="1">
@@ -6372,7 +6372,7 @@
         <v>2.8930000000000002</v>
       </c>
       <c r="U194" s="1">
-        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(N194/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>15.350108414937759</v>
       </c>
       <c r="V194" s="1">
@@ -6380,7 +6380,7 @@
         <v>16.189829881838076</v>
       </c>
       <c r="W194" s="1">
-        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(P194/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>14.578822179310343</v>
       </c>
       <c r="X194" s="2" t="s">
@@ -6434,11 +6434,11 @@
         <v>0.745</v>
       </c>
       <c r="R195" s="5">
-        <f>(D195-I195+1+2*K195)/M195</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S195" s="5">
-        <f>(C195-H195+1+2*J195)/L195</f>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T195" s="1">
@@ -6446,7 +6446,7 @@
         <v>2.63</v>
       </c>
       <c r="U195" s="1">
-        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(N195/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>15.130372711656443</v>
       </c>
       <c r="V195" s="1">
@@ -6454,7 +6454,7 @@
         <v>16.314778954796029</v>
       </c>
       <c r="W195" s="1">
-        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(P195/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>19.862422163758392</v>
       </c>
       <c r="X195" s="2" t="s">
@@ -6507,11 +6507,11 @@
         <v>0.14300000000000002</v>
       </c>
       <c r="R196" s="5">
-        <f>(D196-I196+1+2*K196)/M196</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S196" s="5">
-        <f>(C196-H196+1+2*J196)/L196</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T196" s="1">
@@ -6519,7 +6519,7 @@
         <v>0.29400000000000004</v>
       </c>
       <c r="U196" s="1">
-        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(N196/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>91.342620444444435</v>
       </c>
       <c r="V196" s="1">
@@ -6527,7 +6527,7 @@
         <v>105.69646079999998</v>
       </c>
       <c r="W196" s="1">
-        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(P196/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>51.739526265734263</v>
       </c>
       <c r="X196" s="2" t="s">
@@ -6580,11 +6580,11 @@
         <v>0.38800000000000001</v>
       </c>
       <c r="R197" s="5">
-        <f>(D197-I197+1+2*K197)/M197</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S197" s="5">
-        <f>(C197-H197+1+2*J197)/L197</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T197" s="1">
@@ -6592,7 +6592,7 @@
         <v>1.0840000000000001</v>
       </c>
       <c r="U197" s="1">
-        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(N197/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>5.2399095297450433</v>
       </c>
       <c r="V197" s="1">
@@ -6600,7 +6600,7 @@
         <v>5.39267657142857</v>
       </c>
       <c r="W197" s="1">
-        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(P197/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>4.7672372783505157</v>
       </c>
       <c r="X197" s="2" t="s">
@@ -6651,11 +6651,11 @@
         <v>2.855</v>
       </c>
       <c r="R198" s="5">
-        <f>(D198-I198+1+2*K198)/M198</f>
+        <f t="shared" si="13"/>
         <v>224</v>
       </c>
       <c r="S198" s="5">
-        <f>(C198-H198+1+2*J198)/L198</f>
+        <f t="shared" si="14"/>
         <v>224</v>
       </c>
       <c r="T198" s="1">
@@ -6663,14 +6663,14 @@
         <v>3.6179999999999999</v>
       </c>
       <c r="U198" s="1">
-        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(N198/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>3.6363461284403669</v>
       </c>
       <c r="V198" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W198" s="1">
-        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(P198/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>0.97181509492119089</v>
       </c>
       <c r="X198" s="2" t="s">
@@ -6723,11 +6723,11 @@
         <v>3.456</v>
       </c>
       <c r="R199" s="5">
-        <f>(D199-I199+1+2*K199)/M199</f>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="S199" s="5">
-        <f>(C199-H199+1+2*J199)/L199</f>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
       <c r="T199" s="1">
@@ -6735,7 +6735,7 @@
         <v>7.2070000000000007</v>
       </c>
       <c r="U199" s="1">
-        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(N199/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>15.263026830324911</v>
       </c>
       <c r="V199" s="1">
@@ -6743,7 +6743,7 @@
         <v>16.332786437086092</v>
       </c>
       <c r="W199" s="1">
-        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(P199/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>8.5633706666666676</v>
       </c>
       <c r="X199" s="2" t="s">
@@ -6797,11 +6797,11 @@
         <v>1.9259999999999999</v>
       </c>
       <c r="R200" s="5">
-        <f>(D200-I200+1+2*K200)/M200</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="S200" s="5">
-        <f>(C200-H200+1+2*J200)/L200</f>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="T200" s="1">
@@ -6809,7 +6809,7 @@
         <v>5.5250000000000004</v>
       </c>
       <c r="U200" s="1">
-        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(N200/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>16.834476122866896</v>
       </c>
       <c r="V200" s="1">
@@ -6817,7 +6817,7 @@
         <v>16.075507346007605</v>
       </c>
       <c r="W200" s="1">
-        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(P200/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>15.366048299065421</v>
       </c>
       <c r="X200" s="2" t="s">
@@ -6871,11 +6871,11 @@
         <v>1.323</v>
       </c>
       <c r="R201" s="5">
-        <f>(D201-I201+1+2*K201)/M201</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S201" s="5">
-        <f>(C201-H201+1+2*J201)/L201</f>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T201" s="1">
@@ -6883,7 +6883,7 @@
         <v>3.9849999999999999</v>
       </c>
       <c r="U201" s="1">
-        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(N201/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>21.793084701030924</v>
       </c>
       <c r="V201" s="1">
@@ -6891,7 +6891,7 @@
         <v>22.695559067484659</v>
       </c>
       <c r="W201" s="1">
-        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(P201/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>22.369621333333335</v>
       </c>
       <c r="X201" s="2" t="s">
@@ -6944,11 +6944,11 @@
         <v>0.89400000000000002</v>
       </c>
       <c r="R202" s="5">
-        <f>(D202-I202+1+2*K202)/M202</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S202" s="5">
-        <f>(C202-H202+1+2*J202)/L202</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T202" s="1">
@@ -6956,7 +6956,7 @@
         <v>2.5860000000000003</v>
       </c>
       <c r="U202" s="1">
-        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(N202/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>17.028198517836593</v>
       </c>
       <c r="V202" s="1">
@@ -6964,7 +6964,7 @@
         <v>17.979956879708382</v>
       </c>
       <c r="W202" s="1">
-        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(P202/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>16.552018469798657</v>
       </c>
       <c r="X202" s="2" t="s">
@@ -7017,11 +7017,11 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="R203" s="5">
-        <f>(D203-I203+1+2*K203)/M203</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S203" s="5">
-        <f>(C203-H203+1+2*J203)/L203</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T203" s="1">
@@ -7029,7 +7029,7 @@
         <v>1.3699999999999999</v>
       </c>
       <c r="U203" s="1">
-        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(N203/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>7.6750542074688797</v>
       </c>
       <c r="V203" s="1">
@@ -7037,7 +7037,7 @@
         <v>8.331928216216216</v>
       </c>
       <c r="W203" s="1">
-        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(P203/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>8.331928216216216</v>
       </c>
       <c r="X203" s="2" t="s">
@@ -7088,11 +7088,11 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="R204" s="5">
-        <f>(D204-I204+1+2*K204)/M204</f>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="S204" s="5">
-        <f>(C204-H204+1+2*J204)/L204</f>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
       <c r="T204" s="1">
@@ -7100,14 +7100,14 @@
         <v>1.4340000000000002</v>
       </c>
       <c r="U204" s="1">
-        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(N204/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>7.3186946976744194</v>
       </c>
       <c r="V204" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W204" s="1">
-        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(P204/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>4.1137761045751633</v>
       </c>
       <c r="X204" s="2" t="s">
@@ -7160,27 +7160,27 @@
         <v>0.61</v>
       </c>
       <c r="R205" s="5">
-        <f>(D205-I205+1+2*K205)/M205</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S205" s="5">
-        <f>(C205-H205+1+2*J205)/L205</f>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T205" s="1">
-        <f t="shared" ref="T205:T228" si="11">N205+O205+P205</f>
+        <f t="shared" ref="T205:T228" si="15">N205+O205+P205</f>
         <v>1.9350000000000001</v>
       </c>
       <c r="U205" s="1">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(N205/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>5.2715688098495219</v>
       </c>
       <c r="V205" s="1">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
+        <f t="shared" ref="V205:V228" si="16">(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
         <v>6.4874020202020199</v>
       </c>
       <c r="W205" s="1">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(P205/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>6.317240655737705</v>
       </c>
       <c r="X205" s="2" t="s">
@@ -7233,27 +7233,27 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="R206" s="5">
-        <f>(D206-I206+1+2*K206)/M206</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S206" s="5">
-        <f>(C206-H206+1+2*J206)/L206</f>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T206" s="1">
+        <f t="shared" si="15"/>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="U206" s="1">
         <f t="shared" si="11"/>
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="U206" s="1">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(N206/1000)/10^12</f>
         <v>5.8166291320754713</v>
       </c>
       <c r="V206" s="1">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(O206/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>4.165964108108108</v>
       </c>
       <c r="W206" s="1">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(P206/1000)/10^12</f>
+        <f t="shared" si="12"/>
         <v>2.2667745882352941</v>
       </c>
       <c r="X206" s="2" t="s">
@@ -7306,27 +7306,27 @@
         <v>0.46900000000000003</v>
       </c>
       <c r="R207" s="5">
-        <f>(D207-I207+1+2*K207)/M207</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S207" s="5">
-        <f>(C207-H207+1+2*J207)/L207</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T207" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.4320000000000002</v>
       </c>
       <c r="U207" s="1">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
+        <f t="shared" ref="U207:U238" si="17">(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
         <v>7.1893970149253734</v>
       </c>
       <c r="V207" s="1">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(O207/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>9.0246295081967229</v>
       </c>
       <c r="W207" s="1">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
+        <f t="shared" ref="W207:W238" si="18">(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
         <v>8.2164537313432824</v>
       </c>
       <c r="X207" s="2" t="s">
@@ -7379,27 +7379,27 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="R208" s="5">
-        <f>(D208-I208+1+2*K208)/M208</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S208" s="5">
-        <f>(C208-H208+1+2*J208)/L208</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T208" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="U208" s="1">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(N208/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>6.7017683478260865</v>
       </c>
       <c r="V208" s="1">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(O208/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>6.7017683478260865</v>
       </c>
       <c r="W208" s="1">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(P208/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.4064236906077352</v>
       </c>
       <c r="X208" s="2" t="s">
@@ -7452,27 +7452,27 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="R209" s="5">
-        <f>(D209-I209+1+2*K209)/M209</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S209" s="5">
-        <f>(C209-H209+1+2*J209)/L209</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T209" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.25700000000000001</v>
       </c>
       <c r="U209" s="1">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(N209/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>3.2742299607843135</v>
       </c>
       <c r="V209" s="1">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(O209/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>5.5661909333333339</v>
       </c>
       <c r="W209" s="1">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(P209/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.5154890105263155</v>
       </c>
       <c r="X209" s="2" t="s">
@@ -7525,27 +7525,27 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="R210" s="5">
-        <f>(D210-I210+1+2*K210)/M210</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S210" s="5">
-        <f>(C210-H210+1+2*J210)/L210</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T210" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.617</v>
       </c>
       <c r="U210" s="1">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(N210/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>2.9840194424588988</v>
       </c>
       <c r="V210" s="1">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(O210/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>7.604085974499089</v>
       </c>
       <c r="W210" s="1">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(P210/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>6.2401243647234681</v>
       </c>
       <c r="X210" s="2" t="s">
@@ -7598,27 +7598,27 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="R211" s="5">
-        <f>(D211-I211+1+2*K211)/M211</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="S211" s="5">
-        <f>(C211-H211+1+2*J211)/L211</f>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="T211" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.64300000000000002</v>
       </c>
       <c r="U211" s="1">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(N211/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>11.5605504</v>
       </c>
       <c r="V211" s="1">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(O211/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>11.781452636942676</v>
       </c>
       <c r="W211" s="1">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(P211/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>5.6738897668711648</v>
       </c>
       <c r="X211" t="s">
@@ -7669,27 +7669,27 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="R212" s="5">
-        <f>(D212-I212+1+2*K212)/M212</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S212" s="5">
-        <f>(C212-H212+1+2*J212)/L212</f>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T212" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.23299999999999998</v>
       </c>
       <c r="U212" s="1">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(N212/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>3.7367435636363631</v>
       </c>
       <c r="V212" s="1">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(O212/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>2.0759686464646463</v>
       </c>
       <c r="W212" s="1">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(P212/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.6015303291139245</v>
       </c>
       <c r="X212" t="s">
@@ -7740,27 +7740,27 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="R213" s="5">
-        <f>(D213-I213+1+2*K213)/M213</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S213" s="5">
-        <f>(C213-H213+1+2*J213)/L213</f>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T213" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.44600000000000001</v>
       </c>
       <c r="U213" s="1">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(N213/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>13.501372729927006</v>
       </c>
       <c r="V213" s="1">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(O213/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>13.501372729927006</v>
       </c>
       <c r="W213" s="1">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(P213/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>10.754000372093026</v>
       </c>
       <c r="X213" t="s">
@@ -7812,27 +7812,27 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="R214" s="5">
-        <f>(D214-I214+1+2*K214)/M214</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S214" s="5">
-        <f>(C214-H214+1+2*J214)/L214</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T214" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.252</v>
       </c>
       <c r="U214" s="1">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(N214/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>5.0127047804878044</v>
       </c>
       <c r="V214" s="1">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(O214/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>1.580929969230769</v>
       </c>
       <c r="W214" s="1">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(P214/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.5372950123456786</v>
       </c>
       <c r="X214" t="s">
@@ -7883,27 +7883,27 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="R215" s="5">
-        <f>(D215-I215+1+2*K215)/M215</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S215" s="5">
-        <f>(C215-H215+1+2*J215)/L215</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T215" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.155</v>
       </c>
       <c r="U215" s="1">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(N215/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>4.6709294545454547</v>
       </c>
       <c r="V215" s="1">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(O215/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>4.4678455652173916</v>
       </c>
       <c r="W215" s="1">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(P215/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.161859938461538</v>
       </c>
       <c r="X215" t="s">
@@ -7954,27 +7954,27 @@
         <v>0.223</v>
       </c>
       <c r="R216" s="5">
-        <f>(D216-I216+1+2*K216)/M216</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S216" s="5">
-        <f>(C216-H216+1+2*J216)/L216</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T216" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="U216" s="1">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(N216/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>12.845056000000001</v>
       </c>
       <c r="V216" s="1">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(O216/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>13.118355063829789</v>
       </c>
       <c r="W216" s="1">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(P216/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>8.29456530941704</v>
       </c>
       <c r="X216" t="s">
@@ -8026,27 +8026,27 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="R217" s="5">
-        <f>(D217-I217+1+2*K217)/M217</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S217" s="5">
-        <f>(C217-H217+1+2*J217)/L217</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T217" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.26300000000000001</v>
       </c>
       <c r="U217" s="1">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(N217/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>3.2112639999999999</v>
       </c>
       <c r="V217" s="1">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(O217/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>1.8683717818181815</v>
       </c>
       <c r="W217" s="1">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(P217/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.3092235505617977</v>
       </c>
       <c r="X217" t="s">
@@ -8098,27 +8098,27 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="R218" s="5">
-        <f>(D218-I218+1+2*K218)/M218</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S218" s="5">
-        <f>(C218-H218+1+2*J218)/L218</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T218" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.193</v>
       </c>
       <c r="U218" s="1">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(N218/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>3.7367435636363631</v>
       </c>
       <c r="V218" s="1">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(O218/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>3.161859938461538</v>
       </c>
       <c r="W218" s="1">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(P218/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.8153547397260272</v>
       </c>
       <c r="X218" t="s">
@@ -8170,28 +8170,28 @@
         <v>0.221</v>
       </c>
       <c r="R219" s="5">
-        <f>(D219-I219+1+2*K219)/M219</f>
-        <v>6.5</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="S219" s="5">
-        <f>(C219-H219+1+2*J219)/L219</f>
-        <v>6.5</v>
+        <f t="shared" si="14"/>
+        <v>7</v>
       </c>
       <c r="T219" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.66899999999999993</v>
       </c>
       <c r="U219" s="1">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(N219/1000)/10^12</f>
-        <v>3.3278750046948353</v>
+        <f t="shared" si="17"/>
+        <v>3.8595473427230047</v>
       </c>
       <c r="V219" s="1">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(O219/1000)/10^12</f>
-        <v>3.0163292595744684</v>
+        <f t="shared" si="16"/>
+        <v>3.4982280170212769</v>
       </c>
       <c r="W219" s="1">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(P219/1000)/10^12</f>
-        <v>3.2074089411764706</v>
+        <f t="shared" si="18"/>
+        <v>3.7198352217194572</v>
       </c>
       <c r="X219" t="s">
         <v>30</v>
@@ -8241,27 +8241,27 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="R220" s="5">
-        <f>(D220-I220+1+2*K220)/M220</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="S220" s="5">
-        <f>(C220-H220+1+2*J220)/L220</f>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="T220" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.23</v>
       </c>
       <c r="U220" s="1">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(N220/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>12.129102059016395</v>
       </c>
       <c r="V220" s="1">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(O220/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>11.895100090032154</v>
       </c>
       <c r="W220" s="1">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(P220/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>6.0250425537459291</v>
       </c>
       <c r="X220" t="s">
@@ -8312,27 +8312,27 @@
         <v>0.129</v>
       </c>
       <c r="R221" s="5">
-        <f>(D221-I221+1+2*K221)/M221</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S221" s="5">
-        <f>(C221-H221+1+2*J221)/L221</f>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T221" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.44600000000000001</v>
       </c>
       <c r="U221" s="1">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(N221/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>3.9146837333333333</v>
       </c>
       <c r="V221" s="1">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(O221/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>1.9388763773584905</v>
       </c>
       <c r="W221" s="1">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(P221/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.1863704806201554</v>
       </c>
       <c r="X221" t="s">
@@ -8383,27 +8383,27 @@
         <v>0.313</v>
       </c>
       <c r="R222" s="5">
-        <f>(D222-I222+1+2*K222)/M222</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S222" s="5">
-        <f>(C222-H222+1+2*J222)/L222</f>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T222" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.84899999999999998</v>
       </c>
       <c r="U222" s="1">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(N222/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>14.012788363636364</v>
       </c>
       <c r="V222" s="1">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(O222/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>13.600647529411766</v>
       </c>
       <c r="W222" s="1">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(P222/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>11.819093060702874</v>
       </c>
       <c r="X222" t="s">
@@ -8454,27 +8454,27 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="R223" s="5">
-        <f>(D223-I223+1+2*K223)/M223</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S223" s="5">
-        <f>(C223-H223+1+2*J223)/L223</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T223" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.36399999999999999</v>
       </c>
       <c r="U223" s="1">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(N223/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>4.9523107469879522</v>
       </c>
       <c r="V223" s="1">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(O223/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>2.4911623757575758</v>
       </c>
       <c r="W223" s="1">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(P223/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.543463724137931</v>
       </c>
       <c r="X223" t="s">
@@ -8526,27 +8526,27 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="R224" s="5">
-        <f>(D224-I224+1+2*K224)/M224</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S224" s="5">
-        <f>(C224-H224+1+2*J224)/L224</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T224" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.20499999999999999</v>
       </c>
       <c r="U224" s="1">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(N224/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>7.2112595087719296</v>
       </c>
       <c r="V224" s="1">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(O224/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>6.738390032786886</v>
       </c>
       <c r="W224" s="1">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(P224/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>4.724618298850574</v>
       </c>
       <c r="X224" t="s">
@@ -8597,27 +8597,27 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="R225" s="5">
-        <f>(D225-I225+1+2*K225)/M225</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S225" s="5">
-        <f>(C225-H225+1+2*J225)/L225</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T225" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.84699999999999998</v>
       </c>
       <c r="U225" s="1">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(N225/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>14.283305513513513</v>
       </c>
       <c r="V225" s="1">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(O225/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>14.066068927756655</v>
       </c>
       <c r="W225" s="1">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(P225/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>11.382695778461539</v>
       </c>
       <c r="X225" t="s">
@@ -8668,27 +8668,27 @@
         <v>0.127</v>
       </c>
       <c r="R226" s="5">
-        <f>(D226-I226+1+2*K226)/M226</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S226" s="5">
-        <f>(C226-H226+1+2*J226)/L226</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T226" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.34199999999999997</v>
       </c>
       <c r="U226" s="1">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(N226/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>5.7893210140845079</v>
       </c>
       <c r="V226" s="1">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(O226/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>2.854456888888889</v>
       </c>
       <c r="W226" s="1">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(P226/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.236549543307087</v>
       </c>
       <c r="X226" t="s">
@@ -8740,27 +8740,27 @@
         <v>0.114</v>
       </c>
       <c r="R227" s="5">
-        <f>(D227-I227+1+2*K227)/M227</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S227" s="5">
-        <f>(C227-H227+1+2*J227)/L227</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T227" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.27300000000000002</v>
       </c>
       <c r="U227" s="1">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(N227/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>5.2030606582278489</v>
       </c>
       <c r="V227" s="1">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(O227/1000)/10^12</f>
+        <f t="shared" si="16"/>
         <v>5.1380223999999997</v>
       </c>
       <c r="W227" s="1">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(P227/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.6056297543859648</v>
       </c>
       <c r="X227" t="s">
@@ -8812,28 +8812,28 @@
         <v>0.40699999999999997</v>
       </c>
       <c r="R228" s="5">
-        <f>(D228-I228+1+2*K228)/M228</f>
-        <v>6.5</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="S228" s="5">
-        <f>(C228-H228+1+2*J228)/L228</f>
-        <v>6.5</v>
+        <f t="shared" si="14"/>
+        <v>7</v>
       </c>
       <c r="T228" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.081</v>
       </c>
       <c r="U228" s="1">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(N228/1000)/10^12</f>
-        <v>6.0326585191489368</v>
+        <f t="shared" si="17"/>
+        <v>6.9964560340425539</v>
       </c>
       <c r="V228" s="1">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(O228/1000)/10^12</f>
-        <v>3.2293274533029614</v>
+        <f t="shared" si="16"/>
+        <v>3.745255507972665</v>
       </c>
       <c r="W228" s="1">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(P228/1000)/10^12</f>
-        <v>3.4832303488943492</v>
+        <f t="shared" si="18"/>
+        <v>4.0397227714987718</v>
       </c>
       <c r="X228" t="s">
         <v>30</v>
@@ -8884,27 +8884,27 @@
         <v>1.7310000000000001</v>
       </c>
       <c r="R229" s="5">
-        <f>(D229-I229+1+2*K229)/M229</f>
-        <v>79.5</v>
+        <f t="shared" si="13"/>
+        <v>349</v>
       </c>
       <c r="S229" s="5">
-        <f>(C229-H229+1+2*J229)/L229</f>
-        <v>349</v>
+        <f t="shared" si="14"/>
+        <v>80</v>
       </c>
       <c r="T229" s="1">
         <f>N229+P229</f>
         <v>2.1800000000000002</v>
       </c>
       <c r="U229" s="1">
-        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(N229/1000)/10^12</f>
-        <v>3.1638521158129174</v>
+        <f t="shared" si="17"/>
+        <v>3.183750556792873</v>
       </c>
       <c r="V229" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W229" s="1">
-        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(P229/1000)/10^12</f>
-        <v>0.82066412478336215</v>
+        <f t="shared" si="18"/>
+        <v>0.82582553437319461</v>
       </c>
       <c r="X229" t="s">
         <v>30</v>
@@ -8955,27 +8955,27 @@
         <v>5.64</v>
       </c>
       <c r="R230" s="5">
-        <f>(D230-I230+1+2*K230)/M230</f>
+        <f t="shared" si="13"/>
+        <v>350</v>
+      </c>
+      <c r="S230" s="5">
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="S230" s="5">
-        <f>(C230-H230+1+2*J230)/L230</f>
-        <v>350</v>
-      </c>
       <c r="T230" s="1">
-        <f t="shared" ref="T230:T268" si="12">N230+O230+P230</f>
+        <f t="shared" ref="T230:T268" si="19">N230+O230+P230</f>
         <v>11.797999999999998</v>
       </c>
       <c r="U230" s="1">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(N230/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>10.752000000000001</v>
       </c>
       <c r="V230" s="1">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
+        <f t="shared" ref="V230:V268" si="20">(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
         <v>10.703222294232015</v>
       </c>
       <c r="W230" s="1">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(P230/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>5.8564085106382979</v>
       </c>
       <c r="X230" t="s">
@@ -9027,27 +9027,27 @@
         <v>5.5010000000000003</v>
       </c>
       <c r="R231" s="5">
-        <f>(D231-I231+1+2*K231)/M231</f>
+        <f t="shared" si="13"/>
+        <v>174</v>
+      </c>
+      <c r="S231" s="5">
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
-      <c r="S231" s="5">
-        <f>(C231-H231+1+2*J231)/L231</f>
-        <v>174</v>
-      </c>
       <c r="T231" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>21.531000000000002</v>
       </c>
       <c r="U231" s="1">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(N231/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>9.1696349690721668</v>
       </c>
       <c r="V231" s="1">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(O231/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>3.9778827906976746</v>
       </c>
       <c r="W231" s="1">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(P231/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>8.0844809307398648</v>
       </c>
       <c r="X231" t="s">
@@ -9099,27 +9099,27 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="R232" s="5">
-        <f>(D232-I232+1+2*K232)/M232</f>
+        <f t="shared" si="13"/>
+        <v>175</v>
+      </c>
+      <c r="S232" s="5">
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="S232" s="5">
-        <f>(C232-H232+1+2*J232)/L232</f>
-        <v>175</v>
-      </c>
       <c r="T232" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6.738999999999999</v>
       </c>
       <c r="U232" s="1">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(N232/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>15.668948766603416</v>
       </c>
       <c r="V232" s="1">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(O232/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>15.721153736316039</v>
       </c>
       <c r="W232" s="1">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(P232/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>13.055392885375497</v>
       </c>
       <c r="X232" t="s">
@@ -9171,28 +9171,28 @@
         <v>5.0439999999999996</v>
       </c>
       <c r="R233" s="5">
-        <f>(D233-I233+1+2*K233)/M233</f>
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="S233" s="5">
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
-      <c r="S233" s="5">
-        <f>(C233-H233+1+2*J233)/L233</f>
-        <v>86.5</v>
-      </c>
       <c r="T233" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>19.537000000000003</v>
       </c>
       <c r="U233" s="1">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(N233/1000)/10^12</f>
-        <v>8.7496682372055226</v>
+        <f t="shared" si="17"/>
+        <v>8.8002443541835902</v>
       </c>
       <c r="V233" s="1">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(O233/1000)/10^12</f>
-        <v>4.5023896331905107</v>
+        <f t="shared" si="20"/>
+        <v>4.528415006792768</v>
       </c>
       <c r="W233" s="1">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(P233/1000)/10^12</f>
-        <v>8.5415080095162565</v>
+        <f t="shared" si="18"/>
+        <v>8.5908808881839818</v>
       </c>
       <c r="X233" t="s">
         <v>30</v>
@@ -9243,27 +9243,27 @@
         <v>1.633</v>
       </c>
       <c r="R234" s="5">
-        <f>(D234-I234+1+2*K234)/M234</f>
+        <f t="shared" si="13"/>
+        <v>84</v>
+      </c>
+      <c r="S234" s="5">
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="S234" s="5">
-        <f>(C234-H234+1+2*J234)/L234</f>
-        <v>84</v>
-      </c>
       <c r="T234" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4.8040000000000003</v>
       </c>
       <c r="U234" s="1">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(N234/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>20.32624246153846</v>
       </c>
       <c r="V234" s="1">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(O234/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>19.682767374301676</v>
       </c>
       <c r="W234" s="1">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(P234/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>19.417598432333129</v>
       </c>
       <c r="X234" t="s">
@@ -9315,27 +9315,27 @@
         <v>4.6219999999999999</v>
       </c>
       <c r="R235" s="5">
-        <f>(D235-I235+1+2*K235)/M235</f>
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="S235" s="5">
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="S235" s="5">
-        <f>(C235-H235+1+2*J235)/L235</f>
-        <v>41</v>
-      </c>
       <c r="T235" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>17.035</v>
       </c>
       <c r="U235" s="1">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(N235/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>7.8293108862808571</v>
       </c>
       <c r="V235" s="1">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(O235/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>5.1790194619194221</v>
       </c>
       <c r="W235" s="1">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(P235/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>8.3713661618347039</v>
       </c>
       <c r="X235" t="s">
@@ -9387,27 +9387,27 @@
         <v>1.7210000000000001</v>
       </c>
       <c r="R236" s="5">
-        <f>(D236-I236+1+2*K236)/M236</f>
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="S236" s="5">
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="S236" s="5">
-        <f>(C236-H236+1+2*J236)/L236</f>
-        <v>42</v>
-      </c>
       <c r="T236" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5.1680000000000001</v>
       </c>
       <c r="U236" s="1">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(N236/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>18.597617736070379</v>
       </c>
       <c r="V236" s="1">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(O236/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>18.202605189437424</v>
       </c>
       <c r="W236" s="1">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(P236/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>18.424717164439276</v>
       </c>
       <c r="X236" t="s">
@@ -9459,27 +9459,27 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="R237" s="5">
-        <f>(D237-I237+1+2*K237)/M237</f>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="S237" s="5">
-        <f>(C237-H237+1+2*J237)/L237</f>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
       <c r="T237" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.94699999999999995</v>
       </c>
       <c r="U237" s="1">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(N237/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>4.567131022222223</v>
       </c>
       <c r="V237" s="1">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(O237/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>4.4678455652173916</v>
       </c>
       <c r="W237" s="1">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(P237/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.4100919108061751</v>
       </c>
       <c r="X237" t="s">
@@ -9531,27 +9531,27 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="R238" s="5">
-        <f>(D238-I238+1+2*K238)/M238</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="S238" s="5">
-        <f>(C238-H238+1+2*J238)/L238</f>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="T238" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.55500000000000005</v>
       </c>
       <c r="U238" s="1">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(N238/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>5.1703370062893077</v>
       </c>
       <c r="V238" s="1">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(O238/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.1349521194029855</v>
       </c>
       <c r="W238" s="1">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(P238/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.1377236030534346</v>
       </c>
       <c r="X238" t="s">
@@ -9603,27 +9603,27 @@
         <v>0.37</v>
       </c>
       <c r="R239" s="5">
-        <f>(D239-I239+1+2*K239)/M239</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="S239" s="5">
-        <f>(C239-H239+1+2*J239)/L239</f>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="T239" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.65700000000000003</v>
       </c>
       <c r="U239" s="1">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
+        <f t="shared" ref="U239:U268" si="21">(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
         <v>6.4225279999999998</v>
       </c>
       <c r="V239" s="1">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(O239/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>5.1703370062893077</v>
       </c>
       <c r="W239" s="1">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
+        <f t="shared" ref="W239:W268" si="22">(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
         <v>2.2218475243243243</v>
       </c>
       <c r="X239" t="s">
@@ -9675,27 +9675,27 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="R240" s="5">
-        <f>(D240-I240+1+2*K240)/M240</f>
+        <f t="shared" ref="R240:R268" si="23">1+ROUNDDOWN((($C240-$H240+2*$J240)/$L240),0)</f>
         <v>28</v>
       </c>
       <c r="S240" s="5">
-        <f>(C240-H240+1+2*J240)/L240</f>
+        <f t="shared" ref="S240:S268" si="24">1+ROUNDDOWN((($D240-$I240+2*$K240)/$M240),0)</f>
         <v>28</v>
       </c>
       <c r="T240" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="U240" s="1">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(N240/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>5.9571274202898543</v>
       </c>
       <c r="V240" s="1">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(O240/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>1.4524444946996466</v>
       </c>
       <c r="W240" s="1">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(P240/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.7773094054054059</v>
       </c>
       <c r="X240" t="s">
@@ -9747,27 +9747,27 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="R241" s="5">
-        <f>(D241-I241+1+2*K241)/M241</f>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="S241" s="5">
-        <f>(C241-H241+1+2*J241)/L241</f>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="T241" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.433</v>
       </c>
       <c r="U241" s="1">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(N241/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>6.4225279999999998</v>
       </c>
       <c r="V241" s="1">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(O241/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.4734871272727261</v>
       </c>
       <c r="W241" s="1">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(P241/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>4.215813251282051</v>
       </c>
       <c r="X241" t="s">
@@ -9819,27 +9819,27 @@
         <v>0.19</v>
       </c>
       <c r="R242" s="5">
-        <f>(D242-I242+1+2*K242)/M242</f>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="S242" s="5">
-        <f>(C242-H242+1+2*J242)/L242</f>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="T242" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.42699999999999999</v>
       </c>
       <c r="U242" s="1">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(N242/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>7.6830241495327103</v>
       </c>
       <c r="V242" s="1">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(O242/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.323719876923076</v>
       </c>
       <c r="W242" s="1">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(P242/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>4.3267557052631576</v>
       </c>
       <c r="X242" t="s">
@@ -9891,27 +9891,27 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="R243" s="5">
-        <f>(D243-I243+1+2*K243)/M243</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="S243" s="5">
-        <f>(C243-H243+1+2*J243)/L243</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="T243" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.46299999999999997</v>
       </c>
       <c r="U243" s="1">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(N243/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>4.9523107469879522</v>
       </c>
       <c r="V243" s="1">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(O243/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>1.7198401338912137</v>
       </c>
       <c r="W243" s="1">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(P243/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.9151900141843976</v>
       </c>
       <c r="X243" t="s">
@@ -9963,27 +9963,27 @@
         <v>0.188</v>
       </c>
       <c r="R244" s="5">
-        <f>(D244-I244+1+2*K244)/M244</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="S244" s="5">
-        <f>(C244-H244+1+2*J244)/L244</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="T244" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.44</v>
       </c>
       <c r="U244" s="1">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(N244/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>7.4734871272727261</v>
       </c>
       <c r="V244" s="1">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(O244/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>5.7893210140845079</v>
       </c>
       <c r="W244" s="1">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(P244/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>4.372785021276596</v>
       </c>
       <c r="X244" t="s">
@@ -10035,27 +10035,27 @@
         <v>0.40400000000000003</v>
       </c>
       <c r="R245" s="5">
-        <f>(D245-I245+1+2*K245)/M245</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="S245" s="5">
-        <f>(C245-H245+1+2*J245)/L245</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="T245" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.2130000000000001</v>
       </c>
       <c r="U245" s="1">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(N245/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>7.4061584144144144</v>
       </c>
       <c r="V245" s="1">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(O245/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.8009662146507668</v>
       </c>
       <c r="W245" s="1">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(P245/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>4.0697207128712867</v>
       </c>
       <c r="X245" t="s">
@@ -10107,27 +10107,27 @@
         <v>0.187</v>
       </c>
       <c r="R246" s="5">
-        <f>(D246-I246+1+2*K246)/M246</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="S246" s="5">
-        <f>(C246-H246+1+2*J246)/L246</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="T246" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.44</v>
       </c>
       <c r="U246" s="1">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(N246/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>5.8720255999999988</v>
       </c>
       <c r="V246" s="1">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(O246/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.2750759646017693</v>
       </c>
       <c r="W246" s="1">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(P246/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>4.3961688983957226</v>
       </c>
       <c r="X246" t="s">
@@ -10179,27 +10179,27 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="R247" s="5">
-        <f>(D247-I247+1+2*K247)/M247</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="S247" s="5">
-        <f>(C247-H247+1+2*J247)/L247</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="T247" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.41199999999999998</v>
       </c>
       <c r="U247" s="1">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(N247/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>7.4061584144144144</v>
       </c>
       <c r="V247" s="1">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(O247/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.5766686720000003</v>
       </c>
       <c r="W247" s="1">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(P247/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>4.6709294545454547</v>
       </c>
       <c r="X247" t="s">
@@ -10251,27 +10251,27 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="R248" s="5">
-        <f>(D248-I248+1+2*K248)/M248</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="S248" s="5">
-        <f>(C248-H248+1+2*J248)/L248</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="T248" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.42100000000000004</v>
       </c>
       <c r="U248" s="1">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(N248/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.6056297543859648</v>
       </c>
       <c r="V248" s="1">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(O248/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.8347709793103446</v>
       </c>
       <c r="W248" s="1">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(P248/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.5372950123456786</v>
       </c>
       <c r="X248" t="s">
@@ -10323,27 +10323,27 @@
         <v>0.38600000000000001</v>
       </c>
       <c r="R249" s="5">
-        <f>(D249-I249+1+2*K249)/M249</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="S249" s="5">
-        <f>(C249-H249+1+2*J249)/L249</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="T249" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.0859999999999999</v>
       </c>
       <c r="U249" s="1">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(N249/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>5.254795636363637</v>
       </c>
       <c r="V249" s="1">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(O249/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>5.3151955862068965</v>
       </c>
       <c r="W249" s="1">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(P249/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>4.7919379896373053</v>
       </c>
       <c r="X249" t="s">
@@ -10395,27 +10395,27 @@
         <v>0.29099999999999998</v>
       </c>
       <c r="R250" s="5">
-        <f>(D250-I250+1+2*K250)/M250</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="S250" s="5">
-        <f>(C250-H250+1+2*J250)/L250</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="T250" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.68399999999999994</v>
       </c>
       <c r="U250" s="1">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(N250/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>4.6445400225988704</v>
       </c>
       <c r="V250" s="1">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(O250/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>3.8059425185185187</v>
       </c>
       <c r="W250" s="1">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(P250/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.8250294982817872</v>
       </c>
       <c r="X250" t="s">
@@ -10467,27 +10467,27 @@
         <v>0.58599999999999997</v>
       </c>
       <c r="R251" s="5">
-        <f>(D251-I251+1+2*K251)/M251</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="S251" s="5">
-        <f>(C251-H251+1+2*J251)/L251</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="T251" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.2749999999999999</v>
       </c>
       <c r="U251" s="1">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(N251/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>5.2697665641025644</v>
       </c>
       <c r="V251" s="1">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(O251/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>4.3611861220159147</v>
       </c>
       <c r="W251" s="1">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(P251/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.805746020477816</v>
       </c>
       <c r="X251" t="s">
@@ -10539,27 +10539,27 @@
         <v>0.29299999999999998</v>
       </c>
       <c r="R252" s="5">
-        <f>(D252-I252+1+2*K252)/M252</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="S252" s="5">
-        <f>(C252-H252+1+2*J252)/L252</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="T252" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.68599999999999994</v>
       </c>
       <c r="U252" s="1">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(N252/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.7198352217194572</v>
       </c>
       <c r="V252" s="1">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(O252/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>4.7795557209302331</v>
       </c>
       <c r="W252" s="1">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(P252/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.805746020477816</v>
       </c>
       <c r="X252" t="s">
@@ -10611,27 +10611,27 @@
         <v>1.135</v>
       </c>
       <c r="R253" s="5">
-        <f>(D253-I253+1+2*K253)/M253</f>
+        <f t="shared" si="23"/>
         <v>112</v>
       </c>
       <c r="S253" s="5">
-        <f>(C253-H253+1+2*J253)/L253</f>
+        <f t="shared" si="24"/>
         <v>112</v>
       </c>
       <c r="T253" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.82</v>
       </c>
       <c r="U253" s="1">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(N253/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>4.8788343264094953</v>
       </c>
       <c r="V253" s="1">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(O253/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>4.724618298850574</v>
       </c>
       <c r="W253" s="1">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(P253/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>1.4486054343612336</v>
       </c>
       <c r="X253" t="s">
@@ -10683,27 +10683,27 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="R254" s="5">
-        <f>(D254-I254+1+2*K254)/M254</f>
+        <f t="shared" si="23"/>
         <v>56</v>
       </c>
       <c r="S254" s="5">
-        <f>(C254-H254+1+2*J254)/L254</f>
+        <f t="shared" si="24"/>
         <v>56</v>
       </c>
       <c r="T254" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.0609999999999999</v>
       </c>
       <c r="U254" s="1">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(N254/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>5.6307094794520545</v>
       </c>
       <c r="V254" s="1">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(O254/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.4225279999999998</v>
       </c>
       <c r="W254" s="1">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(P254/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>3.2050042261208578</v>
       </c>
       <c r="X254" t="s">
@@ -10755,27 +10755,27 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="R255" s="5">
-        <f>(D255-I255+1+2*K255)/M255</f>
+        <f t="shared" si="23"/>
         <v>56</v>
       </c>
       <c r="S255" s="5">
-        <f>(C255-H255+1+2*J255)/L255</f>
+        <f t="shared" si="24"/>
         <v>56</v>
       </c>
       <c r="T255" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.2709999999999999</v>
       </c>
       <c r="U255" s="1">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(N255/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>6.738390032786886</v>
       </c>
       <c r="V255" s="1">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(O255/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>5.3382050909090912</v>
       </c>
       <c r="W255" s="1">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(P255/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.2867415410292069</v>
       </c>
       <c r="X255" t="s">
@@ -10827,27 +10827,27 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="R256" s="5">
-        <f>(D256-I256+1+2*K256)/M256</f>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="S256" s="5">
-        <f>(C256-H256+1+2*J256)/L256</f>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="T256" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.92300000000000004</v>
       </c>
       <c r="U256" s="1">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(N256/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>6.1349521194029855</v>
       </c>
       <c r="V256" s="1">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(O256/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>1.6025021130604289</v>
       </c>
       <c r="W256" s="1">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(P256/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.9785637101449272</v>
       </c>
       <c r="X256" t="s">
@@ -10899,27 +10899,27 @@
         <v>0.315</v>
       </c>
       <c r="R257" s="5">
-        <f>(D257-I257+1+2*K257)/M257</f>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="S257" s="5">
-        <f>(C257-H257+1+2*J257)/L257</f>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="T257" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.748</v>
       </c>
       <c r="U257" s="1">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(N257/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>7.2112595087719296</v>
       </c>
       <c r="V257" s="1">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(O257/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>8.0203276487804889</v>
       </c>
       <c r="W257" s="1">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(P257/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>5.2195783111111114</v>
       </c>
       <c r="X257" t="s">
@@ -10971,27 +10971,27 @@
         <v>0.316</v>
       </c>
       <c r="R258" s="5">
-        <f>(D258-I258+1+2*K258)/M258</f>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="S258" s="5">
-        <f>(C258-H258+1+2*J258)/L258</f>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="T258" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.74900000000000011</v>
       </c>
       <c r="U258" s="1">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(N258/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>8.1799361592039794</v>
       </c>
       <c r="V258" s="1">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(O258/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.086927448275862</v>
       </c>
       <c r="W258" s="1">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(P258/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>5.2030606582278489</v>
       </c>
       <c r="X258" t="s">
@@ -11043,27 +11043,27 @@
         <v>0.216</v>
       </c>
       <c r="R259" s="5">
-        <f>(D259-I259+1+2*K259)/M259</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="S259" s="5">
-        <f>(C259-H259+1+2*J259)/L259</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="T259" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.73499999999999999</v>
       </c>
       <c r="U259" s="1">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(N259/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>7.1485529043478264</v>
       </c>
       <c r="V259" s="1">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(O259/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.0348603564356433</v>
       </c>
       <c r="W259" s="1">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(P259/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>3.8059425185185187</v>
       </c>
       <c r="X259" t="s">
@@ -11115,27 +11115,27 @@
         <v>0.314</v>
       </c>
       <c r="R260" s="5">
-        <f>(D260-I260+1+2*K260)/M260</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="S260" s="5">
-        <f>(C260-H260+1+2*J260)/L260</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="T260" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="U260" s="1">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(N260/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>7.2112595087719296</v>
       </c>
       <c r="V260" s="1">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(O260/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.4734871272727261</v>
       </c>
       <c r="W260" s="1">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(P260/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>5.2362011719745221</v>
       </c>
       <c r="X260" t="s">
@@ -11187,27 +11187,27 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="R261" s="5">
-        <f>(D261-I261+1+2*K261)/M261</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="S261" s="5">
-        <f>(C261-H261+1+2*J261)/L261</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="T261" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.0920000000000001</v>
       </c>
       <c r="U261" s="1">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(N261/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>7.2430271718061672</v>
       </c>
       <c r="V261" s="1">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(O261/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>3.454132705882353</v>
       </c>
       <c r="W261" s="1">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(P261/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>4.7934902857142854</v>
       </c>
       <c r="X261" t="s">
@@ -11259,27 +11259,27 @@
         <v>0.311</v>
       </c>
       <c r="R262" s="5">
-        <f>(D262-I262+1+2*K262)/M262</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="S262" s="5">
-        <f>(C262-H262+1+2*J262)/L262</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="T262" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.73199999999999998</v>
       </c>
       <c r="U262" s="1">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(N262/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>8.2621465728643209</v>
       </c>
       <c r="V262" s="1">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(O262/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.4061584144144144</v>
       </c>
       <c r="W262" s="1">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(P262/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>5.2867111511254015</v>
       </c>
       <c r="X262" t="s">
@@ -11331,27 +11331,27 @@
         <v>0.312</v>
       </c>
       <c r="R263" s="5">
-        <f>(D263-I263+1+2*K263)/M263</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="S263" s="5">
-        <f>(C263-H263+1+2*J263)/L263</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="T263" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.754</v>
       </c>
       <c r="U263" s="1">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(N263/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>7.4061584144144144</v>
       </c>
       <c r="V263" s="1">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(O263/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.4734871272727261</v>
       </c>
       <c r="W263" s="1">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(P263/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>5.2697665641025644</v>
       </c>
       <c r="X263" t="s">
@@ -11403,27 +11403,27 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="R264" s="5">
-        <f>(D264-I264+1+2*K264)/M264</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="S264" s="5">
-        <f>(C264-H264+1+2*J264)/L264</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="T264" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.72799999999999998</v>
       </c>
       <c r="U264" s="1">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(N264/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>5.8720255999999988</v>
       </c>
       <c r="V264" s="1">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(O264/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.5140170764525993</v>
       </c>
       <c r="W264" s="1">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(P264/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>3.1497455325670498</v>
       </c>
       <c r="X264" t="s">
@@ -11475,27 +11475,27 @@
         <v>0.5</v>
       </c>
       <c r="R265" s="5">
-        <f>(D265-I265+1+2*K265)/M265</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="S265" s="5">
-        <f>(C265-H265+1+2*J265)/L265</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="T265" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.556</v>
       </c>
       <c r="U265" s="1">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(N265/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>6.6535541870503581</v>
       </c>
       <c r="V265" s="1">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(O265/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.3987522559999999</v>
       </c>
       <c r="W265" s="1">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(P265/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>7.3987522559999999</v>
       </c>
       <c r="X265" t="s">
@@ -11547,27 +11547,27 @@
         <v>0.40100000000000002</v>
       </c>
       <c r="R266" s="5">
-        <f>(D266-I266+1+2*K266)/M266</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="S266" s="5">
-        <f>(C266-H266+1+2*J266)/L266</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="T266" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.88200000000000001</v>
       </c>
       <c r="U266" s="1">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(N266/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>7.4396704434389145</v>
       </c>
       <c r="V266" s="1">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(O266/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.323719876923076</v>
       </c>
       <c r="W266" s="1">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(P266/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>4.1001675012468821</v>
       </c>
       <c r="X266" t="s">
@@ -11619,27 +11619,27 @@
         <v>0.86299999999999999</v>
       </c>
       <c r="R267" s="5">
-        <f>(D267-I267+1+2*K267)/M267</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="S267" s="5">
-        <f>(C267-H267+1+2*J267)/L267</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="T267" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.149</v>
       </c>
       <c r="U267" s="1">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(N267/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>8.2208358399999995</v>
       </c>
       <c r="V267" s="1">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(O267/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>3.7114383024830704</v>
       </c>
       <c r="W267" s="1">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(P267/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>3.810352648899189</v>
       </c>
       <c r="X267" t="s">
@@ -11691,27 +11691,27 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="R268" s="5">
-        <f>(D268-I268+1+2*K268)/M268</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="S268" s="5">
-        <f>(C268-H268+1+2*J268)/L268</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="T268" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>0.89900000000000002</v>
       </c>
       <c r="U268" s="1">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(N268/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>6.524472888888889</v>
       </c>
       <c r="V268" s="1">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(O268/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.3729469417040363</v>
       </c>
       <c r="W268" s="1">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(P268/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>3.877752754716981</v>
       </c>
       <c r="X268" t="s">
@@ -11772,11 +11772,11 @@
         <v>3.6139999999999999</v>
       </c>
       <c r="I280" s="1">
-        <f t="shared" ref="I280:J291" si="13">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
+        <f t="shared" ref="I280:J291" si="25">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
         <v>1.1963243243243242</v>
       </c>
       <c r="J280" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.3717675705589376</v>
       </c>
     </row>
@@ -11797,11 +11797,11 @@
         <v>9.7910000000000004</v>
       </c>
       <c r="I281" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.94890764666475258</v>
       </c>
       <c r="J281" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.0126785823715656</v>
       </c>
     </row>
@@ -11822,11 +11822,11 @@
         <v>5.0819999999999999</v>
       </c>
       <c r="I282" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.3639138252756573</v>
       </c>
       <c r="J282" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.9020606060606062</v>
       </c>
     </row>
@@ -11847,11 +11847,11 @@
         <v>6.1890000000000001</v>
       </c>
       <c r="I283" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.9810803800331769</v>
       </c>
       <c r="J283" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.4082313782517373</v>
       </c>
     </row>
@@ -11872,11 +11872,11 @@
         <v>5.444</v>
       </c>
       <c r="I284" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.0005253838127888</v>
       </c>
       <c r="J284" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.2330133725202057</v>
       </c>
     </row>
@@ -11897,11 +11897,11 @@
         <v>11.206</v>
       </c>
       <c r="I285" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.136271654676259</v>
       </c>
       <c r="J285" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.1980233446368018</v>
       </c>
     </row>
@@ -11922,11 +11922,11 @@
         <v>9.7850000000000001</v>
       </c>
       <c r="I286" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.5630106147384497</v>
       </c>
       <c r="J286" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.7440060500766479</v>
       </c>
     </row>
@@ -11947,11 +11947,11 @@
         <v>8.7479999999999993</v>
       </c>
       <c r="I287" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.9063130664320269</v>
       </c>
       <c r="J287" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.1385686328303626</v>
       </c>
     </row>
@@ -11972,11 +11972,11 @@
         <v>9.1549999999999994</v>
       </c>
       <c r="I288" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.0129233146610004</v>
       </c>
       <c r="J288" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.1455825232113599</v>
       </c>
     </row>
@@ -11997,11 +11997,11 @@
         <v>13.86</v>
       </c>
       <c r="I289" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.4271068172540482</v>
       </c>
       <c r="J289" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.513392207792208</v>
       </c>
     </row>
@@ -12022,11 +12022,11 @@
         <v>15.082000000000001</v>
       </c>
       <c r="I290" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.6871145272867021</v>
       </c>
       <c r="J290" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.7815430314281926</v>
       </c>
     </row>
@@ -12047,11 +12047,11 @@
         <v>15.711</v>
       </c>
       <c r="I291" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.220087351458969</v>
       </c>
       <c r="J291" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.3403643307236974</v>
       </c>
     </row>
@@ -12098,11 +12098,11 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="I296" s="1">
-        <f t="shared" ref="I296:J311" si="14">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
+        <f t="shared" ref="I296:J311" si="26">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
         <v>0.65536000000000005</v>
       </c>
       <c r="J296" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.59918628571428567</v>
       </c>
     </row>
@@ -12123,11 +12123,11 @@
         <v>5.5309999999999997</v>
       </c>
       <c r="I297" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.74433078970718725</v>
       </c>
       <c r="J297" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.30333060929307543</v>
       </c>
     </row>
@@ -12148,11 +12148,11 @@
         <v>2.0960000000000001</v>
       </c>
       <c r="I298" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.6360035104826911</v>
       </c>
       <c r="J298" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.6008793893129771</v>
       </c>
     </row>
@@ -12173,11 +12173,11 @@
         <v>2.452</v>
       </c>
       <c r="I299" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2.8472152736529481</v>
       </c>
       <c r="J299" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2.7369030995106041</v>
       </c>
     </row>
@@ -12198,11 +12198,11 @@
         <v>2.4809999999999999</v>
       </c>
       <c r="I300" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.8336504844720497</v>
       </c>
       <c r="J300" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.352455945183394</v>
       </c>
     </row>
@@ -12223,11 +12223,11 @@
         <v>10.18</v>
       </c>
       <c r="I301" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.732288693856479</v>
       </c>
       <c r="J301" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.65922263261296654</v>
       </c>
     </row>
@@ -12248,11 +12248,11 @@
         <v>3.3080000000000003</v>
       </c>
       <c r="I302" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>3.1827775195636709</v>
       </c>
       <c r="J302" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>4.0573678355501812</v>
       </c>
     </row>
@@ -12273,11 +12273,11 @@
         <v>4.59</v>
       </c>
       <c r="I303" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>4.8480306303052192</v>
       </c>
       <c r="J303" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>5.8482670152505447</v>
       </c>
     </row>
@@ -12298,11 +12298,11 @@
         <v>9.2750000000000004</v>
       </c>
       <c r="I304" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.67415605002762569</v>
       </c>
       <c r="J304" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.4470914070080863</v>
       </c>
     </row>
@@ -12323,11 +12323,11 @@
         <v>19.946000000000002</v>
       </c>
       <c r="I305" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>3.4304850607028752</v>
       </c>
       <c r="J305" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.3458109696179685</v>
       </c>
     </row>
@@ -12348,11 +12348,11 @@
         <v>20.661999999999999</v>
       </c>
       <c r="I306" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>5.0557577172991808</v>
       </c>
       <c r="J306" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2.5983492014325815</v>
       </c>
     </row>
@@ -12373,11 +12373,11 @@
         <v>13.276</v>
       </c>
       <c r="I307" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>6.5568015632633116</v>
       </c>
       <c r="J307" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>8.0878413980114487</v>
       </c>
     </row>
@@ -12398,11 +12398,11 @@
         <v>59.713000000000001</v>
       </c>
       <c r="I308" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.68407756272218767</v>
       </c>
       <c r="J308" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.89908547887394707</v>
       </c>
     </row>
@@ -12423,11 +12423,11 @@
         <v>46.56</v>
       </c>
       <c r="I309" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>4.6138785837057403</v>
       </c>
       <c r="J309" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2.3061465292096215</v>
       </c>
     </row>
@@ -12448,11 +12448,11 @@
         <v>51.094999999999999</v>
       </c>
       <c r="I310" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>4.4927376053892347</v>
       </c>
       <c r="J310" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>4.2029232762501216</v>
       </c>
     </row>
@@ -12473,11 +12473,11 @@
         <v>64.820999999999998</v>
       </c>
       <c r="I311" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>8.3337549643945135</v>
       </c>
       <c r="J311" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>6.6258886718810253</v>
       </c>
     </row>
@@ -12498,11 +12498,11 @@
         <v>7.4509999999999996</v>
       </c>
       <c r="I312" s="1">
-        <f t="shared" ref="I312:J317" si="15">(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
+        <f t="shared" ref="I312:J317" si="27">(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
         <v>0.65689960845732187</v>
       </c>
       <c r="J312" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.0132528788082138</v>
       </c>
     </row>
@@ -12523,11 +12523,11 @@
         <v>11.335000000000001</v>
       </c>
       <c r="I313" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.69247853244668667</v>
       </c>
       <c r="J313" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.3321124305249226</v>
       </c>
     </row>
@@ -12548,11 +12548,11 @@
         <v>30.027999999999999</v>
       </c>
       <c r="I314" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.5959759993123011</v>
       </c>
       <c r="J314" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.0056943119754895</v>
       </c>
     </row>
@@ -12573,11 +12573,11 @@
         <v>4.0860000000000003</v>
       </c>
       <c r="I315" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.75391923307369679</v>
       </c>
       <c r="J315" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.30795183553597649</v>
       </c>
     </row>
@@ -12598,11 +12598,11 @@
         <v>14.672000000000001</v>
       </c>
       <c r="I316" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.38153159490600358</v>
       </c>
       <c r="J316" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.17152279171210469</v>
       </c>
     </row>
@@ -12623,11 +12623,11 @@
         <v>8.5050000000000008</v>
       </c>
       <c r="I317" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.84208880709385969</v>
       </c>
       <c r="J317" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.59178892416225748</v>
       </c>
     </row>
@@ -12707,11 +12707,11 @@
         <v>635.21500000000003</v>
       </c>
       <c r="I322" s="1">
-        <f t="shared" ref="I322:I339" si="16">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <f t="shared" ref="I322:I339" si="28">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
         <v>3.5760678698597315</v>
       </c>
       <c r="J322" s="1">
-        <f t="shared" ref="J322:J339" si="17">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <f t="shared" ref="J322:J339" si="29">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
         <v>1.7976579016553447</v>
       </c>
     </row>
@@ -12732,11 +12732,11 @@
         <v>318.56099999999998</v>
       </c>
       <c r="I323" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.5703096125465867</v>
       </c>
       <c r="J323" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.7922772467439518</v>
       </c>
     </row>
@@ -12757,11 +12757,11 @@
         <v>159.52600000000001</v>
       </c>
       <c r="I324" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.5506640788167503</v>
       </c>
       <c r="J324" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.7847469993856802</v>
       </c>
     </row>
@@ -12782,11 +12782,11 @@
         <v>890.202</v>
       </c>
       <c r="I325" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.953222499028191</v>
       </c>
       <c r="J325" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.3569499416986257</v>
       </c>
     </row>
@@ -12807,11 +12807,11 @@
         <v>446.22199999999998</v>
       </c>
       <c r="I326" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.9361596079803989</v>
       </c>
       <c r="J326" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.3535410087355619</v>
       </c>
     </row>
@@ -12832,11 +12832,11 @@
         <v>224.10599999999999</v>
       </c>
       <c r="I327" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.8918201648967234</v>
       </c>
       <c r="J327" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.3475314717142781</v>
       </c>
     </row>
@@ -12857,11 +12857,11 @@
         <v>112.39100000000001</v>
       </c>
       <c r="I328" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.8549384017593087</v>
       </c>
       <c r="J328" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.3398963512736786</v>
       </c>
     </row>
@@ -12882,11 +12882,11 @@
         <v>661.13400000000001</v>
       </c>
       <c r="I329" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.2515872581409453</v>
       </c>
       <c r="J329" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.0277451288241113</v>
       </c>
     </row>
@@ -12907,11 +12907,11 @@
         <v>331.88799999999998</v>
       </c>
       <c r="I330" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.2880795247908838</v>
       </c>
       <c r="J330" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.0236544376416141</v>
       </c>
     </row>
@@ -12932,11 +12932,11 @@
         <v>167.13499999999999</v>
       </c>
       <c r="I331" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.2609749903501886</v>
       </c>
       <c r="J331" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.016359900679092</v>
       </c>
     </row>
@@ -12957,11 +12957,11 @@
         <v>84.582999999999998</v>
       </c>
       <c r="I332" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.1945688640638363</v>
       </c>
       <c r="J332" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.0014797723419602</v>
       </c>
     </row>
@@ -12982,11 +12982,11 @@
         <v>1143.086</v>
       </c>
       <c r="I333" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.3774854204058848</v>
       </c>
       <c r="J333" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.6511765518954828</v>
       </c>
     </row>
@@ -13007,11 +13007,11 @@
         <v>573.70699999999999</v>
       </c>
       <c r="I334" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.3510585260885319</v>
       </c>
       <c r="J334" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.6449483795735453</v>
       </c>
     </row>
@@ -13032,11 +13032,11 @@
         <v>287.89499999999998</v>
       </c>
       <c r="I335" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.3422287701602906</v>
       </c>
       <c r="J335" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.6389975511905386</v>
       </c>
     </row>
@@ -13057,11 +13057,11 @@
         <v>144.161</v>
       </c>
       <c r="I336" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.3351351400385529</v>
       </c>
       <c r="J336" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.6322060363066291</v>
       </c>
     </row>
@@ -13082,11 +13082,11 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="I337" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0.76260072727272721</v>
       </c>
       <c r="J337" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.29433712280701751</v>
       </c>
     </row>
@@ -13107,11 +13107,11 @@
         <v>447.82400000000001</v>
       </c>
       <c r="I338" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.6922846495676684</v>
       </c>
       <c r="J338" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.67434949444424597</v>
       </c>
     </row>
@@ -13132,11 +13132,11 @@
         <v>169.47399999999999</v>
       </c>
       <c r="I339" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.8526885411599117</v>
       </c>
       <c r="J339" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.5638491804052546</v>
       </c>
     </row>

--- a/results/train/DeepBench_NV_1080Ti.xlsx
+++ b/results/train/DeepBench_NV_1080Ti.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patwarymostofa/Documents/mostofa/deepbench-internal/DeepBench-internal/results/train/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="720" windowWidth="26160" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="6240" yWindow="460" windowWidth="26160" windowHeight="19280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="3" r:id="rId1"/>
     <sheet name="Specs" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="80">
   <si>
     <t>Dense Matrix Multiplication</t>
   </si>
@@ -231,6 +236,39 @@
   <si>
     <t>6.0.21</t>
   </si>
+  <si>
+    <t>All-Reduce</t>
+  </si>
+  <si>
+    <t>Size # floats</t>
+  </si>
+  <si>
+    <t># chips / accelerator cards</t>
+  </si>
+  <si>
+    <t>Mean All Reduce Time (msec)</t>
+  </si>
+  <si>
+    <t>Gigabytes/sec</t>
+  </si>
+  <si>
+    <t>Selected Algorithm</t>
+  </si>
+  <si>
+    <t>Std Dev All Reduce Time (msec)</t>
+  </si>
+  <si>
+    <t>NCCL 2.0 MPI</t>
+  </si>
+  <si>
+    <t>OSU Allreduce</t>
+  </si>
+  <si>
+    <t>NCCL 2.0 Single</t>
+  </si>
+  <si>
+    <t>Baidu RingAllReduce</t>
+  </si>
 </sst>
 </file>
 
@@ -266,6 +304,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -294,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -329,6 +368,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,13 +651,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE339"/>
+  <dimension ref="A1:AE384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="B370" sqref="B370"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="5" customWidth="1"/>
     <col min="2" max="3" width="11" style="5"/>
@@ -636,7 +678,7 @@
     <col min="23" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -644,7 +686,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -670,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="5">
         <v>1760</v>
       </c>
@@ -696,7 +738,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" s="5">
         <v>1760</v>
       </c>
@@ -722,7 +764,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="5">
         <v>1760</v>
       </c>
@@ -748,7 +790,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="5">
         <v>1760</v>
       </c>
@@ -774,7 +816,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="5">
         <v>1760</v>
       </c>
@@ -800,7 +842,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="5">
         <v>2048</v>
       </c>
@@ -826,7 +868,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="5">
         <v>2048</v>
       </c>
@@ -852,7 +894,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="5">
         <v>2048</v>
       </c>
@@ -878,7 +920,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="5">
         <v>2048</v>
       </c>
@@ -904,7 +946,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="5">
         <v>2048</v>
       </c>
@@ -930,7 +972,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="5">
         <v>2560</v>
       </c>
@@ -956,7 +998,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
         <v>2560</v>
       </c>
@@ -982,7 +1024,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="5">
         <v>2560</v>
       </c>
@@ -1008,7 +1050,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="5">
         <v>2560</v>
       </c>
@@ -1034,7 +1076,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="5">
         <v>2560</v>
       </c>
@@ -1060,7 +1102,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="5">
         <v>4096</v>
       </c>
@@ -1086,7 +1128,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="5">
         <v>4096</v>
       </c>
@@ -1112,7 +1154,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="5">
         <v>4096</v>
       </c>
@@ -1138,7 +1180,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="5">
         <v>4096</v>
       </c>
@@ -1164,7 +1206,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="5">
         <v>4096</v>
       </c>
@@ -1190,7 +1232,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="5">
         <v>1760</v>
       </c>
@@ -1216,7 +1258,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="5">
         <v>1760</v>
       </c>
@@ -1242,7 +1284,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="5">
         <v>1760</v>
       </c>
@@ -1268,7 +1310,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="5">
         <v>1760</v>
       </c>
@@ -1294,7 +1336,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="3:12">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="5">
         <v>1760</v>
       </c>
@@ -1320,7 +1362,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="5">
         <v>2048</v>
       </c>
@@ -1346,7 +1388,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="5">
         <v>2048</v>
       </c>
@@ -1372,7 +1414,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="3:12">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="5">
         <v>2048</v>
       </c>
@@ -1398,7 +1440,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="3:12">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="5">
         <v>2048</v>
       </c>
@@ -1424,7 +1466,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="5">
         <v>2048</v>
       </c>
@@ -1450,7 +1492,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" s="5">
         <v>2560</v>
       </c>
@@ -1476,7 +1518,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" s="5">
         <v>2560</v>
       </c>
@@ -1502,7 +1544,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" s="5">
         <v>2560</v>
       </c>
@@ -1528,7 +1570,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C37" s="5">
         <v>2560</v>
       </c>
@@ -1554,7 +1596,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C38" s="5">
         <v>2560</v>
       </c>
@@ -1580,7 +1622,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="3:12">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39" s="5">
         <v>4096</v>
       </c>
@@ -1606,7 +1648,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="3:12">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40" s="5">
         <v>4096</v>
       </c>
@@ -1632,7 +1674,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="3:12">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41" s="5">
         <v>4096</v>
       </c>
@@ -1658,7 +1700,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42" s="5">
         <v>4096</v>
       </c>
@@ -1684,7 +1726,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C43" s="5">
         <v>4096</v>
       </c>
@@ -1710,7 +1752,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C44" s="5">
         <v>1760</v>
       </c>
@@ -1739,7 +1781,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C45" s="5">
         <v>2048</v>
       </c>
@@ -1765,7 +1807,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="3:12">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46" s="5">
         <v>2560</v>
       </c>
@@ -1791,7 +1833,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C47" s="7">
         <v>4096</v>
       </c>
@@ -1817,19 +1859,19 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="5">
         <v>5124</v>
       </c>
@@ -1855,7 +1897,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="5">
         <v>35</v>
       </c>
@@ -1881,7 +1923,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="3:12">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="5">
         <v>5124</v>
       </c>
@@ -1907,7 +1949,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="3:12">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="5">
         <v>35</v>
       </c>
@@ -1933,7 +1975,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="3:12">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="5">
         <v>5124</v>
       </c>
@@ -1959,7 +2001,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="5">
         <v>35</v>
       </c>
@@ -1985,7 +2027,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="3:12">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="5">
         <v>5124</v>
       </c>
@@ -2011,7 +2053,7 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="5">
         <v>35</v>
       </c>
@@ -2037,7 +2079,7 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="3:12">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="5">
         <v>5124</v>
       </c>
@@ -2063,7 +2105,7 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="3:12">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="5">
         <v>35</v>
       </c>
@@ -2089,7 +2131,7 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="3:12">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="5">
         <v>5124</v>
       </c>
@@ -2115,7 +2157,7 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="3:12">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="5">
         <v>35</v>
       </c>
@@ -2141,7 +2183,7 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="3:12">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="5">
         <v>5124</v>
       </c>
@@ -2167,7 +2209,7 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="3:12">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="5">
         <v>35</v>
       </c>
@@ -2193,7 +2235,7 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="3:12">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="5">
         <v>5124</v>
       </c>
@@ -2219,7 +2261,7 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="3:12">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C65" s="5">
         <v>35</v>
       </c>
@@ -2245,13 +2287,13 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="3:12">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C67" s="5">
         <v>7680</v>
       </c>
@@ -2277,7 +2319,7 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="3:12">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C68" s="5">
         <v>7680</v>
       </c>
@@ -2303,7 +2345,7 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="3:12">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C69" s="5">
         <v>7680</v>
       </c>
@@ -2329,7 +2371,7 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="3:12">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C70" s="5">
         <v>7680</v>
       </c>
@@ -2355,7 +2397,7 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="3:12">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C71" s="5">
         <v>7680</v>
       </c>
@@ -2381,7 +2423,7 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="3:12">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C72" s="5">
         <v>7680</v>
       </c>
@@ -2407,7 +2449,7 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="3:12">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C73" s="5">
         <v>7680</v>
       </c>
@@ -2433,7 +2475,7 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="3:12">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C74" s="5">
         <v>7680</v>
       </c>
@@ -2459,7 +2501,7 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="3:12">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C75" s="5">
         <f>3*1024</f>
         <v>3072</v>
@@ -2486,7 +2528,7 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="3:12">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C76" s="5">
         <f t="shared" ref="C76:C82" si="3">3*1024</f>
         <v>3072</v>
@@ -2513,7 +2555,7 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="3:12">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C77" s="5">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2540,7 +2582,7 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="3:12">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C78" s="5">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2567,7 +2609,7 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="3:12">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C79" s="5">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2594,7 +2636,7 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="3:12">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C80" s="5">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2621,7 +2663,7 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="3:12">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="5">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2648,7 +2690,7 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="3:12">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="5">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2675,13 +2717,13 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="3:12">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="3:12">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="5">
         <v>3072</v>
       </c>
@@ -2707,7 +2749,7 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="3:12">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="5">
         <v>7680</v>
       </c>
@@ -2733,11 +2775,11 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="3:12">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="3:12">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="5">
         <v>512</v>
       </c>
@@ -2761,7 +2803,7 @@
         <v>0.62192529608259939</v>
       </c>
     </row>
-    <row r="88" spans="3:12">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="5">
         <v>1024</v>
       </c>
@@ -2785,7 +2827,7 @@
         <v>1.1606687446868802</v>
       </c>
     </row>
-    <row r="89" spans="3:12">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="5">
         <v>512</v>
       </c>
@@ -2809,7 +2851,7 @@
         <v>1.2935417653560712</v>
       </c>
     </row>
-    <row r="90" spans="3:12">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="5">
         <v>1024</v>
       </c>
@@ -2833,7 +2875,7 @@
         <v>2.0352795031055901</v>
       </c>
     </row>
-    <row r="91" spans="3:12">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="5">
         <v>512</v>
       </c>
@@ -2857,7 +2899,7 @@
         <v>0.86068501786089513</v>
       </c>
     </row>
-    <row r="92" spans="3:12">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="5">
         <v>1024</v>
       </c>
@@ -2881,7 +2923,7 @@
         <v>1.3950953678474116</v>
       </c>
     </row>
-    <row r="93" spans="3:12">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="5">
         <v>512</v>
       </c>
@@ -2905,7 +2947,7 @@
         <v>1.2620551532891697</v>
       </c>
     </row>
-    <row r="94" spans="3:12">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="5">
         <v>1024</v>
       </c>
@@ -2929,7 +2971,7 @@
         <v>1.2276337479394575</v>
       </c>
     </row>
-    <row r="95" spans="3:12">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="5">
         <v>1024</v>
       </c>
@@ -2953,7 +2995,7 @@
         <v>8.6353317647058816</v>
       </c>
     </row>
-    <row r="96" spans="3:12">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="5">
         <v>1024</v>
       </c>
@@ -2977,7 +3019,7 @@
         <v>8.0659692307692303</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C97" s="5">
         <v>7680</v>
       </c>
@@ -3001,7 +3043,7 @@
         <v>11.183617747440273</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C98" s="5">
         <v>6144</v>
       </c>
@@ -3025,7 +3067,7 @@
         <v>10.661602400706089</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="C99" s="7">
         <v>4608</v>
@@ -3051,7 +3093,7 @@
         <v>11.319715589911038</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="C100" s="7">
         <v>8448</v>
@@ -3077,7 +3119,7 @@
         <v>11.144177229520036</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="C101" s="7">
         <v>3072</v>
@@ -3103,7 +3145,7 @@
         <v>11.15259206736096</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C102" s="5">
         <v>7680</v>
       </c>
@@ -3127,7 +3169,7 @@
         <v>10.697268775398008</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C103" s="5">
         <v>6144</v>
       </c>
@@ -3151,7 +3193,7 @@
         <v>10.690853633064872</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="C104" s="7">
         <v>4608</v>
@@ -3177,7 +3219,7 @@
         <v>10.772699495830297</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="C105" s="7">
         <v>8448</v>
@@ -3203,7 +3245,7 @@
         <v>10.618120873143177</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="C106" s="7">
         <v>3072</v>
@@ -3229,7 +3271,7 @@
         <v>10.961918327344005</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C107" s="5">
         <v>7680</v>
       </c>
@@ -3253,7 +3295,7 @@
         <v>9.2426267078007935</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C108" s="5">
         <v>6144</v>
       </c>
@@ -3277,7 +3319,7 @@
         <v>6.6922966869806091</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="C109" s="7">
         <v>4608</v>
@@ -3303,7 +3345,7 @@
         <v>10.159040248788948</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="C110" s="7">
         <v>8448</v>
@@ -3329,7 +3371,7 @@
         <v>9.1024253806297324</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="C111" s="7">
         <v>3072</v>
@@ -3355,7 +3397,7 @@
         <v>11.118102054340623</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C112" s="5">
         <v>7680</v>
       </c>
@@ -3379,7 +3421,7 @@
         <v>9.6780711919680851</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C113" s="5">
         <v>6144</v>
       </c>
@@ -3403,7 +3445,7 @@
         <v>6.6565247809555306</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="C114" s="7">
         <v>4608</v>
@@ -3429,7 +3471,7 @@
         <v>10.163903069466881</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="C115" s="7">
         <v>8448</v>
@@ -3455,7 +3497,7 @@
         <v>9.5437825296597953</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="C116" s="7">
         <v>3072</v>
@@ -3481,7 +3523,7 @@
         <v>10.721788255343322</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="C117" s="7">
         <v>6144</v>
@@ -3507,7 +3549,7 @@
         <v>0.75972298867924537</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="C118" s="7">
         <v>4608</v>
@@ -3533,7 +3575,7 @@
         <v>1.2177011612903226</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="C119" s="7">
         <v>8448</v>
@@ -3559,7 +3601,7 @@
         <v>0.86116083257918552</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="C120" s="7">
         <v>6144</v>
@@ -3585,7 +3627,7 @@
         <v>3.3554432000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="C121" s="7">
         <v>4608</v>
@@ -3611,7 +3653,7 @@
         <v>5.6623104</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="C122" s="7">
         <v>8448</v>
@@ -3637,7 +3679,7 @@
         <v>6.2914560000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="C123" s="7">
         <v>6144</v>
@@ -3663,7 +3705,7 @@
         <v>1.2905550769230769</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="C124" s="7">
         <v>4608</v>
@@ -3689,7 +3731,7 @@
         <v>1.4518744615384618</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="C125" s="7">
         <v>8448</v>
@@ -3715,7 +3757,7 @@
         <v>1.4282667467166978</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="C126" s="7">
         <v>6144</v>
@@ -3741,7 +3783,7 @@
         <v>2.982616177777778</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="C127" s="7">
         <v>4608</v>
@@ -3767,7 +3809,7 @@
         <v>4.1180439272727272</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="C128" s="7">
         <v>8448</v>
@@ -3793,7 +3835,7 @@
         <v>4.4388698309037888</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C129" s="7">
         <v>512</v>
       </c>
@@ -3819,7 +3861,7 @@
         <v>10.766337274424394</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C130" s="7">
         <v>512</v>
       </c>
@@ -3845,7 +3887,7 @@
         <v>10.784582815513177</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="7"/>
       <c r="C131" s="7">
         <v>512</v>
@@ -3872,7 +3914,7 @@
         <v>10.741772238347275</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="7"/>
       <c r="C132" s="7">
         <v>512</v>
@@ -3899,7 +3941,7 @@
         <v>10.657959183673471</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C133" s="7">
         <v>1024</v>
       </c>
@@ -3925,7 +3967,7 @@
         <v>10.920081420118342</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C134" s="7">
         <v>1024</v>
       </c>
@@ -3951,7 +3993,7 @@
         <v>10.969085322000653</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="7"/>
       <c r="C135" s="7">
         <v>1024</v>
@@ -3978,7 +4020,7 @@
         <v>11.176862675430804</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="7"/>
       <c r="C136" s="7">
         <v>1024</v>
@@ -4005,7 +4047,7 @@
         <v>10.952892513836293</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="7"/>
       <c r="C137" s="7">
         <v>512</v>
@@ -4031,7 +4073,7 @@
         <v>0.76260072727272732</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="7"/>
       <c r="C138" s="7">
         <v>1024</v>
@@ -4057,7 +4099,7 @@
         <v>1.5252014545454546</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C139" s="7">
         <v>512</v>
       </c>
@@ -4083,7 +4125,7 @@
         <v>10.541662757044934</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C140" s="7">
         <v>512</v>
       </c>
@@ -4109,7 +4151,7 @@
         <v>10.677057276198557</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="7"/>
       <c r="C141" s="7">
         <v>512</v>
@@ -4136,7 +4178,7 @@
         <v>10.674340006786563</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="7"/>
       <c r="C142" s="7">
         <v>512</v>
@@ -4163,7 +4205,7 @@
         <v>10.441899472368787</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C143" s="7">
         <v>1024</v>
       </c>
@@ -4189,7 +4231,7 @@
         <v>10.290092335142367</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C144" s="7">
         <v>1024</v>
       </c>
@@ -4215,7 +4257,7 @@
         <v>10.750031610422894</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="7"/>
       <c r="C145" s="7">
         <v>1024</v>
@@ -4242,7 +4284,7 @@
         <v>10.820287213001979</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="7"/>
       <c r="C146" s="7">
         <v>1024</v>
@@ -4269,7 +4311,7 @@
         <v>10.642875742994621</v>
       </c>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="7"/>
       <c r="C147" s="7">
         <v>512</v>
@@ -4295,7 +4337,7 @@
         <v>1.1983725714285716</v>
       </c>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="7"/>
       <c r="C148" s="7">
         <v>1024</v>
@@ -4321,7 +4363,7 @@
         <v>1.8641351111111111</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C149" s="7">
         <v>512</v>
       </c>
@@ -4347,7 +4389,7 @@
         <v>10.852440959698917</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C150" s="7">
         <v>512</v>
       </c>
@@ -4373,7 +4415,7 @@
         <v>11.078945190402816</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="7"/>
       <c r="C151" s="7">
         <v>512</v>
@@ -4400,7 +4442,7 @@
         <v>10.685217391304347</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="7"/>
       <c r="C152" s="7">
         <v>512</v>
@@ -4427,7 +4469,7 @@
         <v>10.457872340425533</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C153" s="7">
         <v>1024</v>
       </c>
@@ -4453,7 +4495,7 @@
         <v>10.725457729562184</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C154" s="7">
         <v>1024</v>
       </c>
@@ -4479,7 +4521,7 @@
         <v>10.947612398042414</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="7"/>
       <c r="C155" s="7">
         <v>1024</v>
@@ -4506,7 +4548,7 @@
         <v>10.678416429753469</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="7"/>
       <c r="C156" s="7">
         <v>1024</v>
@@ -4533,7 +4575,7 @@
         <v>10.587436294523441</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="7"/>
       <c r="C157" s="7">
         <v>512</v>
@@ -4559,7 +4601,7 @@
         <v>2.7962026666666664</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="7"/>
       <c r="C158" s="7">
         <v>1024</v>
@@ -4585,7 +4627,7 @@
         <v>3.7282702222222222</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C159" s="7">
         <v>512</v>
       </c>
@@ -4611,7 +4653,7 @@
         <v>10.541662757044934</v>
       </c>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C160" s="7">
         <v>512</v>
       </c>
@@ -4637,7 +4679,7 @@
         <v>10.867245600777284</v>
       </c>
     </row>
-    <row r="161" spans="1:31">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B161" s="7"/>
       <c r="C161" s="7">
         <v>512</v>
@@ -4664,7 +4706,7 @@
         <v>10.388797886393661</v>
       </c>
     </row>
-    <row r="162" spans="1:31">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B162" s="7"/>
       <c r="C162" s="7">
         <v>512</v>
@@ -4691,7 +4733,7 @@
         <v>10.303131935881627</v>
       </c>
     </row>
-    <row r="163" spans="1:31">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C163" s="7">
         <v>1024</v>
       </c>
@@ -4717,7 +4759,7 @@
         <v>10.197224886727815</v>
       </c>
     </row>
-    <row r="164" spans="1:31">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C164" s="7">
         <v>1024</v>
       </c>
@@ -4743,7 +4785,7 @@
         <v>10.797886403861627</v>
       </c>
     </row>
-    <row r="165" spans="1:31">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B165" s="7"/>
       <c r="C165" s="7">
         <v>1024</v>
@@ -4770,7 +4812,7 @@
         <v>10.101077305932407</v>
       </c>
     </row>
-    <row r="166" spans="1:31">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B166" s="7"/>
       <c r="C166" s="7">
         <v>1024</v>
@@ -4797,7 +4839,7 @@
         <v>10.347077600440285</v>
       </c>
     </row>
-    <row r="167" spans="1:31">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B167" s="7"/>
       <c r="C167" s="7">
         <v>512</v>
@@ -4823,7 +4865,7 @@
         <v>2.3967451428571431</v>
       </c>
     </row>
-    <row r="168" spans="1:31">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B168" s="7"/>
       <c r="C168" s="7">
         <v>1024</v>
@@ -4849,26 +4891,26 @@
         <v>3.3554431999999994</v>
       </c>
     </row>
-    <row r="169" spans="1:31">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:31">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:31">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I171" s="6"/>
       <c r="J171" s="8"/>
     </row>
-    <row r="172" spans="1:31">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:31">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:31">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C174" s="5" t="s">
         <v>11</v>
       </c>
@@ -4933,7 +4975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:31">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C175" s="5">
         <v>700</v>
       </c>
@@ -5006,7 +5048,7 @@
       <c r="AA175" s="6"/>
       <c r="AE175" s="6"/>
     </row>
-    <row r="176" spans="1:31">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C176" s="5">
         <v>700</v>
       </c>
@@ -5079,7 +5121,7 @@
       <c r="AA176" s="6"/>
       <c r="AE176" s="6"/>
     </row>
-    <row r="177" spans="3:31">
+    <row r="177" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C177" s="5">
         <v>700</v>
       </c>
@@ -5152,7 +5194,7 @@
       <c r="AA177" s="6"/>
       <c r="AE177" s="6"/>
     </row>
-    <row r="178" spans="3:31">
+    <row r="178" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C178" s="5">
         <v>700</v>
       </c>
@@ -5225,7 +5267,7 @@
       <c r="AA178" s="6"/>
       <c r="AE178" s="6"/>
     </row>
-    <row r="179" spans="3:31">
+    <row r="179" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C179" s="5">
         <v>341</v>
       </c>
@@ -5298,7 +5340,7 @@
       <c r="AA179" s="6"/>
       <c r="AE179" s="6"/>
     </row>
-    <row r="180" spans="3:31">
+    <row r="180" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C180" s="5">
         <v>341</v>
       </c>
@@ -5371,7 +5413,7 @@
       <c r="AA180" s="6"/>
       <c r="AE180" s="6"/>
     </row>
-    <row r="181" spans="3:31">
+    <row r="181" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C181" s="5">
         <v>341</v>
       </c>
@@ -5444,7 +5486,7 @@
       <c r="AA181" s="6"/>
       <c r="AE181" s="6"/>
     </row>
-    <row r="182" spans="3:31">
+    <row r="182" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C182" s="5">
         <v>341</v>
       </c>
@@ -5517,7 +5559,7 @@
       <c r="AA182" s="6"/>
       <c r="AE182" s="6"/>
     </row>
-    <row r="183" spans="3:31">
+    <row r="183" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C183" s="5">
         <v>480</v>
       </c>
@@ -5590,7 +5632,7 @@
       <c r="AA183" s="6"/>
       <c r="AE183" s="6"/>
     </row>
-    <row r="184" spans="3:31">
+    <row r="184" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C184" s="5">
         <v>240</v>
       </c>
@@ -5663,7 +5705,7 @@
       <c r="AA184" s="6"/>
       <c r="AE184" s="6"/>
     </row>
-    <row r="185" spans="3:31">
+    <row r="185" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C185" s="5">
         <v>120</v>
       </c>
@@ -5736,7 +5778,7 @@
       <c r="AA185" s="6"/>
       <c r="AE185" s="6"/>
     </row>
-    <row r="186" spans="3:31">
+    <row r="186" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C186" s="5">
         <v>60</v>
       </c>
@@ -5809,7 +5851,7 @@
       <c r="AA186" s="6"/>
       <c r="AE186" s="6"/>
     </row>
-    <row r="187" spans="3:31">
+    <row r="187" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C187" s="5">
         <v>108</v>
       </c>
@@ -5882,7 +5924,7 @@
       <c r="AA187" s="6"/>
       <c r="AE187" s="6"/>
     </row>
-    <row r="188" spans="3:31">
+    <row r="188" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C188" s="5">
         <v>54</v>
       </c>
@@ -5955,7 +5997,7 @@
       <c r="AA188" s="6"/>
       <c r="AE188" s="6"/>
     </row>
-    <row r="189" spans="3:31">
+    <row r="189" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C189" s="5">
         <v>27</v>
       </c>
@@ -6028,7 +6070,7 @@
       <c r="AA189" s="6"/>
       <c r="AE189" s="6"/>
     </row>
-    <row r="190" spans="3:31">
+    <row r="190" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C190" s="5">
         <v>14</v>
       </c>
@@ -6101,7 +6143,7 @@
       <c r="AA190" s="6"/>
       <c r="AE190" s="6"/>
     </row>
-    <row r="191" spans="3:31">
+    <row r="191" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C191" s="5">
         <v>7</v>
       </c>
@@ -6174,7 +6216,7 @@
       <c r="AA191" s="6"/>
       <c r="AE191" s="6"/>
     </row>
-    <row r="192" spans="3:31">
+    <row r="192" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C192" s="5">
         <v>224</v>
       </c>
@@ -6247,7 +6289,7 @@
       <c r="AA192" s="6"/>
       <c r="AE192" s="6"/>
     </row>
-    <row r="193" spans="3:31">
+    <row r="193" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C193" s="5">
         <v>112</v>
       </c>
@@ -6320,7 +6362,7 @@
       <c r="AA193" s="6"/>
       <c r="AE193" s="6"/>
     </row>
-    <row r="194" spans="3:31">
+    <row r="194" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C194" s="5">
         <f>112/2</f>
         <v>56</v>
@@ -6394,7 +6436,7 @@
       <c r="AA194" s="6"/>
       <c r="AE194" s="6"/>
     </row>
-    <row r="195" spans="3:31">
+    <row r="195" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C195" s="5">
         <f>56/2</f>
         <v>28</v>
@@ -6468,7 +6510,7 @@
       <c r="AA195" s="6"/>
       <c r="AE195" s="6"/>
     </row>
-    <row r="196" spans="3:31">
+    <row r="196" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C196" s="5">
         <v>14</v>
       </c>
@@ -6541,7 +6583,7 @@
       <c r="AA196" s="6"/>
       <c r="AE196" s="6"/>
     </row>
-    <row r="197" spans="3:31">
+    <row r="197" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C197" s="5">
         <v>7</v>
       </c>
@@ -6614,7 +6656,7 @@
       <c r="AA197" s="6"/>
       <c r="AE197" s="6"/>
     </row>
-    <row r="198" spans="3:31">
+    <row r="198" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C198" s="5">
         <v>224</v>
       </c>
@@ -6687,7 +6729,7 @@
       <c r="AA198" s="6"/>
       <c r="AE198" s="6"/>
     </row>
-    <row r="199" spans="3:31">
+    <row r="199" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C199" s="5">
         <v>112</v>
       </c>
@@ -6760,7 +6802,7 @@
       <c r="AA199" s="6"/>
       <c r="AE199" s="6"/>
     </row>
-    <row r="200" spans="3:31">
+    <row r="200" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C200" s="5">
         <f>112/2</f>
         <v>56</v>
@@ -6834,7 +6876,7 @@
       <c r="AA200" s="6"/>
       <c r="AE200" s="6"/>
     </row>
-    <row r="201" spans="3:31">
+    <row r="201" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C201" s="5">
         <f>56/2</f>
         <v>28</v>
@@ -6908,7 +6950,7 @@
       <c r="AA201" s="6"/>
       <c r="AE201" s="6"/>
     </row>
-    <row r="202" spans="3:31">
+    <row r="202" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C202" s="5">
         <v>14</v>
       </c>
@@ -6981,7 +7023,7 @@
       <c r="AA202" s="6"/>
       <c r="AE202" s="6"/>
     </row>
-    <row r="203" spans="3:31">
+    <row r="203" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C203" s="5">
         <v>7</v>
       </c>
@@ -7054,7 +7096,7 @@
       <c r="AA203" s="6"/>
       <c r="AE203" s="6"/>
     </row>
-    <row r="204" spans="3:31">
+    <row r="204" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C204" s="5">
         <v>224</v>
       </c>
@@ -7127,7 +7169,7 @@
       <c r="AA204" s="6"/>
       <c r="AE204" s="6"/>
     </row>
-    <row r="205" spans="3:31">
+    <row r="205" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C205" s="5">
         <v>28</v>
       </c>
@@ -7200,7 +7242,7 @@
       <c r="AA205" s="6"/>
       <c r="AE205" s="6"/>
     </row>
-    <row r="206" spans="3:31">
+    <row r="206" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C206" s="5">
         <v>28</v>
       </c>
@@ -7273,7 +7315,7 @@
       <c r="AA206" s="6"/>
       <c r="AE206" s="6"/>
     </row>
-    <row r="207" spans="3:31">
+    <row r="207" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C207" s="5">
         <v>14</v>
       </c>
@@ -7346,7 +7388,7 @@
       <c r="AA207" s="6"/>
       <c r="AE207" s="6"/>
     </row>
-    <row r="208" spans="3:31">
+    <row r="208" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C208" s="5">
         <v>14</v>
       </c>
@@ -7419,7 +7461,7 @@
       <c r="AA208" s="6"/>
       <c r="AE208" s="6"/>
     </row>
-    <row r="209" spans="2:31">
+    <row r="209" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C209" s="5">
         <v>7</v>
       </c>
@@ -7492,7 +7534,7 @@
       <c r="AA209" s="6"/>
       <c r="AE209" s="6"/>
     </row>
-    <row r="210" spans="2:31">
+    <row r="210" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C210" s="5">
         <v>7</v>
       </c>
@@ -7565,7 +7607,7 @@
       <c r="AA210" s="6"/>
       <c r="AE210" s="6"/>
     </row>
-    <row r="211" spans="2:31">
+    <row r="211" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C211" s="5">
         <v>56</v>
       </c>
@@ -7636,7 +7678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="2:31">
+    <row r="212" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C212" s="5">
         <v>56</v>
       </c>
@@ -7707,7 +7749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="2:31">
+    <row r="213" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C213" s="5">
         <v>28</v>
       </c>
@@ -7778,7 +7820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="2:31">
+    <row r="214" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B214" s="7"/>
       <c r="C214" s="7">
         <v>28</v>
@@ -7850,7 +7892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="2:31">
+    <row r="215" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C215" s="5">
         <v>14</v>
       </c>
@@ -7921,7 +7963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="2:31">
+    <row r="216" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C216" s="5">
         <v>14</v>
       </c>
@@ -7992,7 +8034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="2:31">
+    <row r="217" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B217" s="7"/>
       <c r="C217" s="7">
         <v>14</v>
@@ -8064,7 +8106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="2:31">
+    <row r="218" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B218" s="7"/>
       <c r="C218" s="5">
         <v>7</v>
@@ -8136,7 +8178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="2:31">
+    <row r="219" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B219" s="7"/>
       <c r="C219" s="5">
         <v>7</v>
@@ -8208,7 +8250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="2:31">
+    <row r="220" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C220" s="5">
         <v>56</v>
       </c>
@@ -8279,7 +8321,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="2:31">
+    <row r="221" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C221" s="5">
         <v>56</v>
       </c>
@@ -8350,7 +8392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="2:31">
+    <row r="222" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C222" s="5">
         <v>28</v>
       </c>
@@ -8421,7 +8463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="2:31">
+    <row r="223" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C223" s="7">
         <v>28</v>
       </c>
@@ -8492,7 +8534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="2:31">
+    <row r="224" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B224" s="7"/>
       <c r="C224" s="5">
         <v>14</v>
@@ -8564,7 +8606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:24">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C225" s="5">
         <v>14</v>
       </c>
@@ -8635,7 +8677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="226" spans="1:24">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C226" s="7">
         <v>14</v>
       </c>
@@ -8706,7 +8748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:24">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B227" s="7"/>
       <c r="C227" s="5">
         <v>7</v>
@@ -8778,7 +8820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:24">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B228" s="7"/>
       <c r="C228" s="5">
         <v>7</v>
@@ -8850,7 +8892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:24">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B229" s="7"/>
       <c r="C229" s="11">
         <v>700</v>
@@ -8922,7 +8964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:24">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B230" s="7"/>
       <c r="C230" s="5">
         <v>350</v>
@@ -8994,7 +9036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="231" spans="1:24">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B231" s="7"/>
       <c r="C231" s="5">
         <v>350</v>
@@ -9066,7 +9108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:24">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B232" s="7"/>
       <c r="C232" s="5">
         <v>175</v>
@@ -9138,7 +9180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="233" spans="1:24">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B233" s="7"/>
       <c r="C233" s="5">
         <v>175</v>
@@ -9210,7 +9252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:24">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B234" s="7"/>
       <c r="C234" s="5">
         <v>84</v>
@@ -9282,7 +9324,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="235" spans="1:24">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B235" s="7"/>
       <c r="C235" s="5">
         <v>84</v>
@@ -9354,7 +9396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:24">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B236" s="7"/>
       <c r="C236" s="5">
         <v>42</v>
@@ -9426,7 +9468,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="237" spans="1:24">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="5">
@@ -9499,7 +9541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:24">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="5">
@@ -9572,7 +9614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:24">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="5">
@@ -9645,7 +9687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:24">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="5">
@@ -9718,7 +9760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:24">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7">
@@ -9791,7 +9833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:24">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7">
@@ -9864,7 +9906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:24">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7">
@@ -9937,7 +9979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:24">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7">
@@ -10010,7 +10052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:24">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7">
@@ -10083,7 +10125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:24">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7">
@@ -10156,7 +10198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:24">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7">
@@ -10229,7 +10271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:24">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7">
@@ -10302,7 +10344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:24">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7">
@@ -10375,7 +10417,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="250" spans="1:24">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7">
@@ -10448,7 +10490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="251" spans="1:24">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7">
@@ -10521,7 +10563,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="252" spans="1:24">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7">
@@ -10594,7 +10636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:24">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="5">
@@ -10667,7 +10709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:24">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="5">
@@ -10740,7 +10782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:24">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="5">
@@ -10813,7 +10855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:24">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="5">
@@ -10886,7 +10928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:24">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7">
@@ -10959,7 +11001,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:24">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7">
@@ -11032,7 +11074,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:24">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7">
@@ -11105,7 +11147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:24">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7">
@@ -11178,7 +11220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:24">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7">
@@ -11251,7 +11293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:24">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7">
@@ -11324,7 +11366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:24">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7">
@@ -11397,7 +11439,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:24">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7">
@@ -11470,7 +11512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:24">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7">
@@ -11543,7 +11585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:24">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7">
@@ -11616,7 +11658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:24">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7">
@@ -11689,7 +11731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:24">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7">
@@ -11762,18 +11804,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:24">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="T270" s="6"/>
     </row>
-    <row r="271" spans="1:24">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D271" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L277" s="8"/>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
         <v>35</v>
       </c>
@@ -11799,7 +11841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C280" s="5">
         <v>1760</v>
       </c>
@@ -11824,7 +11866,7 @@
         <v>1.5713369255150553</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C281" s="5">
         <v>1760</v>
       </c>
@@ -11849,7 +11891,7 @@
         <v>1.0603289487755319</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C282" s="5">
         <v>1760</v>
       </c>
@@ -11874,7 +11916,7 @@
         <v>4.5419770957398073</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C283" s="5">
         <v>1760</v>
       </c>
@@ -11899,7 +11941,7 @@
         <v>6.7599359127322316</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C284" s="5">
         <v>2048</v>
       </c>
@@ -11924,7 +11966,7 @@
         <v>1.4093060676044509</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C285" s="5">
         <v>2048</v>
       </c>
@@ -11949,7 +11991,7 @@
         <v>1.2677100661000944</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C286" s="5">
         <v>2048</v>
       </c>
@@ -11974,7 +12016,7 @@
         <v>2.9143709106697058</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C287" s="5">
         <v>2048</v>
       </c>
@@ -11999,7 +12041,7 @@
         <v>6.7504963419233182</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C288" s="5">
         <v>2560</v>
       </c>
@@ -12024,7 +12066,7 @@
         <v>1.3738286612522923</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C289" s="5">
         <v>2560</v>
       </c>
@@ -12049,7 +12091,7 @@
         <v>1.6128885813148786</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C290" s="5">
         <v>2560</v>
       </c>
@@ -12074,7 +12116,7 @@
         <v>3.6174210571699579</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C291" s="5">
         <v>2560</v>
       </c>
@@ -12099,7 +12141,7 @@
         <v>6.9381017117340615</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>42</v>
       </c>
@@ -12125,7 +12167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C296" s="5">
         <v>512</v>
       </c>
@@ -12150,7 +12192,7 @@
         <v>0.70551791421362486</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C297" s="5">
         <v>512</v>
       </c>
@@ -12175,7 +12217,7 @@
         <v>0.31732960090788725</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C298" s="5">
         <v>512</v>
       </c>
@@ -12200,7 +12242,7 @@
         <v>1.7233914740626604</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C299" s="5">
         <v>512</v>
       </c>
@@ -12225,7 +12267,7 @@
         <v>3.082630408819476</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C300" s="5">
         <v>1024</v>
       </c>
@@ -12250,7 +12292,7 @@
         <v>1.5384883998165977</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C301" s="5">
         <v>1024</v>
       </c>
@@ -12275,7 +12317,7 @@
         <v>0.68674645927138767</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C302" s="5">
         <v>1024</v>
       </c>
@@ -12300,7 +12342,7 @@
         <v>4.3704893520026049</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C303" s="5">
         <v>1024</v>
       </c>
@@ -12325,7 +12367,7 @@
         <v>6.0994195864576239</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C304" s="5">
         <v>2048</v>
       </c>
@@ -12350,7 +12392,7 @@
         <v>1.4568297840008682</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C305" s="5">
         <v>2048</v>
       </c>
@@ -12375,7 +12417,7 @@
         <v>1.416246997995146</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C306" s="5">
         <v>2048</v>
       </c>
@@ -12400,7 +12442,7 @@
         <v>2.739976074308462</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C307" s="5">
         <v>2048</v>
       </c>
@@ -12425,7 +12467,7 @@
         <v>8.6731972859450721</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C308" s="5">
         <v>4096</v>
       </c>
@@ -12450,7 +12492,7 @@
         <v>1.0894517177702467</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C309" s="5">
         <v>4096</v>
       </c>
@@ -12475,7 +12517,7 @@
         <v>2.4597205781962295</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C310" s="5">
         <v>4096</v>
       </c>
@@ -12500,7 +12542,7 @@
         <v>4.2892197415463285</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C311" s="5">
         <v>4096</v>
       </c>
@@ -12525,7 +12567,7 @@
         <v>6.6182311637080868</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C312" s="5">
         <v>1536</v>
       </c>
@@ -12550,7 +12592,7 @@
         <v>1.2258073063809061</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C313" s="5">
         <v>1536</v>
       </c>
@@ -12575,7 +12617,7 @@
         <v>1.5523279942428294</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C314" s="5">
         <v>1536</v>
       </c>
@@ -12600,7 +12642,7 @@
         <v>1.0399100826446281</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C315" s="5">
         <v>256</v>
       </c>
@@ -12625,7 +12667,7 @@
         <v>0.36303843046739753</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C316" s="5">
         <v>256</v>
       </c>
@@ -12650,7 +12692,7 @@
         <v>0.17540826653655817</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C317" s="5">
         <v>256</v>
       </c>
@@ -12675,15 +12717,15 @@
         <v>0.62765491956603059</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G318" s="6"/>
       <c r="H318" s="6"/>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G319" s="6"/>
       <c r="H319" s="6"/>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
         <v>64</v>
       </c>
@@ -12709,7 +12751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="321" spans="3:10">
+    <row r="321" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C321" s="5">
         <v>2816</v>
       </c>
@@ -12734,7 +12776,7 @@
         <v>1.882635302031348</v>
       </c>
     </row>
-    <row r="322" spans="3:10">
+    <row r="322" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C322" s="5">
         <v>2816</v>
       </c>
@@ -12759,7 +12801,7 @@
         <v>1.8782658951170645</v>
       </c>
     </row>
-    <row r="323" spans="3:10">
+    <row r="323" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C323" s="5">
         <v>2816</v>
       </c>
@@ -12784,7 +12826,7 @@
         <v>1.8763276994718872</v>
       </c>
     </row>
-    <row r="324" spans="3:10">
+    <row r="324" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C324" s="5">
         <v>2816</v>
       </c>
@@ -12809,7 +12851,7 @@
         <v>1.8707278199140569</v>
       </c>
     </row>
-    <row r="325" spans="3:10">
+    <row r="325" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C325" s="5">
         <v>2048</v>
       </c>
@@ -12834,7 +12876,7 @@
         <v>1.3943926362521903</v>
       </c>
     </row>
-    <row r="326" spans="3:10">
+    <row r="326" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C326" s="5">
         <v>2048</v>
       </c>
@@ -12859,7 +12901,7 @@
         <v>1.398593431022026</v>
       </c>
     </row>
-    <row r="327" spans="3:10">
+    <row r="327" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C327" s="5">
         <v>2048</v>
       </c>
@@ -12884,7 +12926,7 @@
         <v>1.3884975585533395</v>
       </c>
     </row>
-    <row r="328" spans="3:10">
+    <row r="328" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C328" s="5">
         <v>2048</v>
       </c>
@@ -12909,7 +12951,7 @@
         <v>1.383560791738635</v>
       </c>
     </row>
-    <row r="329" spans="3:10">
+    <row r="329" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C329" s="5">
         <v>1536</v>
       </c>
@@ -12934,7 +12976,7 @@
         <v>1.0460544921039101</v>
       </c>
     </row>
-    <row r="330" spans="3:10">
+    <row r="330" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C330" s="5">
         <v>1536</v>
       </c>
@@ -12959,7 +13001,7 @@
         <v>1.0463412218348467</v>
       </c>
     </row>
-    <row r="331" spans="3:10">
+    <row r="331" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C331" s="5">
         <v>1536</v>
       </c>
@@ -12984,7 +13026,7 @@
         <v>1.040936043483323</v>
       </c>
     </row>
-    <row r="332" spans="3:10">
+    <row r="332" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C332" s="5">
         <v>1536</v>
       </c>
@@ -13009,7 +13051,7 @@
         <v>1.0276001550835223</v>
       </c>
     </row>
-    <row r="333" spans="3:10">
+    <row r="333" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C333" s="5">
         <v>2560</v>
       </c>
@@ -13034,7 +13076,7 @@
         <v>1.725399369054029</v>
       </c>
     </row>
-    <row r="334" spans="3:10">
+    <row r="334" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C334" s="5">
         <v>2560</v>
       </c>
@@ -13059,7 +13101,7 @@
         <v>1.7204656123239599</v>
       </c>
     </row>
-    <row r="335" spans="3:10">
+    <row r="335" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C335" s="5">
         <v>2560</v>
       </c>
@@ -13084,7 +13126,7 @@
         <v>1.7175879616485032</v>
       </c>
     </row>
-    <row r="336" spans="3:10">
+    <row r="336" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C336" s="5">
         <v>2560</v>
       </c>
@@ -13109,7 +13151,7 @@
         <v>1.7126586145906875</v>
       </c>
     </row>
-    <row r="337" spans="3:10">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C337" s="5">
         <v>512</v>
       </c>
@@ -13134,7 +13176,7 @@
         <v>0.30690029268292685</v>
       </c>
     </row>
-    <row r="338" spans="3:10">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C338" s="5">
         <v>1024</v>
       </c>
@@ -13159,7 +13201,7 @@
         <v>0.68520694850338526</v>
       </c>
     </row>
-    <row r="339" spans="3:10">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C339" s="5">
         <v>1024</v>
       </c>
@@ -13184,14 +13226,885 @@
         <v>3.8577427361509424</v>
       </c>
     </row>
+    <row r="340" spans="1:15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" spans="1:15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" spans="1:15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" spans="1:15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L344" s="12">
+        <f>1000/(SUM(U180:U215))</f>
+        <v>2.8057013201305985</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I346" s="12"/>
+    </row>
+    <row r="347" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G347" s="13"/>
+      <c r="H347" s="13"/>
+      <c r="I347" s="13"/>
+      <c r="K347" s="13"/>
+    </row>
+    <row r="348" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>69</v>
+      </c>
+      <c r="C348" t="s">
+        <v>70</v>
+      </c>
+      <c r="D348" t="s">
+        <v>71</v>
+      </c>
+      <c r="G348" t="s">
+        <v>72</v>
+      </c>
+      <c r="I348" t="s">
+        <v>73</v>
+      </c>
+      <c r="J348" t="s">
+        <v>74</v>
+      </c>
+      <c r="K348" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C350">
+        <v>100000</v>
+      </c>
+      <c r="D350">
+        <v>2</v>
+      </c>
+      <c r="G350" s="13">
+        <v>6.2329095000000001E-2</v>
+      </c>
+      <c r="H350" s="13"/>
+      <c r="I350" s="13">
+        <v>12.835097316911146</v>
+      </c>
+      <c r="J350" t="s">
+        <v>76</v>
+      </c>
+      <c r="K350" s="13">
+        <v>2.771354371816102E-3</v>
+      </c>
+      <c r="L350" s="14"/>
+      <c r="N350" s="13"/>
+      <c r="O350" s="13"/>
+    </row>
+    <row r="351" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C351">
+        <v>100000</v>
+      </c>
+      <c r="D351">
+        <v>4</v>
+      </c>
+      <c r="G351" s="13">
+        <v>9.1073990000000007E-2</v>
+      </c>
+      <c r="H351" s="13"/>
+      <c r="I351" s="13">
+        <v>17.568133338618413</v>
+      </c>
+      <c r="J351" t="s">
+        <v>76</v>
+      </c>
+      <c r="K351" s="13">
+        <v>3.1081657181485163E-3</v>
+      </c>
+      <c r="L351" s="14"/>
+      <c r="N351" s="13"/>
+      <c r="O351" s="13"/>
+    </row>
+    <row r="352" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C352">
+        <v>100000</v>
+      </c>
+      <c r="D352">
+        <v>8</v>
+      </c>
+      <c r="G352" s="13">
+        <v>0.1480535</v>
+      </c>
+      <c r="H352" s="13"/>
+      <c r="I352" s="13">
+        <v>21.613808521919442</v>
+      </c>
+      <c r="J352" t="s">
+        <v>76</v>
+      </c>
+      <c r="K352" s="13">
+        <v>2.7382020897316023E-3</v>
+      </c>
+      <c r="L352" s="14"/>
+      <c r="N352" s="13"/>
+      <c r="O352" s="13"/>
+    </row>
+    <row r="353" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C353">
+        <v>100000</v>
+      </c>
+      <c r="D353">
+        <v>16</v>
+      </c>
+      <c r="E353">
+        <v>2</v>
+      </c>
+      <c r="G353" s="13">
+        <v>0.50460349999999987</v>
+      </c>
+      <c r="H353" s="13"/>
+      <c r="I353" s="13">
+        <v>12.683225542430842</v>
+      </c>
+      <c r="J353" t="s">
+        <v>76</v>
+      </c>
+      <c r="K353" s="13">
+        <v>1.4179616806863056E-2</v>
+      </c>
+      <c r="L353" s="14"/>
+    </row>
+    <row r="354" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C354">
+        <v>100000</v>
+      </c>
+      <c r="D354">
+        <v>32</v>
+      </c>
+      <c r="E354">
+        <v>4</v>
+      </c>
+      <c r="G354" s="13">
+        <v>0.81057659999999987</v>
+      </c>
+      <c r="H354" s="13"/>
+      <c r="I354" s="13">
+        <v>15.79122812082165</v>
+      </c>
+      <c r="J354" t="s">
+        <v>77</v>
+      </c>
+      <c r="K354" s="13">
+        <v>2.8936258206434941E-2</v>
+      </c>
+      <c r="L354" s="14"/>
+    </row>
+    <row r="355" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C355">
+        <v>3097600</v>
+      </c>
+      <c r="D355">
+        <v>2</v>
+      </c>
+      <c r="G355" s="13">
+        <v>1.0442000000000005</v>
+      </c>
+      <c r="H355" s="13"/>
+      <c r="I355" s="13">
+        <v>23.731852135606193</v>
+      </c>
+      <c r="J355" t="s">
+        <v>78</v>
+      </c>
+      <c r="K355" s="13">
+        <v>3.4120529396769019E-3</v>
+      </c>
+      <c r="L355" s="14"/>
+      <c r="N355" s="13"/>
+      <c r="O355" s="13"/>
+    </row>
+    <row r="356" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C356">
+        <v>3097600</v>
+      </c>
+      <c r="D356">
+        <v>4</v>
+      </c>
+      <c r="G356" s="13">
+        <v>1.7197500000000001</v>
+      </c>
+      <c r="H356" s="13"/>
+      <c r="I356" s="13">
+        <v>28.819072539613313</v>
+      </c>
+      <c r="J356" t="s">
+        <v>78</v>
+      </c>
+      <c r="K356" s="13">
+        <v>2.1974866025578255E-3</v>
+      </c>
+      <c r="L356" s="14"/>
+      <c r="N356" s="13"/>
+      <c r="O356" s="13"/>
+    </row>
+    <row r="357" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C357">
+        <v>3097600</v>
+      </c>
+      <c r="D357">
+        <v>8</v>
+      </c>
+      <c r="G357" s="13">
+        <v>2.5057269999999994</v>
+      </c>
+      <c r="H357" s="13"/>
+      <c r="I357" s="13">
+        <v>39.558659023908042</v>
+      </c>
+      <c r="J357" t="s">
+        <v>76</v>
+      </c>
+      <c r="K357" s="13">
+        <v>5.0596776473147715E-3</v>
+      </c>
+      <c r="L357" s="14"/>
+      <c r="N357" s="13"/>
+      <c r="O357" s="13"/>
+    </row>
+    <row r="358" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C358">
+        <v>3097600</v>
+      </c>
+      <c r="D358">
+        <v>16</v>
+      </c>
+      <c r="E358">
+        <v>2</v>
+      </c>
+      <c r="G358" s="13">
+        <v>4.4925680000000003</v>
+      </c>
+      <c r="H358" s="13"/>
+      <c r="I358" s="13">
+        <v>44.12763479595634</v>
+      </c>
+      <c r="J358" t="s">
+        <v>76</v>
+      </c>
+      <c r="K358" s="13">
+        <v>0.13407438703550872</v>
+      </c>
+      <c r="L358" s="14"/>
+    </row>
+    <row r="359" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C359">
+        <v>3097600</v>
+      </c>
+      <c r="D359">
+        <v>32</v>
+      </c>
+      <c r="E359">
+        <v>4</v>
+      </c>
+      <c r="G359" s="13">
+        <v>4.6311319999999991</v>
+      </c>
+      <c r="H359" s="13"/>
+      <c r="I359" s="13">
+        <v>85.614661814865158</v>
+      </c>
+      <c r="J359" t="s">
+        <v>76</v>
+      </c>
+      <c r="K359" s="13">
+        <v>9.5564268900705421E-2</v>
+      </c>
+      <c r="L359" s="14"/>
+    </row>
+    <row r="360" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C360">
+        <v>4194304</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
+      </c>
+      <c r="G360" s="13">
+        <v>1.3991499999999999</v>
+      </c>
+      <c r="H360" s="13"/>
+      <c r="I360" s="13">
+        <v>23.982011935818178</v>
+      </c>
+      <c r="J360" t="s">
+        <v>78</v>
+      </c>
+      <c r="K360" s="13">
+        <v>3.3130523372675203E-3</v>
+      </c>
+      <c r="L360" s="14"/>
+      <c r="N360" s="13"/>
+      <c r="O360" s="13"/>
+    </row>
+    <row r="361" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C361">
+        <v>4194304</v>
+      </c>
+      <c r="D361">
+        <v>4</v>
+      </c>
+      <c r="G361" s="13">
+        <v>2.3129999999999997</v>
+      </c>
+      <c r="H361" s="13"/>
+      <c r="I361" s="13">
+        <v>29.01377604842197</v>
+      </c>
+      <c r="J361" t="s">
+        <v>78</v>
+      </c>
+      <c r="K361" s="13">
+        <v>2.3169853371637567E-3</v>
+      </c>
+      <c r="L361" s="14"/>
+      <c r="N361" s="13"/>
+      <c r="O361" s="13"/>
+    </row>
+    <row r="362" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C362">
+        <v>4194304</v>
+      </c>
+      <c r="D362">
+        <v>8</v>
+      </c>
+      <c r="G362" s="13">
+        <v>3.3981140000000005</v>
+      </c>
+      <c r="H362" s="13"/>
+      <c r="I362" s="13">
+        <v>39.497711966108255</v>
+      </c>
+      <c r="J362" t="s">
+        <v>76</v>
+      </c>
+      <c r="K362" s="13">
+        <v>1.786874366036955E-3</v>
+      </c>
+      <c r="L362" s="14"/>
+      <c r="N362" s="13"/>
+      <c r="O362" s="13"/>
+    </row>
+    <row r="363" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C363">
+        <v>4194304</v>
+      </c>
+      <c r="D363">
+        <v>16</v>
+      </c>
+      <c r="E363">
+        <v>2</v>
+      </c>
+      <c r="G363" s="13">
+        <v>5.9755724999999993</v>
+      </c>
+      <c r="H363" s="13"/>
+      <c r="I363" s="13">
+        <v>44.922131896148869</v>
+      </c>
+      <c r="J363" t="s">
+        <v>76</v>
+      </c>
+      <c r="K363" s="13">
+        <v>7.6055643584500903E-3</v>
+      </c>
+      <c r="L363" s="14"/>
+    </row>
+    <row r="364" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C364">
+        <v>4194304</v>
+      </c>
+      <c r="D364">
+        <v>32</v>
+      </c>
+      <c r="E364">
+        <v>4</v>
+      </c>
+      <c r="G364" s="13">
+        <v>6.042124499999999</v>
+      </c>
+      <c r="H364" s="13"/>
+      <c r="I364" s="13">
+        <v>88.854658986255586</v>
+      </c>
+      <c r="J364" t="s">
+        <v>76</v>
+      </c>
+      <c r="K364" s="13">
+        <v>0.19492017565835568</v>
+      </c>
+      <c r="L364" s="14"/>
+    </row>
+    <row r="365" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C365">
+        <v>6553600</v>
+      </c>
+      <c r="D365">
+        <v>2</v>
+      </c>
+      <c r="G365" s="13">
+        <v>2.1757000000000004</v>
+      </c>
+      <c r="H365" s="13"/>
+      <c r="I365" s="13">
+        <v>24.097439904398577</v>
+      </c>
+      <c r="J365" t="s">
+        <v>78</v>
+      </c>
+      <c r="K365" s="13">
+        <v>1.8945906376340066E-3</v>
+      </c>
+      <c r="L365" s="14"/>
+      <c r="N365" s="13"/>
+      <c r="O365" s="13"/>
+    </row>
+    <row r="366" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C366">
+        <v>6553600</v>
+      </c>
+      <c r="D366">
+        <v>4</v>
+      </c>
+      <c r="G366" s="13">
+        <v>3.5747500000000003</v>
+      </c>
+      <c r="H366" s="13"/>
+      <c r="I366" s="13">
+        <v>29.332848450940624</v>
+      </c>
+      <c r="J366" t="s">
+        <v>78</v>
+      </c>
+      <c r="K366" s="13">
+        <v>3.1434978841042975E-3</v>
+      </c>
+      <c r="L366" s="14"/>
+      <c r="N366" s="13"/>
+      <c r="O366" s="13"/>
+    </row>
+    <row r="367" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C367">
+        <v>6553600</v>
+      </c>
+      <c r="D367">
+        <v>8</v>
+      </c>
+      <c r="G367" s="13">
+        <v>5.3133999999999997</v>
+      </c>
+      <c r="H367" s="13"/>
+      <c r="I367" s="13">
+        <v>39.469115820378669</v>
+      </c>
+      <c r="J367" t="s">
+        <v>78</v>
+      </c>
+      <c r="K367" s="13">
+        <v>4.977845655343466E-3</v>
+      </c>
+      <c r="L367" s="14"/>
+      <c r="N367" s="13"/>
+      <c r="O367" s="13"/>
+    </row>
+    <row r="368" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C368">
+        <v>6553600</v>
+      </c>
+      <c r="D368">
+        <v>16</v>
+      </c>
+      <c r="E368">
+        <v>2</v>
+      </c>
+      <c r="G368" s="13">
+        <v>9.2212789999999973</v>
+      </c>
+      <c r="H368" s="13"/>
+      <c r="I368" s="13">
+        <v>45.485056899373731</v>
+      </c>
+      <c r="J368" t="s">
+        <v>76</v>
+      </c>
+      <c r="K368" s="13">
+        <v>8.1828182637063429E-3</v>
+      </c>
+      <c r="L368" s="14"/>
+    </row>
+    <row r="369" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C369">
+        <v>6553600</v>
+      </c>
+      <c r="D369">
+        <v>32</v>
+      </c>
+      <c r="E369">
+        <v>4</v>
+      </c>
+      <c r="G369" s="13">
+        <v>11.044095</v>
+      </c>
+      <c r="H369" s="13"/>
+      <c r="I369" s="13">
+        <v>75.955594369660886</v>
+      </c>
+      <c r="J369" t="s">
+        <v>76</v>
+      </c>
+      <c r="K369" s="13">
+        <v>0.34646444410114541</v>
+      </c>
+      <c r="L369" s="14"/>
+    </row>
+    <row r="370" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C370">
+        <v>16777216</v>
+      </c>
+      <c r="D370">
+        <v>2</v>
+      </c>
+      <c r="G370" s="13">
+        <v>5.5324500000000016</v>
+      </c>
+      <c r="H370" s="13"/>
+      <c r="I370" s="13">
+        <v>24.260088749107531</v>
+      </c>
+      <c r="J370" t="s">
+        <v>78</v>
+      </c>
+      <c r="K370" s="13">
+        <v>3.4101242453056131E-3</v>
+      </c>
+      <c r="L370" s="14"/>
+      <c r="N370" s="13"/>
+      <c r="O370" s="13"/>
+    </row>
+    <row r="371" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C371">
+        <v>16777216</v>
+      </c>
+      <c r="D371">
+        <v>4</v>
+      </c>
+      <c r="G371" s="13">
+        <v>9.1451000000000011</v>
+      </c>
+      <c r="H371" s="13"/>
+      <c r="I371" s="13">
+        <v>29.352927360006991</v>
+      </c>
+      <c r="J371" t="s">
+        <v>78</v>
+      </c>
+      <c r="K371" s="13">
+        <v>6.0341135484666842E-3</v>
+      </c>
+      <c r="L371" s="14"/>
+      <c r="N371" s="13"/>
+      <c r="O371" s="13"/>
+    </row>
+    <row r="372" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C372">
+        <v>16777216</v>
+      </c>
+      <c r="D372">
+        <v>8</v>
+      </c>
+      <c r="G372" s="13">
+        <v>13.563550000000001</v>
+      </c>
+      <c r="H372" s="13"/>
+      <c r="I372" s="13">
+        <v>39.581887632662536</v>
+      </c>
+      <c r="J372" t="s">
+        <v>78</v>
+      </c>
+      <c r="K372" s="13">
+        <v>8.720665112249169E-3</v>
+      </c>
+      <c r="L372" s="14"/>
+      <c r="N372" s="13"/>
+      <c r="O372" s="13"/>
+    </row>
+    <row r="373" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C373">
+        <v>16777216</v>
+      </c>
+      <c r="D373">
+        <v>16</v>
+      </c>
+      <c r="E373">
+        <v>2</v>
+      </c>
+      <c r="G373" s="13">
+        <v>56.937165000000007</v>
+      </c>
+      <c r="H373" s="13"/>
+      <c r="I373" s="13">
+        <v>18.858364725395088</v>
+      </c>
+      <c r="J373" t="s">
+        <v>79</v>
+      </c>
+      <c r="K373" s="13">
+        <v>0.53443442340576508</v>
+      </c>
+      <c r="L373" s="14"/>
+    </row>
+    <row r="374" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C374">
+        <v>16777216</v>
+      </c>
+      <c r="D374">
+        <v>32</v>
+      </c>
+      <c r="E374">
+        <v>4</v>
+      </c>
+      <c r="G374" s="13">
+        <v>62.94492000000001</v>
+      </c>
+      <c r="H374" s="13"/>
+      <c r="I374" s="13">
+        <v>34.116869923736488</v>
+      </c>
+      <c r="J374" t="s">
+        <v>79</v>
+      </c>
+      <c r="K374" s="13">
+        <v>0.40676579786873596</v>
+      </c>
+      <c r="L374" s="14"/>
+    </row>
+    <row r="375" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C375">
+        <v>38360000</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
+      </c>
+      <c r="G375" s="13">
+        <v>12.584</v>
+      </c>
+      <c r="H375" s="13"/>
+      <c r="I375" s="13">
+        <v>24.386522568340752</v>
+      </c>
+      <c r="J375" t="s">
+        <v>78</v>
+      </c>
+      <c r="K375" s="13">
+        <v>7.5253956007218402E-3</v>
+      </c>
+    </row>
+    <row r="376" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C376">
+        <v>38360000</v>
+      </c>
+      <c r="D376">
+        <v>4</v>
+      </c>
+      <c r="G376" s="13">
+        <v>20.795300000000001</v>
+      </c>
+      <c r="H376" s="13"/>
+      <c r="I376" s="13">
+        <v>29.51436141820507</v>
+      </c>
+      <c r="J376" t="s">
+        <v>78</v>
+      </c>
+      <c r="K376" s="13">
+        <v>1.4455375980472994E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C377">
+        <v>38360000</v>
+      </c>
+      <c r="D377">
+        <v>8</v>
+      </c>
+      <c r="G377" s="13">
+        <v>30.862099999999998</v>
+      </c>
+      <c r="H377" s="13"/>
+      <c r="I377" s="13">
+        <v>39.774351064898376</v>
+      </c>
+      <c r="J377" t="s">
+        <v>78</v>
+      </c>
+      <c r="K377" s="13">
+        <v>1.0036250086036608E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C378">
+        <v>38360000</v>
+      </c>
+      <c r="D378">
+        <v>16</v>
+      </c>
+      <c r="E378">
+        <v>2</v>
+      </c>
+      <c r="G378" s="13">
+        <v>53.914064999999979</v>
+      </c>
+      <c r="H378" s="13"/>
+      <c r="I378" s="13">
+        <v>45.536169457821465</v>
+      </c>
+      <c r="J378" t="s">
+        <v>76</v>
+      </c>
+      <c r="K378" s="13">
+        <v>4.3722356981296812E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C379">
+        <v>38360000</v>
+      </c>
+      <c r="D379">
+        <v>32</v>
+      </c>
+      <c r="E379">
+        <v>4</v>
+      </c>
+      <c r="G379" s="13">
+        <v>92.531665000000004</v>
+      </c>
+      <c r="H379" s="13"/>
+      <c r="I379" s="13">
+        <v>53.063780922995392</v>
+      </c>
+      <c r="J379" t="s">
+        <v>76</v>
+      </c>
+      <c r="K379" s="13">
+        <v>2.0521634074351365</v>
+      </c>
+    </row>
+    <row r="380" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C380">
+        <v>64500000</v>
+      </c>
+      <c r="D380">
+        <v>2</v>
+      </c>
+      <c r="G380" s="13">
+        <v>21.135300000000001</v>
+      </c>
+      <c r="H380" s="13"/>
+      <c r="I380" s="13">
+        <v>24.414131807923237</v>
+      </c>
+      <c r="J380" t="s">
+        <v>78</v>
+      </c>
+      <c r="K380" s="13">
+        <v>1.1580837166357418E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C381">
+        <v>64500000</v>
+      </c>
+      <c r="D381">
+        <v>4</v>
+      </c>
+      <c r="G381" s="13">
+        <v>35.105649999999997</v>
+      </c>
+      <c r="H381" s="13"/>
+      <c r="I381" s="13">
+        <v>29.396977409619254</v>
+      </c>
+      <c r="J381" t="s">
+        <v>78</v>
+      </c>
+      <c r="K381" s="13">
+        <v>2.0194514627804788E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C382">
+        <v>64500000</v>
+      </c>
+      <c r="D382">
+        <v>8</v>
+      </c>
+      <c r="G382" s="13">
+        <v>51.816849999999988</v>
+      </c>
+      <c r="H382" s="13"/>
+      <c r="I382" s="13">
+        <v>39.83260271513997</v>
+      </c>
+      <c r="J382" t="s">
+        <v>78</v>
+      </c>
+      <c r="K382" s="13">
+        <v>2.4471842035931668E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C383">
+        <v>64500000</v>
+      </c>
+      <c r="D383">
+        <v>16</v>
+      </c>
+      <c r="E383">
+        <v>2</v>
+      </c>
+      <c r="G383" s="13">
+        <v>90.647529999999989</v>
+      </c>
+      <c r="H383" s="13"/>
+      <c r="I383" s="13">
+        <v>45.539023512278831</v>
+      </c>
+      <c r="J383" t="s">
+        <v>76</v>
+      </c>
+      <c r="K383" s="13">
+        <v>7.679382582089879E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="3:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C384">
+        <v>64500000</v>
+      </c>
+      <c r="D384">
+        <v>32</v>
+      </c>
+      <c r="E384">
+        <v>4</v>
+      </c>
+      <c r="G384" s="13">
+        <v>132.04199999999997</v>
+      </c>
+      <c r="H384" s="13"/>
+      <c r="I384" s="13">
+        <v>62.52556004907531</v>
+      </c>
+      <c r="J384" t="s">
+        <v>79</v>
+      </c>
+      <c r="K384" s="13">
+        <v>0.28406578185528109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13203,9 +14116,9 @@
       <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -13213,7 +14126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -13221,7 +14134,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -13229,7 +14142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -13237,7 +14150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
@@ -13245,13 +14158,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
@@ -13259,7 +14172,7 @@
         <v>375.66</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -13267,7 +14180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -13275,19 +14188,19 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
@@ -13295,10 +14208,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/results/train/DeepBench_NV_1080Ti.xlsx
+++ b/results/train/DeepBench_NV_1080Ti.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patwarymostofa/Documents/mostofa/deepbench-internal/DeepBench-internal/results/train/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharan/Desktop/svail_mnt/DeepBench-ext/results/train/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{226F128F-7D3F-894E-A0BC-08A1B326DC20}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="460" windowWidth="26160" windowHeight="19280" tabRatio="500"/>
+    <workbookView xWindow="6240" yWindow="460" windowWidth="29840" windowHeight="20080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="3" r:id="rId1"/>
     <sheet name="Specs" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="88">
   <si>
     <t>Dense Matrix Multiplication</t>
   </si>
@@ -147,9 +148,6 @@
     <t>Time Forward (msec)</t>
   </si>
   <si>
-    <t>Time Backward (msec)</t>
-  </si>
-  <si>
     <t>TERAFLOPS FWD</t>
   </si>
   <si>
@@ -160,9 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">Time Forward (msec) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Backward (msec) </t>
   </si>
   <si>
     <t>CPU Model</t>
@@ -269,11 +264,41 @@
   <si>
     <t>Baidu RingAllReduce</t>
   </si>
+  <si>
+    <t>Time Backward wrt inputs (msec)</t>
+  </si>
+  <si>
+    <t>Time Backward wrt weights (msec)</t>
+  </si>
+  <si>
+    <t>TERAFLOPS BWD Inputs</t>
+  </si>
+  <si>
+    <t>TERAFLOPS BWD Params</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>DeepSpeech</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Machine Translation</t>
+  </si>
+  <si>
+    <t>Language Modelling</t>
+  </si>
+  <si>
+    <t>Speaker ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -333,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -371,6 +396,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,11 +677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="B370" sqref="B370"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,10 +692,10 @@
     <col min="5" max="6" width="11" style="5"/>
     <col min="7" max="7" width="22.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" style="5" customWidth="1"/>
     <col min="10" max="10" width="20" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="23" style="5" customWidth="1"/>
     <col min="13" max="13" width="18" style="5" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" style="5" customWidth="1"/>
     <col min="15" max="19" width="11" style="5"/>
@@ -680,10 +707,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -9321,7 +9348,7 @@
         <v>21.898438011049727</v>
       </c>
       <c r="X234" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="235" spans="1:24" x14ac:dyDescent="0.2">
@@ -9465,7 +9492,7 @@
         <v>20.457379509677423</v>
       </c>
       <c r="X236" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="237" spans="1:24" x14ac:dyDescent="0.2">
@@ -10487,7 +10514,7 @@
         <v>3.2112639999999999</v>
       </c>
       <c r="X250" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="251" spans="1:24" x14ac:dyDescent="0.2">
@@ -10560,7 +10587,7 @@
         <v>3.2557765702970296</v>
       </c>
       <c r="X251" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.2">
@@ -11812,1418 +11839,2385 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L277" s="8"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A278" s="5" t="s">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A278" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C278" s="5" t="s">
+      <c r="B278" s="15"/>
+      <c r="C278" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D278" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E278" s="5" t="s">
+      <c r="D278" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E278" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G278" s="5" t="s">
+      <c r="F278" s="15"/>
+      <c r="G278" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H278" s="5" t="s">
+      <c r="H278" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I278" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J278" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I278" s="5" t="s">
+      <c r="K278" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L278" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M278" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A279" s="15"/>
+      <c r="B279" s="15"/>
+      <c r="C279" s="15"/>
+      <c r="D279" s="15"/>
+      <c r="E279" s="15"/>
+      <c r="F279" s="15"/>
+      <c r="G279" s="15"/>
+      <c r="H279" s="15"/>
+      <c r="I279" s="15"/>
+      <c r="J279" s="15"/>
+      <c r="K279" s="15"/>
+      <c r="L279" s="15"/>
+      <c r="M279" s="15"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A280" s="15"/>
+      <c r="B280" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C280" s="15">
+        <v>1760</v>
+      </c>
+      <c r="D280" s="15">
+        <v>16</v>
+      </c>
+      <c r="E280" s="15">
+        <v>50</v>
+      </c>
+      <c r="F280" s="15"/>
+      <c r="G280" s="13">
+        <v>4.0789999999999997</v>
+      </c>
+      <c r="H280" s="13">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="I280" s="13">
+        <v>0.624</v>
+      </c>
+      <c r="J280" s="13">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
+        <v>1.2153880853150281</v>
+      </c>
+      <c r="K280" s="13">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(H280/1000)/10^12</f>
+        <v>1.3504679923726506</v>
+      </c>
+      <c r="L280" s="13">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(I280/1000)/10^12</f>
+        <v>7.9448205128205123</v>
+      </c>
+      <c r="M280" s="14">
+        <f>G280+H280+I280</f>
+        <v>8.3740000000000006</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A281" s="15"/>
+      <c r="B281" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C281" s="15">
+        <v>1760</v>
+      </c>
+      <c r="D281" s="15">
+        <v>32</v>
+      </c>
+      <c r="E281" s="15">
+        <v>50</v>
+      </c>
+      <c r="F281" s="15"/>
+      <c r="G281" s="13">
+        <v>10.529</v>
+      </c>
+      <c r="H281" s="13">
+        <v>9.93</v>
+      </c>
+      <c r="I281" s="13">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="J281" s="13">
+        <f t="shared" ref="J281:L291" si="29">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
+        <v>0.94169778706429863</v>
+      </c>
+      <c r="K281" s="13">
+        <f t="shared" si="29"/>
+        <v>0.99850312185297085</v>
+      </c>
+      <c r="L281" s="13">
+        <f t="shared" si="29"/>
+        <v>9.3362862523540482</v>
+      </c>
+      <c r="M281" s="14">
+        <f t="shared" ref="M281:M291" si="30">G281+H281+I281</f>
+        <v>21.521000000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A282" s="15"/>
+      <c r="B282" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C282" s="15">
+        <v>1760</v>
+      </c>
+      <c r="D282" s="15">
+        <v>64</v>
+      </c>
+      <c r="E282" s="15">
+        <v>50</v>
+      </c>
+      <c r="F282" s="15"/>
+      <c r="G282" s="13">
+        <v>5.7629999999999999</v>
+      </c>
+      <c r="H282" s="13">
+        <v>5.2110000000000003</v>
+      </c>
+      <c r="I282" s="13">
+        <v>1.9510000000000001</v>
+      </c>
+      <c r="J282" s="13">
+        <f t="shared" si="29"/>
+        <v>3.4409633871247611</v>
+      </c>
+      <c r="K282" s="13">
+        <f t="shared" si="29"/>
+        <v>3.8054638265208212</v>
+      </c>
+      <c r="L282" s="13">
+        <f t="shared" si="29"/>
+        <v>10.164157867760123</v>
+      </c>
+      <c r="M282" s="14">
+        <f t="shared" si="30"/>
+        <v>12.925000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A283" s="15"/>
+      <c r="B283" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C283" s="15">
+        <v>1760</v>
+      </c>
+      <c r="D283" s="15">
+        <v>128</v>
+      </c>
+      <c r="E283" s="15">
+        <v>50</v>
+      </c>
+      <c r="F283" s="15"/>
+      <c r="G283" s="13">
+        <v>6.58</v>
+      </c>
+      <c r="H283" s="13">
+        <v>6.2279999999999998</v>
+      </c>
+      <c r="I283" s="13">
+        <v>3.8929999999999998</v>
+      </c>
+      <c r="J283" s="13">
+        <f t="shared" si="29"/>
+        <v>6.0274382978723411</v>
+      </c>
+      <c r="K283" s="13">
+        <f t="shared" si="29"/>
+        <v>6.3681027617212589</v>
+      </c>
+      <c r="L283" s="13">
+        <f t="shared" si="29"/>
+        <v>10.187655792447984</v>
+      </c>
+      <c r="M283" s="14">
+        <f t="shared" si="30"/>
+        <v>16.701000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A284" s="15"/>
+      <c r="B284" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C284" s="15">
+        <v>2048</v>
+      </c>
+      <c r="D284" s="15">
+        <v>16</v>
+      </c>
+      <c r="E284" s="15">
+        <v>50</v>
+      </c>
+      <c r="F284" s="15"/>
+      <c r="G284" s="13">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="H284" s="13">
+        <v>5.7320000000000002</v>
+      </c>
+      <c r="I284" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="J284" s="13">
+        <f t="shared" si="29"/>
+        <v>1.0086438467317804</v>
+      </c>
+      <c r="K284" s="13">
+        <f t="shared" si="29"/>
+        <v>1.1710615491974878</v>
+      </c>
+      <c r="L284" s="13">
+        <f t="shared" si="29"/>
+        <v>8.6058010256410249</v>
+      </c>
+      <c r="M284" s="14">
+        <f t="shared" si="30"/>
+        <v>13.167</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A285" s="15"/>
+      <c r="B285" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C285" s="15">
+        <v>2048</v>
+      </c>
+      <c r="D285" s="15">
+        <v>32</v>
+      </c>
+      <c r="E285" s="15">
+        <v>50</v>
+      </c>
+      <c r="F285" s="15"/>
+      <c r="G285" s="13">
+        <v>11.954000000000001</v>
+      </c>
+      <c r="H285" s="13">
+        <v>11.215</v>
+      </c>
+      <c r="I285" s="13">
+        <v>1.351</v>
+      </c>
+      <c r="J285" s="13">
+        <f t="shared" si="29"/>
+        <v>1.123059193575372</v>
+      </c>
+      <c r="K285" s="13">
+        <f t="shared" si="29"/>
+        <v>1.1970619349086047</v>
+      </c>
+      <c r="L285" s="13">
+        <f t="shared" si="29"/>
+        <v>9.937120355292377</v>
+      </c>
+      <c r="M285" s="14">
+        <f t="shared" si="30"/>
+        <v>24.52</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A286" s="15"/>
+      <c r="B286" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C286" s="15">
+        <v>2048</v>
+      </c>
+      <c r="D286" s="15">
+        <v>64</v>
+      </c>
+      <c r="E286" s="15">
+        <v>50</v>
+      </c>
+      <c r="F286" s="15"/>
+      <c r="G286" s="13">
+        <v>10.64</v>
+      </c>
+      <c r="H286" s="13">
+        <v>9.8480000000000008</v>
+      </c>
+      <c r="I286" s="13">
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="J286" s="13">
+        <f t="shared" si="29"/>
+        <v>2.5235055639097745</v>
+      </c>
+      <c r="K286" s="13">
+        <f t="shared" si="29"/>
+        <v>2.7264519902518276</v>
+      </c>
+      <c r="L286" s="13">
+        <f t="shared" si="29"/>
+        <v>10.650574851249505</v>
+      </c>
+      <c r="M286" s="14">
+        <f t="shared" si="30"/>
+        <v>23.009</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A287" s="15"/>
+      <c r="B287" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C287" s="15">
+        <v>2048</v>
+      </c>
+      <c r="D287" s="15">
+        <v>128</v>
+      </c>
+      <c r="E287" s="15">
+        <v>50</v>
+      </c>
+      <c r="F287" s="15"/>
+      <c r="G287" s="13">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="H287" s="13">
+        <v>8.782</v>
+      </c>
+      <c r="I287" s="13">
+        <v>4.8609999999999998</v>
+      </c>
+      <c r="J287" s="13">
+        <f t="shared" si="29"/>
+        <v>5.9468658250276851</v>
+      </c>
+      <c r="K287" s="13">
+        <f t="shared" si="29"/>
+        <v>6.1148028239580965</v>
+      </c>
+      <c r="L287" s="13">
+        <f t="shared" si="29"/>
+        <v>11.047150462867723</v>
+      </c>
+      <c r="M287" s="14">
+        <f t="shared" si="30"/>
+        <v>22.672999999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A288" s="15"/>
+      <c r="B288" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C288" s="15">
+        <v>2560</v>
+      </c>
+      <c r="D288" s="15">
+        <v>16</v>
+      </c>
+      <c r="E288" s="15">
+        <v>50</v>
+      </c>
+      <c r="F288" s="15"/>
+      <c r="G288" s="13">
+        <v>10.359</v>
+      </c>
+      <c r="H288" s="13">
+        <v>9.1669999999999998</v>
+      </c>
+      <c r="I288" s="13">
+        <v>1.2230000000000001</v>
+      </c>
+      <c r="J288" s="13">
+        <f t="shared" si="29"/>
+        <v>1.0124344048653344</v>
+      </c>
+      <c r="K288" s="13">
+        <f t="shared" si="29"/>
+        <v>1.1440829060761428</v>
+      </c>
+      <c r="L288" s="13">
+        <f t="shared" si="29"/>
+        <v>8.5754766966475877</v>
+      </c>
+      <c r="M288" s="14">
+        <f t="shared" si="30"/>
+        <v>20.748999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A289" s="15"/>
+      <c r="B289" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C289" s="15">
+        <v>2560</v>
+      </c>
+      <c r="D289" s="15">
+        <v>32</v>
+      </c>
+      <c r="E289" s="15">
+        <v>50</v>
+      </c>
+      <c r="F289" s="15"/>
+      <c r="G289" s="13">
+        <v>14.692</v>
+      </c>
+      <c r="H289" s="13">
+        <v>13.946999999999999</v>
+      </c>
+      <c r="I289" s="13">
+        <v>2.169</v>
+      </c>
+      <c r="J289" s="13">
+        <f t="shared" si="29"/>
+        <v>1.4276896270078956</v>
+      </c>
+      <c r="K289" s="13">
+        <f t="shared" si="29"/>
+        <v>1.5039518175951818</v>
+      </c>
+      <c r="L289" s="13">
+        <f t="shared" si="29"/>
+        <v>9.670639004149379</v>
+      </c>
+      <c r="M289" s="14">
+        <f t="shared" si="30"/>
+        <v>30.808</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A290" s="15"/>
+      <c r="B290" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C290" s="15">
+        <v>2560</v>
+      </c>
+      <c r="D290" s="15">
+        <v>64</v>
+      </c>
+      <c r="E290" s="15">
+        <v>50</v>
+      </c>
+      <c r="F290" s="15"/>
+      <c r="G290" s="13">
+        <v>15.612</v>
+      </c>
+      <c r="H290" s="13">
+        <v>15.25</v>
+      </c>
+      <c r="I290" s="13">
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="J290" s="13">
+        <f t="shared" si="29"/>
+        <v>2.6871145272867021</v>
+      </c>
+      <c r="K290" s="13">
+        <f t="shared" si="29"/>
+        <v>2.7509004590163935</v>
+      </c>
+      <c r="L290" s="13">
+        <f t="shared" si="29"/>
+        <v>10.548461654513453</v>
+      </c>
+      <c r="M290" s="14">
+        <f t="shared" si="30"/>
+        <v>34.838999999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A291" s="15"/>
+      <c r="B291" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C291" s="15">
+        <v>2560</v>
+      </c>
+      <c r="D291" s="15">
+        <v>128</v>
+      </c>
+      <c r="E291" s="15">
+        <v>50</v>
+      </c>
+      <c r="F291" s="15"/>
+      <c r="G291" s="13">
+        <v>16.143000000000001</v>
+      </c>
+      <c r="H291" s="13">
+        <v>15.768000000000001</v>
+      </c>
+      <c r="I291" s="13">
+        <v>7.6980000000000004</v>
+      </c>
+      <c r="J291" s="13">
+        <f t="shared" si="29"/>
+        <v>5.1974517747630546</v>
+      </c>
+      <c r="K291" s="13">
+        <f t="shared" si="29"/>
+        <v>5.3210593607305938</v>
+      </c>
+      <c r="L291" s="13">
+        <f t="shared" si="29"/>
+        <v>10.899254871395168</v>
+      </c>
+      <c r="M291" s="14">
+        <f t="shared" si="30"/>
+        <v>39.609000000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A292" s="15"/>
+      <c r="B292" s="15"/>
+      <c r="C292" s="15"/>
+      <c r="D292" s="15"/>
+      <c r="E292" s="15"/>
+      <c r="F292" s="15"/>
+      <c r="G292" s="15"/>
+      <c r="H292" s="15"/>
+      <c r="I292" s="15"/>
+      <c r="J292" s="15"/>
+      <c r="K292" s="15"/>
+      <c r="L292" s="15"/>
+      <c r="M292" s="15"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A293" s="15"/>
+      <c r="B293" s="15"/>
+      <c r="C293" s="15"/>
+      <c r="D293" s="15"/>
+      <c r="E293" s="15"/>
+      <c r="F293" s="15"/>
+      <c r="G293" s="15"/>
+      <c r="H293" s="15"/>
+      <c r="I293" s="16"/>
+      <c r="J293" s="15"/>
+      <c r="K293" s="15"/>
+      <c r="L293" s="15"/>
+      <c r="M293" s="15"/>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A294" s="15"/>
+      <c r="B294" s="15"/>
+      <c r="C294" s="15"/>
+      <c r="D294" s="15"/>
+      <c r="E294" s="15"/>
+      <c r="F294" s="15"/>
+      <c r="G294" s="15"/>
+      <c r="H294" s="15"/>
+      <c r="I294" s="15"/>
+      <c r="J294" s="15"/>
+      <c r="K294" s="15"/>
+      <c r="L294" s="15"/>
+      <c r="M294" s="15"/>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A295" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B295" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D295" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E295" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F295" s="15"/>
+      <c r="G295" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H295" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I295" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J295" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K295" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J278" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C280" s="5">
-        <v>1760</v>
-      </c>
-      <c r="D280" s="5">
+      <c r="L295" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M295" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A296" s="15"/>
+      <c r="B296" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C296" s="15">
+        <v>512</v>
+      </c>
+      <c r="D296" s="15">
         <v>16</v>
       </c>
-      <c r="E280" s="5">
+      <c r="E296" s="15">
+        <v>25</v>
+      </c>
+      <c r="F296" s="15"/>
+      <c r="G296" s="13">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="H296" s="13">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="I296" s="13">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="J296" s="13">
+        <f>(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
+        <v>0.66629134233518661</v>
+      </c>
+      <c r="K296" s="13">
+        <f>(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
+        <v>0.57972411886662045</v>
+      </c>
+      <c r="L296" s="13">
+        <f>(8*$E296*$D296*$C296*$C296)/(I296/1000)/10^12</f>
+        <v>4.8210390804597703</v>
+      </c>
+      <c r="M296" s="14">
+        <f t="shared" ref="M296:M317" si="31">G296+H296+I296</f>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A297" s="15"/>
+      <c r="B297" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C297" s="15">
+        <v>512</v>
+      </c>
+      <c r="D297" s="15">
+        <v>32</v>
+      </c>
+      <c r="E297" s="15">
+        <v>25</v>
+      </c>
+      <c r="F297" s="15"/>
+      <c r="G297" s="13">
+        <v>2.3530000000000002</v>
+      </c>
+      <c r="H297" s="13">
+        <v>5.5640000000000001</v>
+      </c>
+      <c r="I297" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="J297" s="13">
+        <f t="shared" ref="J297:L317" si="32">(8*$E297*$D297*$C297*$C297)/(G297/1000)/10^12</f>
+        <v>0.71301385465363365</v>
+      </c>
+      <c r="K297" s="13">
+        <f t="shared" si="32"/>
+        <v>0.30153156002875631</v>
+      </c>
+      <c r="L297" s="13">
+        <f t="shared" si="32"/>
+        <v>6.2137837037037045</v>
+      </c>
+      <c r="M297" s="14">
+        <f t="shared" si="31"/>
+        <v>8.1869999999999994</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A298" s="15"/>
+      <c r="B298" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C298" s="15">
+        <v>512</v>
+      </c>
+      <c r="D298" s="15">
+        <v>64</v>
+      </c>
+      <c r="E298" s="15">
+        <v>25</v>
+      </c>
+      <c r="F298" s="15"/>
+      <c r="G298" s="13">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="H298" s="13">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="I298" s="13">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="J298" s="13">
+        <f t="shared" si="32"/>
+        <v>1.6344097418412078</v>
+      </c>
+      <c r="K298" s="13">
+        <f t="shared" si="32"/>
+        <v>1.5812644674835064</v>
+      </c>
+      <c r="L298" s="13">
+        <f t="shared" si="32"/>
+        <v>7.5403217977528083</v>
+      </c>
+      <c r="M298" s="14">
+        <f t="shared" si="31"/>
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A299" s="15"/>
+      <c r="B299" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C299" s="15">
+        <v>512</v>
+      </c>
+      <c r="D299" s="15">
+        <v>128</v>
+      </c>
+      <c r="E299" s="15">
+        <v>25</v>
+      </c>
+      <c r="F299" s="15"/>
+      <c r="G299" s="13">
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="H299" s="13">
+        <v>2.5129999999999999</v>
+      </c>
+      <c r="I299" s="13">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="J299" s="13">
+        <f t="shared" si="32"/>
+        <v>2.9215874619068352</v>
+      </c>
+      <c r="K299" s="13">
+        <f t="shared" si="32"/>
+        <v>2.6704681257461202</v>
+      </c>
+      <c r="L299" s="13">
+        <f t="shared" si="32"/>
+        <v>8.8768338624338607</v>
+      </c>
+      <c r="M299" s="14">
+        <f t="shared" si="31"/>
+        <v>5.5660000000000007</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A300" s="15"/>
+      <c r="B300" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C300" s="15">
+        <v>1024</v>
+      </c>
+      <c r="D300" s="15">
+        <v>16</v>
+      </c>
+      <c r="E300" s="15">
+        <v>25</v>
+      </c>
+      <c r="F300" s="15"/>
+      <c r="G300" s="13">
+        <v>4.0279999999999996</v>
+      </c>
+      <c r="H300" s="13">
+        <v>2.5470000000000002</v>
+      </c>
+      <c r="I300" s="13">
+        <v>0.53</v>
+      </c>
+      <c r="J300" s="13">
+        <f t="shared" si="32"/>
+        <v>0.83302959285004985</v>
+      </c>
+      <c r="K300" s="13">
+        <f t="shared" si="32"/>
+        <v>1.3174099725166863</v>
+      </c>
+      <c r="L300" s="13">
+        <f t="shared" si="32"/>
+        <v>6.331024905660378</v>
+      </c>
+      <c r="M300" s="14">
+        <f t="shared" si="31"/>
+        <v>7.1049999999999995</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A301" s="15"/>
+      <c r="B301" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C301" s="15">
+        <v>1024</v>
+      </c>
+      <c r="D301" s="15">
+        <v>32</v>
+      </c>
+      <c r="E301" s="15">
+        <v>25</v>
+      </c>
+      <c r="F301" s="15"/>
+      <c r="G301" s="13">
+        <v>3.9239999999999999</v>
+      </c>
+      <c r="H301" s="13">
+        <v>10.183999999999999</v>
+      </c>
+      <c r="I301" s="13">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J301" s="13">
+        <f t="shared" si="32"/>
+        <v>1.7102156982670746</v>
+      </c>
+      <c r="K301" s="13">
+        <f t="shared" si="32"/>
+        <v>0.65896370777690505</v>
+      </c>
+      <c r="L301" s="13">
+        <f t="shared" si="32"/>
+        <v>8.1344077575757581</v>
+      </c>
+      <c r="M301" s="14">
+        <f t="shared" si="31"/>
+        <v>14.932999999999998</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A302" s="15"/>
+      <c r="B302" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C302" s="15">
+        <v>1024</v>
+      </c>
+      <c r="D302" s="15">
+        <v>64</v>
+      </c>
+      <c r="E302" s="15">
+        <v>25</v>
+      </c>
+      <c r="F302" s="15"/>
+      <c r="G302" s="13">
+        <v>4.2629999999999999</v>
+      </c>
+      <c r="H302" s="13">
+        <v>3.3660000000000001</v>
+      </c>
+      <c r="I302" s="13">
+        <v>1.423</v>
+      </c>
+      <c r="J302" s="13">
+        <f t="shared" si="32"/>
+        <v>3.1484336851982166</v>
+      </c>
+      <c r="K302" s="13">
+        <f t="shared" si="32"/>
+        <v>3.9874547831253713</v>
+      </c>
+      <c r="L302" s="13">
+        <f t="shared" si="32"/>
+        <v>9.432025860857344</v>
+      </c>
+      <c r="M302" s="14">
+        <f t="shared" si="31"/>
+        <v>9.0519999999999996</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A303" s="15"/>
+      <c r="B303" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C303" s="15">
+        <v>1024</v>
+      </c>
+      <c r="D303" s="15">
+        <v>128</v>
+      </c>
+      <c r="E303" s="15">
+        <v>25</v>
+      </c>
+      <c r="F303" s="15"/>
+      <c r="G303" s="13">
+        <v>5.5410000000000004</v>
+      </c>
+      <c r="H303" s="13">
+        <v>4.641</v>
+      </c>
+      <c r="I303" s="13">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="J303" s="13">
+        <f t="shared" si="32"/>
+        <v>4.8445308789027246</v>
+      </c>
+      <c r="K303" s="13">
+        <f t="shared" si="32"/>
+        <v>5.7840003447532862</v>
+      </c>
+      <c r="L303" s="13">
+        <f t="shared" si="32"/>
+        <v>10.171862675255779</v>
+      </c>
+      <c r="M303" s="14">
+        <f t="shared" si="31"/>
+        <v>12.821</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A304" s="15"/>
+      <c r="B304" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C304" s="15">
+        <v>2048</v>
+      </c>
+      <c r="D304" s="15">
+        <v>16</v>
+      </c>
+      <c r="E304" s="15">
+        <v>25</v>
+      </c>
+      <c r="F304" s="15"/>
+      <c r="G304" s="13">
+        <v>20.018000000000001</v>
+      </c>
+      <c r="H304" s="13">
+        <v>9.5090000000000003</v>
+      </c>
+      <c r="I304" s="13">
+        <v>1.756</v>
+      </c>
+      <c r="J304" s="13">
+        <f t="shared" si="32"/>
+        <v>0.67048520331701467</v>
+      </c>
+      <c r="K304" s="13">
+        <f t="shared" si="32"/>
+        <v>1.4114809969502575</v>
+      </c>
+      <c r="L304" s="13">
+        <f t="shared" si="32"/>
+        <v>7.6433785876993161</v>
+      </c>
+      <c r="M304" s="14">
+        <f t="shared" si="31"/>
+        <v>31.283000000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A305" s="15"/>
+      <c r="B305" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C305" s="15">
+        <v>2048</v>
+      </c>
+      <c r="D305" s="15">
+        <v>32</v>
+      </c>
+      <c r="E305" s="15">
+        <v>25</v>
+      </c>
+      <c r="F305" s="15"/>
+      <c r="G305" s="13">
+        <v>7.8780000000000001</v>
+      </c>
+      <c r="H305" s="13">
+        <v>20.163</v>
+      </c>
+      <c r="I305" s="13">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="J305" s="13">
+        <f t="shared" si="32"/>
+        <v>3.4074061436912926</v>
+      </c>
+      <c r="K305" s="13">
+        <f t="shared" si="32"/>
+        <v>1.3313269652333481</v>
+      </c>
+      <c r="L305" s="13">
+        <f t="shared" si="32"/>
+        <v>9.502140035398229</v>
+      </c>
+      <c r="M305" s="14">
+        <f t="shared" si="31"/>
+        <v>30.866</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A306" s="15"/>
+      <c r="B306" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C306" s="15">
+        <v>2048</v>
+      </c>
+      <c r="D306" s="15">
+        <v>64</v>
+      </c>
+      <c r="E306" s="15">
+        <v>25</v>
+      </c>
+      <c r="F306" s="15"/>
+      <c r="G306" s="13">
+        <v>10.824</v>
+      </c>
+      <c r="H306" s="13">
+        <v>21.058</v>
+      </c>
+      <c r="I306" s="13">
+        <v>5.1559999999999997</v>
+      </c>
+      <c r="J306" s="13">
+        <f t="shared" si="32"/>
+        <v>4.9600047302291204</v>
+      </c>
+      <c r="K306" s="13">
+        <f t="shared" si="32"/>
+        <v>2.5494867128882133</v>
+      </c>
+      <c r="L306" s="13">
+        <f t="shared" si="32"/>
+        <v>10.412546780449961</v>
+      </c>
+      <c r="M306" s="14">
+        <f t="shared" si="31"/>
+        <v>37.037999999999997</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A307" s="15"/>
+      <c r="B307" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C307" s="15">
+        <v>2048</v>
+      </c>
+      <c r="D307" s="15">
+        <v>128</v>
+      </c>
+      <c r="E307" s="15">
+        <v>25</v>
+      </c>
+      <c r="F307" s="15"/>
+      <c r="G307" s="13">
+        <v>16.170999999999999</v>
+      </c>
+      <c r="H307" s="13">
+        <v>13.528</v>
+      </c>
+      <c r="I307" s="13">
+        <v>9.8789999999999996</v>
+      </c>
+      <c r="J307" s="13">
+        <f t="shared" si="32"/>
+        <v>6.6399222311545367</v>
+      </c>
+      <c r="K307" s="13">
+        <f t="shared" si="32"/>
+        <v>7.9371808397397992</v>
+      </c>
+      <c r="L307" s="13">
+        <f t="shared" si="32"/>
+        <v>10.868932321085131</v>
+      </c>
+      <c r="M307" s="14">
+        <f t="shared" si="31"/>
+        <v>39.577999999999996</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A308" s="15"/>
+      <c r="B308" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C308" s="15">
+        <v>4096</v>
+      </c>
+      <c r="D308" s="15">
+        <v>16</v>
+      </c>
+      <c r="E308" s="15">
+        <v>25</v>
+      </c>
+      <c r="F308" s="15"/>
+      <c r="G308" s="13">
+        <v>78.805999999999997</v>
+      </c>
+      <c r="H308" s="13">
+        <v>59.868000000000002</v>
+      </c>
+      <c r="I308" s="13">
+        <v>6.5789999999999997</v>
+      </c>
+      <c r="J308" s="13">
+        <f t="shared" si="32"/>
+        <v>0.68125639164530616</v>
+      </c>
+      <c r="K308" s="13">
+        <f t="shared" si="32"/>
+        <v>0.89675772031803291</v>
+      </c>
+      <c r="L308" s="13">
+        <f t="shared" si="32"/>
+        <v>8.1603725794193647</v>
+      </c>
+      <c r="M308" s="14">
+        <f t="shared" si="31"/>
+        <v>145.25300000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A309" s="15"/>
+      <c r="B309" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C309" s="15">
+        <v>4096</v>
+      </c>
+      <c r="D309" s="15">
+        <v>32</v>
+      </c>
+      <c r="E309" s="15">
+        <v>25</v>
+      </c>
+      <c r="F309" s="15"/>
+      <c r="G309" s="13">
+        <v>23.265000000000001</v>
+      </c>
+      <c r="H309" s="13">
+        <v>47.344000000000001</v>
+      </c>
+      <c r="I309" s="13">
+        <v>11.05</v>
+      </c>
+      <c r="J309" s="13">
+        <f t="shared" si="32"/>
+        <v>4.6152668128089402</v>
+      </c>
+      <c r="K309" s="13">
+        <f t="shared" si="32"/>
+        <v>2.2679575532274412</v>
+      </c>
+      <c r="L309" s="13">
+        <f t="shared" si="32"/>
+        <v>9.7171205791855204</v>
+      </c>
+      <c r="M309" s="14">
+        <f t="shared" si="31"/>
+        <v>81.659000000000006</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A310" s="15"/>
+      <c r="B310" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C310" s="15">
+        <v>4096</v>
+      </c>
+      <c r="D310" s="15">
+        <v>64</v>
+      </c>
+      <c r="E310" s="15">
+        <v>25</v>
+      </c>
+      <c r="F310" s="15"/>
+      <c r="G310" s="13">
+        <v>47.372</v>
+      </c>
+      <c r="H310" s="13">
+        <v>51.853999999999999</v>
+      </c>
+      <c r="I310" s="13">
+        <v>20.285</v>
+      </c>
+      <c r="J310" s="13">
+        <f t="shared" si="32"/>
+        <v>4.5332340792029049</v>
+      </c>
+      <c r="K310" s="13">
+        <f t="shared" si="32"/>
+        <v>4.1414040344042888</v>
+      </c>
+      <c r="L310" s="13">
+        <f t="shared" si="32"/>
+        <v>10.58655976337195</v>
+      </c>
+      <c r="M310" s="14">
+        <f t="shared" si="31"/>
+        <v>119.511</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A311" s="15"/>
+      <c r="B311" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C311" s="15">
+        <v>4096</v>
+      </c>
+      <c r="D311" s="15">
+        <v>128</v>
+      </c>
+      <c r="E311" s="15">
+        <v>25</v>
+      </c>
+      <c r="F311" s="15"/>
+      <c r="G311" s="13">
+        <v>52.192</v>
+      </c>
+      <c r="H311" s="13">
+        <v>66.594999999999999</v>
+      </c>
+      <c r="I311" s="13">
+        <v>38.988999999999997</v>
+      </c>
+      <c r="J311" s="13">
+        <f t="shared" si="32"/>
+        <v>8.2291678724708763</v>
+      </c>
+      <c r="K311" s="13">
+        <f t="shared" si="32"/>
+        <v>6.4493840318342217</v>
+      </c>
+      <c r="L311" s="13">
+        <f t="shared" si="32"/>
+        <v>11.015843689245685</v>
+      </c>
+      <c r="M311" s="14">
+        <f t="shared" si="31"/>
+        <v>157.77600000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A312" s="15"/>
+      <c r="B312" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C312" s="15">
+        <v>1536</v>
+      </c>
+      <c r="D312" s="15">
+        <v>8</v>
+      </c>
+      <c r="E312" s="15">
         <v>50</v>
       </c>
-      <c r="G280" s="6">
-        <v>4.2770000000000001</v>
-      </c>
-      <c r="H280" s="6">
-        <v>3.1550000000000002</v>
-      </c>
-      <c r="I280" s="6">
-        <f t="shared" ref="I280:I291" si="29">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
-        <v>1.1591227495908345</v>
-      </c>
-      <c r="J280" s="6">
-        <f t="shared" ref="J280:J291" si="30">(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(H280/1000)/10^12</f>
-        <v>1.5713369255150553</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C281" s="5">
-        <v>1760</v>
-      </c>
-      <c r="D281" s="5">
+      <c r="F312" s="15"/>
+      <c r="G312" s="13">
+        <v>11.683</v>
+      </c>
+      <c r="H312" s="13">
+        <v>7.2060000000000004</v>
+      </c>
+      <c r="I312" s="13">
+        <v>1.075</v>
+      </c>
+      <c r="J312" s="13">
+        <f t="shared" si="32"/>
+        <v>0.64621648549174016</v>
+      </c>
+      <c r="K312" s="13">
+        <f t="shared" si="32"/>
+        <v>1.0477029142381347</v>
+      </c>
+      <c r="L312" s="13">
+        <f t="shared" si="32"/>
+        <v>7.0230206511627911</v>
+      </c>
+      <c r="M312" s="14">
+        <f t="shared" si="31"/>
+        <v>19.963999999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A313" s="15"/>
+      <c r="B313" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C313" s="15">
+        <v>1536</v>
+      </c>
+      <c r="D313" s="15">
+        <v>16</v>
+      </c>
+      <c r="E313" s="15">
+        <v>50</v>
+      </c>
+      <c r="F313" s="15"/>
+      <c r="G313" s="13">
+        <v>21.974</v>
+      </c>
+      <c r="H313" s="13">
+        <v>10.997</v>
+      </c>
+      <c r="I313" s="13">
+        <v>1.78</v>
+      </c>
+      <c r="J313" s="13">
+        <f t="shared" si="32"/>
+        <v>0.68715274415217986</v>
+      </c>
+      <c r="K313" s="13">
+        <f t="shared" si="32"/>
+        <v>1.3730557788487769</v>
+      </c>
+      <c r="L313" s="13">
+        <f t="shared" si="32"/>
+        <v>8.4828620224719096</v>
+      </c>
+      <c r="M313" s="14">
+        <f t="shared" si="31"/>
+        <v>34.751000000000005</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A314" s="15"/>
+      <c r="B314" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C314" s="15">
+        <v>1536</v>
+      </c>
+      <c r="D314" s="15">
         <v>32</v>
       </c>
-      <c r="E281" s="5">
+      <c r="E314" s="15">
         <v>50</v>
       </c>
-      <c r="G281" s="6">
-        <v>9.9870000000000001</v>
-      </c>
-      <c r="H281" s="6">
-        <v>9.3510000000000009</v>
-      </c>
-      <c r="I281" s="6">
-        <f t="shared" si="29"/>
-        <v>0.99280424551917501</v>
-      </c>
-      <c r="J281" s="6">
-        <f t="shared" si="30"/>
-        <v>1.0603289487755319</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C282" s="5">
-        <v>1760</v>
-      </c>
-      <c r="D282" s="5">
+      <c r="F314" s="15"/>
+      <c r="G314" s="13">
+        <v>11.484999999999999</v>
+      </c>
+      <c r="H314" s="13">
+        <v>30.913</v>
+      </c>
+      <c r="I314" s="13">
+        <v>3.06</v>
+      </c>
+      <c r="J314" s="13">
+        <f t="shared" si="32"/>
+        <v>2.629428715716152</v>
+      </c>
+      <c r="K314" s="13">
+        <f t="shared" si="32"/>
+        <v>0.97690255879403487</v>
+      </c>
+      <c r="L314" s="13">
+        <f t="shared" si="32"/>
+        <v>9.8689505882352933</v>
+      </c>
+      <c r="M314" s="14">
+        <f t="shared" si="31"/>
+        <v>45.457999999999998</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A315" s="15"/>
+      <c r="B315" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C315" s="15">
+        <v>256</v>
+      </c>
+      <c r="D315" s="15">
+        <v>16</v>
+      </c>
+      <c r="E315" s="15">
+        <v>150</v>
+      </c>
+      <c r="F315" s="15"/>
+      <c r="G315" s="13">
+        <v>3.714</v>
+      </c>
+      <c r="H315" s="13">
+        <v>4.2549999999999999</v>
+      </c>
+      <c r="I315" s="13">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="J315" s="13">
+        <f t="shared" si="32"/>
+        <v>0.33879676898222943</v>
+      </c>
+      <c r="K315" s="13">
+        <f t="shared" si="32"/>
+        <v>0.29572061104582842</v>
+      </c>
+      <c r="L315" s="13">
+        <f t="shared" si="32"/>
+        <v>5.9353358490566039</v>
+      </c>
+      <c r="M315" s="14">
+        <f t="shared" si="31"/>
+        <v>8.1809999999999992</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A316" s="15"/>
+      <c r="B316" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C316" s="15">
+        <v>256</v>
+      </c>
+      <c r="D316" s="15">
+        <v>32</v>
+      </c>
+      <c r="E316" s="15">
+        <v>150</v>
+      </c>
+      <c r="F316" s="15"/>
+      <c r="G316" s="13">
+        <v>6.8609999999999998</v>
+      </c>
+      <c r="H316" s="13">
+        <v>14.831</v>
+      </c>
+      <c r="I316" s="13">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="J316" s="13">
+        <f t="shared" si="32"/>
+        <v>0.36679527765631831</v>
+      </c>
+      <c r="K316" s="13">
+        <f t="shared" si="32"/>
+        <v>0.16968393230395795</v>
+      </c>
+      <c r="L316" s="13">
+        <f t="shared" si="32"/>
+        <v>7.4235469026548673</v>
+      </c>
+      <c r="M316" s="14">
+        <f t="shared" si="31"/>
+        <v>22.030999999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A317" s="15"/>
+      <c r="B317" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C317" s="15">
+        <v>256</v>
+      </c>
+      <c r="D317" s="15">
         <v>64</v>
       </c>
-      <c r="E282" s="5">
-        <v>50</v>
-      </c>
-      <c r="G282" s="6">
-        <v>4.944</v>
-      </c>
-      <c r="H282" s="6">
-        <v>4.3659999999999997</v>
-      </c>
-      <c r="I282" s="6">
-        <f t="shared" si="29"/>
-        <v>4.0109773462783176</v>
-      </c>
-      <c r="J282" s="6">
-        <f t="shared" si="30"/>
-        <v>4.5419770957398073</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C283" s="5">
-        <v>1760</v>
-      </c>
-      <c r="D283" s="5">
-        <v>128</v>
-      </c>
-      <c r="E283" s="5">
-        <v>50</v>
-      </c>
-      <c r="G283" s="6">
-        <v>6.0910000000000002</v>
-      </c>
-      <c r="H283" s="6">
-        <v>5.867</v>
-      </c>
-      <c r="I283" s="6">
-        <f t="shared" si="29"/>
-        <v>6.5113354129042849</v>
-      </c>
-      <c r="J283" s="6">
-        <f t="shared" si="30"/>
-        <v>6.7599359127322316</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C284" s="5">
+      <c r="E317" s="15">
+        <v>150</v>
+      </c>
+      <c r="F317" s="15"/>
+      <c r="G317" s="13">
+        <v>6.4790000000000001</v>
+      </c>
+      <c r="H317" s="13">
+        <v>9.1430000000000007</v>
+      </c>
+      <c r="I317" s="13">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="J317" s="13">
+        <f t="shared" si="32"/>
+        <v>0.77684284611822807</v>
+      </c>
+      <c r="K317" s="13">
+        <f t="shared" si="32"/>
+        <v>0.55049379853439795</v>
+      </c>
+      <c r="L317" s="13">
+        <f t="shared" si="32"/>
+        <v>8.5598040816326542</v>
+      </c>
+      <c r="M317" s="14">
+        <f t="shared" si="31"/>
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A318" s="15"/>
+      <c r="B318" s="15"/>
+      <c r="C318" s="15"/>
+      <c r="D318" s="15"/>
+      <c r="E318" s="15"/>
+      <c r="F318" s="15"/>
+      <c r="G318" s="15"/>
+      <c r="H318" s="15"/>
+      <c r="I318" s="15"/>
+      <c r="J318" s="15"/>
+      <c r="K318" s="15"/>
+      <c r="L318" s="15"/>
+      <c r="M318" s="15"/>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A319" s="15"/>
+      <c r="B319" s="15"/>
+      <c r="C319" s="15"/>
+      <c r="D319" s="15"/>
+      <c r="E319" s="15"/>
+      <c r="F319" s="15"/>
+      <c r="G319" s="15"/>
+      <c r="H319" s="15"/>
+      <c r="I319" s="15"/>
+      <c r="J319" s="15"/>
+      <c r="K319" s="15"/>
+      <c r="L319" s="15"/>
+      <c r="M319" s="15"/>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A320" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C320" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D320" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E320" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F320" s="15"/>
+      <c r="G320" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H320" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I320" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J320" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K320" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L320" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M320" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A321" s="15"/>
+      <c r="B321" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C321" s="15">
+        <v>2816</v>
+      </c>
+      <c r="D321" s="15">
+        <v>32</v>
+      </c>
+      <c r="E321" s="15">
+        <v>1500</v>
+      </c>
+      <c r="F321" s="15"/>
+      <c r="G321" s="13">
+        <v>585.63599999999997</v>
+      </c>
+      <c r="H321" s="13">
+        <v>1261.2339999999999</v>
+      </c>
+      <c r="I321" s="13">
+        <v>217.49100000000001</v>
+      </c>
+      <c r="J321" s="13">
+        <f>(6*$E321*$D321*$C321*$C321)/(G321/1000)/10^12</f>
+        <v>3.8996894453209849</v>
+      </c>
+      <c r="K321" s="13">
+        <f>(6*$E321*$D321*$C321*$C321)/(H321/1000)/10^12</f>
+        <v>1.8107651141659677</v>
+      </c>
+      <c r="L321" s="13">
+        <f>(6*$E321*$D321*$C321*$C321)/(I321/1000)/10^12</f>
+        <v>10.50065762721216</v>
+      </c>
+      <c r="M321" s="14">
+        <f t="shared" ref="M321:M339" si="33">G321+H321+I321</f>
+        <v>2064.3609999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A322" s="15"/>
+      <c r="B322" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C322" s="15">
+        <v>2816</v>
+      </c>
+      <c r="D322" s="15">
+        <v>32</v>
+      </c>
+      <c r="E322" s="15">
+        <v>750</v>
+      </c>
+      <c r="F322" s="15"/>
+      <c r="G322" s="13">
+        <v>295.24599999999998</v>
+      </c>
+      <c r="H322" s="13">
+        <v>632.51199999999994</v>
+      </c>
+      <c r="I322" s="13">
+        <v>108.706</v>
+      </c>
+      <c r="J322" s="13">
+        <f>(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <v>3.8676197611483305</v>
+      </c>
+      <c r="K322" s="13">
+        <f>(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <v>1.8053400789234038</v>
+      </c>
+      <c r="L322" s="13">
+        <f>(6*$E322*$D322*$C322*$C322)/(I322/1000)/10^12</f>
+        <v>10.504473202951081</v>
+      </c>
+      <c r="M322" s="14">
+        <f t="shared" si="33"/>
+        <v>1036.4639999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A323" s="15"/>
+      <c r="B323" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C323" s="15">
+        <v>2816</v>
+      </c>
+      <c r="D323" s="15">
+        <v>32</v>
+      </c>
+      <c r="E323" s="15">
+        <v>375</v>
+      </c>
+      <c r="F323" s="15"/>
+      <c r="G323" s="13">
+        <v>148.61500000000001</v>
+      </c>
+      <c r="H323" s="13">
+        <v>317.92399999999998</v>
+      </c>
+      <c r="I323" s="13">
+        <v>54.100999999999999</v>
+      </c>
+      <c r="J323" s="13">
+        <f>(6*$E323*$D323*$C323*$C323)/(G323/1000)/10^12</f>
+        <v>3.8418035326178379</v>
+      </c>
+      <c r="K323" s="13">
+        <f>(6*$E323*$D323*$C323*$C323)/(H323/1000)/10^12</f>
+        <v>1.7958682955674941</v>
+      </c>
+      <c r="L323" s="13">
+        <f>(6*$E323*$D323*$C323*$C323)/(I323/1000)/10^12</f>
+        <v>10.553402561875012</v>
+      </c>
+      <c r="M323" s="14">
+        <f t="shared" si="33"/>
+        <v>520.64</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A324" s="15"/>
+      <c r="B324" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C324" s="15">
+        <v>2816</v>
+      </c>
+      <c r="D324" s="15">
+        <v>32</v>
+      </c>
+      <c r="E324" s="15">
+        <v>187</v>
+      </c>
+      <c r="F324" s="15"/>
+      <c r="G324" s="13">
+        <v>75.204999999999998</v>
+      </c>
+      <c r="H324" s="13">
+        <v>159.351</v>
+      </c>
+      <c r="I324" s="13">
+        <v>26.96</v>
+      </c>
+      <c r="J324" s="13">
+        <f>(6*$E324*$D324*$C324*$C324)/(G324/1000)/10^12</f>
+        <v>3.7858327215477696</v>
+      </c>
+      <c r="K324" s="13">
+        <f>(6*$E324*$D324*$C324*$C324)/(H324/1000)/10^12</f>
+        <v>1.7867070167366381</v>
+      </c>
+      <c r="L324" s="13">
+        <f>(6*$E324*$D324*$C324*$C324)/(I324/1000)/10^12</f>
+        <v>10.560591610682492</v>
+      </c>
+      <c r="M324" s="14">
+        <f t="shared" si="33"/>
+        <v>261.51599999999996</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A325" s="15"/>
+      <c r="B325" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C325" s="15">
         <v>2048</v>
       </c>
-      <c r="D284" s="5">
-        <v>16</v>
-      </c>
-      <c r="E284" s="5">
-        <v>50</v>
-      </c>
-      <c r="G284" s="6">
-        <v>5.6269999999999998</v>
-      </c>
-      <c r="H284" s="6">
-        <v>4.7629999999999999</v>
-      </c>
-      <c r="I284" s="6">
-        <f t="shared" si="29"/>
-        <v>1.1929135951661631</v>
-      </c>
-      <c r="J284" s="6">
-        <f t="shared" si="30"/>
-        <v>1.4093060676044509</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C285" s="5">
+      <c r="D325" s="15">
+        <v>32</v>
+      </c>
+      <c r="E325" s="15">
+        <v>1500</v>
+      </c>
+      <c r="F325" s="15"/>
+      <c r="G325" s="13">
+        <v>392.97899999999998</v>
+      </c>
+      <c r="H325" s="13">
+        <v>903.86400000000003</v>
+      </c>
+      <c r="I325" s="13">
+        <v>115.94199999999999</v>
+      </c>
+      <c r="J325" s="13">
+        <f>(6*$E325*$D325*$C325*$C325)/(G325/1000)/10^12</f>
+        <v>3.0738526791507943</v>
+      </c>
+      <c r="K325" s="13">
+        <f>(6*$E325*$D325*$C325*$C325)/(H325/1000)/10^12</f>
+        <v>1.3364394997477498</v>
+      </c>
+      <c r="L325" s="13">
+        <f>(6*$E325*$D325*$C325*$C325)/(I325/1000)/10^12</f>
+        <v>10.418653740663435</v>
+      </c>
+      <c r="M325" s="14">
+        <f t="shared" si="33"/>
+        <v>1412.7850000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A326" s="15"/>
+      <c r="B326" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C326" s="15">
         <v>2048</v>
       </c>
-      <c r="D285" s="5">
+      <c r="D326" s="15">
         <v>32</v>
       </c>
-      <c r="E285" s="5">
-        <v>50</v>
-      </c>
-      <c r="G285" s="6">
-        <v>10.920999999999999</v>
-      </c>
-      <c r="H285" s="6">
-        <v>10.59</v>
-      </c>
-      <c r="I285" s="6">
-        <f t="shared" si="29"/>
-        <v>1.229287574397949</v>
-      </c>
-      <c r="J285" s="6">
-        <f t="shared" si="30"/>
-        <v>1.2677100661000944</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C286" s="5">
+      <c r="E326" s="15">
+        <v>750</v>
+      </c>
+      <c r="F326" s="15"/>
+      <c r="G326" s="13">
+        <v>197.22399999999999</v>
+      </c>
+      <c r="H326" s="13">
+        <v>454.303</v>
+      </c>
+      <c r="I326" s="13">
+        <v>57.698</v>
+      </c>
+      <c r="J326" s="13">
+        <f>(6*$E326*$D326*$C326*$C326)/(G326/1000)/10^12</f>
+        <v>3.0624050622642276</v>
+      </c>
+      <c r="K326" s="13">
+        <f>(6*$E326*$D326*$C326*$C326)/(H326/1000)/10^12</f>
+        <v>1.3294646436409179</v>
+      </c>
+      <c r="L326" s="13">
+        <f>(6*$E326*$D326*$C326*$C326)/(I326/1000)/10^12</f>
+        <v>10.467949946271968</v>
+      </c>
+      <c r="M326" s="14">
+        <f t="shared" si="33"/>
+        <v>709.22500000000002</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A327" s="15"/>
+      <c r="B327" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C327" s="15">
         <v>2048</v>
       </c>
-      <c r="D286" s="5">
+      <c r="D327" s="15">
+        <v>32</v>
+      </c>
+      <c r="E327" s="15">
+        <v>375</v>
+      </c>
+      <c r="F327" s="15"/>
+      <c r="G327" s="13">
+        <v>99.793999999999997</v>
+      </c>
+      <c r="H327" s="13">
+        <v>228.535</v>
+      </c>
+      <c r="I327" s="13">
+        <v>28.791</v>
+      </c>
+      <c r="J327" s="13">
+        <f>(6*$E327*$D327*$C327*$C327)/(G327/1000)/10^12</f>
+        <v>3.0261327133895826</v>
+      </c>
+      <c r="K327" s="13">
+        <f>(6*$E327*$D327*$C327*$C327)/(H327/1000)/10^12</f>
+        <v>1.3214163607324918</v>
+      </c>
+      <c r="L327" s="13">
+        <f>(6*$E327*$D327*$C327*$C327)/(I327/1000)/10^12</f>
+        <v>10.4890378243201</v>
+      </c>
+      <c r="M327" s="14">
+        <f t="shared" si="33"/>
+        <v>357.12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A328" s="15"/>
+      <c r="B328" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C328" s="15">
+        <v>2048</v>
+      </c>
+      <c r="D328" s="15">
+        <v>32</v>
+      </c>
+      <c r="E328" s="15">
+        <v>187</v>
+      </c>
+      <c r="F328" s="15"/>
+      <c r="G328" s="13">
+        <v>50.968000000000004</v>
+      </c>
+      <c r="H328" s="13">
+        <v>114.82</v>
+      </c>
+      <c r="I328" s="13">
+        <v>14.363</v>
+      </c>
+      <c r="J328" s="13">
+        <f>(6*$E328*$D328*$C328*$C328)/(G328/1000)/10^12</f>
+        <v>2.9546439102181759</v>
+      </c>
+      <c r="K328" s="13">
+        <f>(6*$E328*$D328*$C328*$C328)/(H328/1000)/10^12</f>
+        <v>1.3115510435115836</v>
+      </c>
+      <c r="L328" s="13">
+        <f>(6*$E328*$D328*$C328*$C328)/(I328/1000)/10^12</f>
+        <v>10.484737924946042</v>
+      </c>
+      <c r="M328" s="14">
+        <f t="shared" si="33"/>
+        <v>180.15100000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A329" s="15"/>
+      <c r="B329" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C329" s="15">
+        <v>1536</v>
+      </c>
+      <c r="D329" s="15">
+        <v>32</v>
+      </c>
+      <c r="E329" s="15">
+        <v>1500</v>
+      </c>
+      <c r="F329" s="15"/>
+      <c r="G329" s="13">
+        <v>293.21300000000002</v>
+      </c>
+      <c r="H329" s="13">
+        <v>674.33600000000001</v>
+      </c>
+      <c r="I329" s="13">
+        <v>67.492000000000004</v>
+      </c>
+      <c r="J329" s="13">
+        <f>(6*$E329*$D329*$C329*$C329)/(G329/1000)/10^12</f>
+        <v>2.3173503494046988</v>
+      </c>
+      <c r="K329" s="13">
+        <f>(6*$E329*$D329*$C329*$C329)/(H329/1000)/10^12</f>
+        <v>1.0076241636216958</v>
+      </c>
+      <c r="L329" s="13">
+        <f>(6*$E329*$D329*$C329*$C329)/(I329/1000)/10^12</f>
+        <v>10.06752278788597</v>
+      </c>
+      <c r="M329" s="14">
+        <f t="shared" si="33"/>
+        <v>1035.0409999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A330" s="15"/>
+      <c r="B330" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C330" s="15">
+        <v>1536</v>
+      </c>
+      <c r="D330" s="15">
+        <v>32</v>
+      </c>
+      <c r="E330" s="15">
+        <v>750</v>
+      </c>
+      <c r="F330" s="15"/>
+      <c r="G330" s="13">
+        <v>148.19800000000001</v>
+      </c>
+      <c r="H330" s="13">
+        <v>339.38</v>
+      </c>
+      <c r="I330" s="13">
+        <v>33.643999999999998</v>
+      </c>
+      <c r="J330" s="13">
+        <f>(6*$E330*$D330*$C330*$C330)/(G330/1000)/10^12</f>
+        <v>2.2924642977638028</v>
+      </c>
+      <c r="K330" s="13">
+        <f>(6*$E330*$D330*$C330*$C330)/(H330/1000)/10^12</f>
+        <v>1.0010567034003182</v>
+      </c>
+      <c r="L330" s="13">
+        <f>(6*$E330*$D330*$C330*$C330)/(I330/1000)/10^12</f>
+        <v>10.098044941148496</v>
+      </c>
+      <c r="M330" s="14">
+        <f t="shared" si="33"/>
+        <v>521.22199999999998</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A331" s="15"/>
+      <c r="B331" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C331" s="15">
+        <v>1536</v>
+      </c>
+      <c r="D331" s="15">
+        <v>32</v>
+      </c>
+      <c r="E331" s="15">
+        <v>375</v>
+      </c>
+      <c r="F331" s="15"/>
+      <c r="G331" s="13">
+        <v>75.906000000000006</v>
+      </c>
+      <c r="H331" s="13">
+        <v>171.06</v>
+      </c>
+      <c r="I331" s="13">
+        <v>16.687000000000001</v>
+      </c>
+      <c r="J331" s="13">
+        <f>(6*$E331*$D331*$C331*$C331)/(G331/1000)/10^12</f>
+        <v>2.2378904434432059</v>
+      </c>
+      <c r="K331" s="13">
+        <f>(6*$E331*$D331*$C331*$C331)/(H331/1000)/10^12</f>
+        <v>0.99303935461241677</v>
+      </c>
+      <c r="L331" s="13">
+        <f>(6*$E331*$D331*$C331*$C331)/(I331/1000)/10^12</f>
+        <v>10.179739437885779</v>
+      </c>
+      <c r="M331" s="14">
+        <f t="shared" si="33"/>
+        <v>263.65300000000002</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A332" s="15"/>
+      <c r="B332" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C332" s="15">
+        <v>1536</v>
+      </c>
+      <c r="D332" s="15">
+        <v>32</v>
+      </c>
+      <c r="E332" s="15">
+        <v>187</v>
+      </c>
+      <c r="F332" s="15"/>
+      <c r="G332" s="13">
+        <v>39.252000000000002</v>
+      </c>
+      <c r="H332" s="13">
+        <v>86.341999999999999</v>
+      </c>
+      <c r="I332" s="13">
+        <v>8.2550000000000008</v>
+      </c>
+      <c r="J332" s="13">
+        <f>(6*$E332*$D332*$C332*$C332)/(G332/1000)/10^12</f>
+        <v>2.1580598080097828</v>
+      </c>
+      <c r="K332" s="13">
+        <f>(6*$E332*$D332*$C332*$C332)/(H332/1000)/10^12</f>
+        <v>0.98107715345949831</v>
+      </c>
+      <c r="L332" s="13">
+        <f>(6*$E332*$D332*$C332*$C332)/(I332/1000)/10^12</f>
+        <v>10.261437139188372</v>
+      </c>
+      <c r="M332" s="14">
+        <f t="shared" si="33"/>
+        <v>133.84899999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A333" s="15"/>
+      <c r="B333" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C333" s="15">
+        <v>2560</v>
+      </c>
+      <c r="D333" s="15">
+        <v>32</v>
+      </c>
+      <c r="E333" s="15">
+        <v>1500</v>
+      </c>
+      <c r="F333" s="15"/>
+      <c r="G333" s="13">
+        <v>521.322</v>
+      </c>
+      <c r="H333" s="13">
+        <v>1140.662</v>
+      </c>
+      <c r="I333" s="13">
+        <v>181.99100000000001</v>
+      </c>
+      <c r="J333" s="13">
+        <f>(6*$E333*$D333*$C333*$C333)/(G333/1000)/10^12</f>
+        <v>3.6204817751792562</v>
+      </c>
+      <c r="K333" s="13">
+        <f>(6*$E333*$D333*$C333*$C333)/(H333/1000)/10^12</f>
+        <v>1.65468543705322</v>
+      </c>
+      <c r="L333" s="13">
+        <f>(6*$E333*$D333*$C333*$C333)/(I333/1000)/10^12</f>
+        <v>10.371044721991746</v>
+      </c>
+      <c r="M333" s="14">
+        <f t="shared" si="33"/>
+        <v>1843.9749999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A334" s="15"/>
+      <c r="B334" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C334" s="15">
+        <v>2560</v>
+      </c>
+      <c r="D334" s="15">
+        <v>32</v>
+      </c>
+      <c r="E334" s="15">
+        <v>750</v>
+      </c>
+      <c r="F334" s="15"/>
+      <c r="G334" s="13">
+        <v>262.81</v>
+      </c>
+      <c r="H334" s="13">
+        <v>572.12400000000002</v>
+      </c>
+      <c r="I334" s="13">
+        <v>90.897000000000006</v>
+      </c>
+      <c r="J334" s="13">
+        <f>(6*$E334*$D334*$C334*$C334)/(G334/1000)/10^12</f>
+        <v>3.5908770594726231</v>
+      </c>
+      <c r="K334" s="13">
+        <f>(6*$E334*$D334*$C334*$C334)/(H334/1000)/10^12</f>
+        <v>1.649499758793548</v>
+      </c>
+      <c r="L334" s="13">
+        <f>(6*$E334*$D334*$C334*$C334)/(I334/1000)/10^12</f>
+        <v>10.382283243671408</v>
+      </c>
+      <c r="M334" s="14">
+        <f t="shared" si="33"/>
+        <v>925.83100000000002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A335" s="15"/>
+      <c r="B335" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C335" s="15">
+        <v>2560</v>
+      </c>
+      <c r="D335" s="15">
+        <v>32</v>
+      </c>
+      <c r="E335" s="15">
+        <v>375</v>
+      </c>
+      <c r="F335" s="15"/>
+      <c r="G335" s="13">
+        <v>132.14400000000001</v>
+      </c>
+      <c r="H335" s="13">
+        <v>287.13</v>
+      </c>
+      <c r="I335" s="13">
+        <v>45.295000000000002</v>
+      </c>
+      <c r="J335" s="13">
+        <f>(6*$E335*$D335*$C335*$C335)/(G335/1000)/10^12</f>
+        <v>3.5707954958227384</v>
+      </c>
+      <c r="K335" s="13">
+        <f>(6*$E335*$D335*$C335*$C335)/(H335/1000)/10^12</f>
+        <v>1.6433643297461082</v>
+      </c>
+      <c r="L335" s="13">
+        <f>(6*$E335*$D335*$C335*$C335)/(I335/1000)/10^12</f>
+        <v>10.417467711667953</v>
+      </c>
+      <c r="M335" s="14">
+        <f t="shared" si="33"/>
+        <v>464.56900000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A336" s="15"/>
+      <c r="B336" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C336" s="15">
+        <v>2560</v>
+      </c>
+      <c r="D336" s="15">
+        <v>32</v>
+      </c>
+      <c r="E336" s="15">
+        <v>187</v>
+      </c>
+      <c r="F336" s="15"/>
+      <c r="G336" s="13">
+        <v>66.885999999999996</v>
+      </c>
+      <c r="H336" s="13">
+        <v>144.10900000000001</v>
+      </c>
+      <c r="I336" s="13">
+        <v>22.536000000000001</v>
+      </c>
+      <c r="J336" s="13">
+        <f>(6*$E336*$D336*$C336*$C336)/(G336/1000)/10^12</f>
+        <v>3.5179328170319648</v>
+      </c>
+      <c r="K336" s="13">
+        <f>(6*$E336*$D336*$C336*$C336)/(H336/1000)/10^12</f>
+        <v>1.6327949982305059</v>
+      </c>
+      <c r="L336" s="13">
+        <f>(6*$E336*$D336*$C336*$C336)/(I336/1000)/10^12</f>
+        <v>10.441092225772097</v>
+      </c>
+      <c r="M336" s="14">
+        <f t="shared" si="33"/>
+        <v>233.53100000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A337" s="15"/>
+      <c r="B337" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C337" s="15">
+        <v>512</v>
+      </c>
+      <c r="D337" s="15">
+        <v>32</v>
+      </c>
+      <c r="E337" s="15">
+        <v>1</v>
+      </c>
+      <c r="F337" s="15"/>
+      <c r="G337" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H337" s="13">
+        <v>0.183</v>
+      </c>
+      <c r="I337" s="13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J337" s="13">
+        <f>(6*$E337*$D337*$C337*$C337)/(G337/1000)/10^12</f>
+        <v>0.57195054545454538</v>
+      </c>
+      <c r="K337" s="13">
+        <f>(6*$E337*$D337*$C337*$C337)/(H337/1000)/10^12</f>
+        <v>0.27503632786885246</v>
+      </c>
+      <c r="L337" s="13">
+        <f>(6*$E337*$D337*$C337*$C337)/(I337/1000)/10^12</f>
+        <v>1.3245170526315788</v>
+      </c>
+      <c r="M337" s="14">
+        <f t="shared" si="33"/>
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A338" s="15"/>
+      <c r="B338" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C338" s="15">
+        <v>1024</v>
+      </c>
+      <c r="D338" s="15">
+        <v>32</v>
+      </c>
+      <c r="E338" s="15">
+        <v>1500</v>
+      </c>
+      <c r="F338" s="15"/>
+      <c r="G338" s="13">
+        <v>177.661</v>
+      </c>
+      <c r="H338" s="13">
+        <v>454.89</v>
+      </c>
+      <c r="I338" s="13">
+        <v>31.425999999999998</v>
+      </c>
+      <c r="J338" s="13">
+        <f>(6*$E338*$D338*$C338*$C338)/(G338/1000)/10^12</f>
+        <v>1.6998096824851823</v>
+      </c>
+      <c r="K338" s="13">
+        <f>(6*$E338*$D338*$C338*$C338)/(H338/1000)/10^12</f>
+        <v>0.66387453670118057</v>
+      </c>
+      <c r="L338" s="13">
+        <f>(6*$E338*$D338*$C338*$C338)/(I338/1000)/10^12</f>
+        <v>9.6095553999872738</v>
+      </c>
+      <c r="M338" s="14">
+        <f t="shared" si="33"/>
+        <v>663.97699999999998</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A339" s="15"/>
+      <c r="B339" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C339" s="15">
+        <v>1024</v>
+      </c>
+      <c r="D339" s="15">
         <v>64</v>
       </c>
-      <c r="E286" s="5">
-        <v>50</v>
-      </c>
-      <c r="G286" s="6">
-        <v>9.9760000000000009</v>
-      </c>
-      <c r="H286" s="6">
-        <v>9.213000000000001</v>
-      </c>
-      <c r="I286" s="6">
-        <f t="shared" si="29"/>
-        <v>2.6914694466720128</v>
-      </c>
-      <c r="J286" s="6">
-        <f t="shared" si="30"/>
-        <v>2.9143709106697058</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C287" s="5">
-        <v>2048</v>
-      </c>
-      <c r="D287" s="5">
-        <v>128</v>
-      </c>
-      <c r="E287" s="5">
-        <v>50</v>
-      </c>
-      <c r="G287" s="6">
-        <v>8.2379999999999995</v>
-      </c>
-      <c r="H287" s="6">
-        <v>7.9550000000000001</v>
-      </c>
-      <c r="I287" s="6">
-        <f t="shared" si="29"/>
-        <v>6.5185965525613021</v>
-      </c>
-      <c r="J287" s="6">
-        <f t="shared" si="30"/>
-        <v>6.7504963419233182</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C288" s="5">
-        <v>2560</v>
-      </c>
-      <c r="D288" s="5">
-        <v>16</v>
-      </c>
-      <c r="E288" s="5">
-        <v>50</v>
-      </c>
-      <c r="G288" s="6">
-        <v>8.49</v>
-      </c>
-      <c r="H288" s="6">
-        <v>7.6340000000000003</v>
-      </c>
-      <c r="I288" s="6">
-        <f t="shared" si="29"/>
-        <v>1.2353130742049467</v>
-      </c>
-      <c r="J288" s="6">
-        <f t="shared" si="30"/>
-        <v>1.3738286612522923</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C289" s="5">
-        <v>2560</v>
-      </c>
-      <c r="D289" s="5">
-        <v>32</v>
-      </c>
-      <c r="E289" s="5">
-        <v>50</v>
-      </c>
-      <c r="G289" s="6">
-        <v>13.502000000000001</v>
-      </c>
-      <c r="H289" s="6">
-        <v>13.005000000000001</v>
-      </c>
-      <c r="I289" s="6">
-        <f t="shared" si="29"/>
-        <v>1.5535191823433565</v>
-      </c>
-      <c r="J289" s="6">
-        <f t="shared" si="30"/>
-        <v>1.6128885813148786</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C290" s="5">
-        <v>2560</v>
-      </c>
-      <c r="D290" s="5">
-        <v>64</v>
-      </c>
-      <c r="E290" s="5">
-        <v>50</v>
-      </c>
-      <c r="G290" s="6">
-        <v>12.272</v>
-      </c>
-      <c r="H290" s="6">
-        <v>11.597</v>
-      </c>
-      <c r="I290" s="6">
-        <f t="shared" si="29"/>
-        <v>3.4184511082138203</v>
-      </c>
-      <c r="J290" s="6">
-        <f t="shared" si="30"/>
-        <v>3.6174210571699579</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C291" s="5">
-        <v>2560</v>
-      </c>
-      <c r="D291" s="5">
-        <v>128</v>
-      </c>
-      <c r="E291" s="5">
-        <v>50</v>
-      </c>
-      <c r="G291" s="6">
-        <v>12.307</v>
-      </c>
-      <c r="H291" s="6">
-        <v>12.093</v>
-      </c>
-      <c r="I291" s="6">
-        <f t="shared" si="29"/>
-        <v>6.8174586820508649</v>
-      </c>
-      <c r="J291" s="6">
-        <f t="shared" si="30"/>
-        <v>6.9381017117340615</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A295" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D295" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E295" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G295" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H295" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I295" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J295" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C296" s="5">
-        <v>512</v>
-      </c>
-      <c r="D296" s="5">
-        <v>16</v>
-      </c>
-      <c r="E296" s="5">
-        <v>25</v>
-      </c>
-      <c r="G296" s="6">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="H296" s="6">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="I296" s="6">
-        <f t="shared" ref="I296:I317" si="31">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
-        <v>0.85860880245649951</v>
-      </c>
-      <c r="J296" s="6">
-        <f t="shared" ref="J296:J311" si="32">(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
-        <v>0.70551791421362486</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C297" s="5">
-        <v>512</v>
-      </c>
-      <c r="D297" s="5">
-        <v>32</v>
-      </c>
-      <c r="E297" s="5">
-        <v>25</v>
-      </c>
-      <c r="G297" s="6">
-        <v>2.0169999999999999</v>
-      </c>
-      <c r="H297" s="6">
-        <v>5.2869999999999999</v>
-      </c>
-      <c r="I297" s="6">
-        <f t="shared" si="31"/>
-        <v>0.8317905800694102</v>
-      </c>
-      <c r="J297" s="6">
-        <f t="shared" si="32"/>
-        <v>0.31732960090788725</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C298" s="5">
-        <v>512</v>
-      </c>
-      <c r="D298" s="5">
-        <v>64</v>
-      </c>
-      <c r="E298" s="5">
-        <v>25</v>
-      </c>
-      <c r="G298" s="6">
-        <v>1.9160000000000001</v>
-      </c>
-      <c r="H298" s="6">
-        <v>1.9470000000000001</v>
-      </c>
-      <c r="I298" s="6">
-        <f t="shared" si="31"/>
-        <v>1.7512751565762001</v>
-      </c>
-      <c r="J298" s="6">
-        <f t="shared" si="32"/>
-        <v>1.7233914740626604</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C299" s="5">
-        <v>512</v>
-      </c>
-      <c r="D299" s="5">
-        <v>128</v>
-      </c>
-      <c r="E299" s="5">
-        <v>25</v>
-      </c>
-      <c r="G299" s="6">
-        <v>2.141</v>
-      </c>
-      <c r="H299" s="6">
-        <v>2.177</v>
-      </c>
-      <c r="I299" s="6">
-        <f t="shared" si="31"/>
-        <v>3.1344635217188226</v>
-      </c>
-      <c r="J299" s="6">
-        <f t="shared" si="32"/>
-        <v>3.082630408819476</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C300" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D300" s="5">
-        <v>16</v>
-      </c>
-      <c r="E300" s="5">
-        <v>25</v>
-      </c>
-      <c r="G300" s="6">
-        <v>3.2690000000000001</v>
-      </c>
-      <c r="H300" s="6">
-        <v>2.181</v>
-      </c>
-      <c r="I300" s="6">
-        <f t="shared" si="31"/>
-        <v>1.0264433159987765</v>
-      </c>
-      <c r="J300" s="6">
-        <f t="shared" si="32"/>
-        <v>1.5384883998165977</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C301" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D301" s="5">
-        <v>32</v>
-      </c>
-      <c r="E301" s="5">
-        <v>25</v>
-      </c>
-      <c r="G301" s="6">
-        <v>3.56</v>
-      </c>
-      <c r="H301" s="6">
-        <v>9.7720000000000002</v>
-      </c>
-      <c r="I301" s="6">
-        <f t="shared" si="31"/>
-        <v>1.8850804494382021</v>
-      </c>
-      <c r="J301" s="6">
-        <f t="shared" si="32"/>
-        <v>0.68674645927138767</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C302" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D302" s="5">
-        <v>64</v>
-      </c>
-      <c r="E302" s="5">
-        <v>25</v>
-      </c>
-      <c r="G302" s="6">
-        <v>3.9180000000000001</v>
-      </c>
-      <c r="H302" s="6">
-        <v>3.0710000000000002</v>
-      </c>
-      <c r="I302" s="6">
-        <f t="shared" si="31"/>
-        <v>3.4256694231750888</v>
-      </c>
-      <c r="J302" s="6">
-        <f t="shared" si="32"/>
-        <v>4.3704893520026049</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C303" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D303" s="5">
-        <v>128</v>
-      </c>
-      <c r="E303" s="5">
-        <v>25</v>
-      </c>
-      <c r="G303" s="6">
-        <v>5.1050000000000004</v>
-      </c>
-      <c r="H303" s="6">
-        <v>4.4009999999999998</v>
-      </c>
-      <c r="I303" s="6">
-        <f t="shared" si="31"/>
-        <v>5.2582851322233104</v>
-      </c>
-      <c r="J303" s="6">
-        <f t="shared" si="32"/>
-        <v>6.0994195864576239</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C304" s="5">
-        <v>2048</v>
-      </c>
-      <c r="D304" s="5">
-        <v>16</v>
-      </c>
-      <c r="E304" s="5">
-        <v>25</v>
-      </c>
-      <c r="G304" s="6">
-        <v>16.792000000000002</v>
-      </c>
-      <c r="H304" s="6">
-        <v>9.213000000000001</v>
-      </c>
-      <c r="I304" s="6">
-        <f t="shared" si="31"/>
-        <v>0.79929566460219137</v>
-      </c>
-      <c r="J304" s="6">
-        <f t="shared" si="32"/>
-        <v>1.4568297840008682</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C305" s="5">
-        <v>2048</v>
-      </c>
-      <c r="D305" s="5">
-        <v>32</v>
-      </c>
-      <c r="E305" s="5">
-        <v>25</v>
-      </c>
-      <c r="G305" s="6">
-        <v>7.4050000000000002</v>
-      </c>
-      <c r="H305" s="6">
-        <v>18.954000000000001</v>
-      </c>
-      <c r="I305" s="6">
-        <f t="shared" si="31"/>
-        <v>3.6250567994598244</v>
-      </c>
-      <c r="J305" s="6">
-        <f t="shared" si="32"/>
-        <v>1.416246997995146</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C306" s="5">
-        <v>2048</v>
-      </c>
-      <c r="D306" s="5">
-        <v>64</v>
-      </c>
-      <c r="E306" s="5">
-        <v>25</v>
-      </c>
-      <c r="G306" s="6">
-        <v>10.322000000000001</v>
-      </c>
-      <c r="H306" s="6">
-        <v>19.594000000000001</v>
-      </c>
-      <c r="I306" s="6">
-        <f t="shared" si="31"/>
-        <v>5.2012295291610142</v>
-      </c>
-      <c r="J306" s="6">
-        <f t="shared" si="32"/>
-        <v>2.739976074308462</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C307" s="5">
-        <v>2048</v>
-      </c>
-      <c r="D307" s="5">
-        <v>128</v>
-      </c>
-      <c r="E307" s="5">
-        <v>25</v>
-      </c>
-      <c r="G307" s="6">
-        <v>14.926</v>
-      </c>
-      <c r="H307" s="6">
-        <v>12.38</v>
-      </c>
-      <c r="I307" s="6">
-        <f t="shared" si="31"/>
-        <v>7.193768082540533</v>
-      </c>
-      <c r="J307" s="6">
-        <f t="shared" si="32"/>
-        <v>8.6731972859450721</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C308" s="5">
-        <v>4096</v>
-      </c>
-      <c r="D308" s="5">
-        <v>16</v>
-      </c>
-      <c r="E308" s="5">
-        <v>25</v>
-      </c>
-      <c r="G308" s="6">
-        <v>65.119</v>
-      </c>
-      <c r="H308" s="6">
-        <v>49.279000000000003</v>
-      </c>
-      <c r="I308" s="6">
-        <f t="shared" si="31"/>
-        <v>0.82444587908290978</v>
-      </c>
-      <c r="J308" s="6">
-        <f t="shared" si="32"/>
-        <v>1.0894517177702467</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C309" s="5">
-        <v>4096</v>
-      </c>
-      <c r="D309" s="5">
-        <v>32</v>
-      </c>
-      <c r="E309" s="5">
-        <v>25</v>
-      </c>
-      <c r="G309" s="6">
-        <v>21.256</v>
-      </c>
-      <c r="H309" s="6">
-        <v>43.652999999999999</v>
-      </c>
-      <c r="I309" s="6">
-        <f t="shared" si="31"/>
-        <v>5.0514764019570944</v>
-      </c>
-      <c r="J309" s="6">
-        <f t="shared" si="32"/>
-        <v>2.4597205781962295</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C310" s="5">
-        <v>4096</v>
-      </c>
-      <c r="D310" s="5">
-        <v>64</v>
-      </c>
-      <c r="E310" s="5">
-        <v>25</v>
-      </c>
-      <c r="G310" s="6">
-        <v>39.892000000000003</v>
-      </c>
-      <c r="H310" s="6">
-        <v>50.067</v>
-      </c>
-      <c r="I310" s="6">
-        <f t="shared" si="31"/>
-        <v>5.3832438784718741</v>
-      </c>
-      <c r="J310" s="6">
-        <f t="shared" si="32"/>
-        <v>4.2892197415463285</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C311" s="5">
-        <v>4096</v>
-      </c>
-      <c r="D311" s="5">
-        <v>128</v>
-      </c>
-      <c r="E311" s="5">
-        <v>25</v>
-      </c>
-      <c r="G311" s="6">
-        <v>48.026000000000003</v>
-      </c>
-      <c r="H311" s="6">
-        <v>64.896000000000001</v>
-      </c>
-      <c r="I311" s="6">
-        <f t="shared" si="31"/>
-        <v>8.9430044059467768</v>
-      </c>
-      <c r="J311" s="6">
-        <f t="shared" si="32"/>
-        <v>6.6182311637080868</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C312" s="5">
-        <v>1536</v>
-      </c>
-      <c r="D312" s="5">
-        <v>8</v>
-      </c>
-      <c r="E312" s="5">
-        <v>50</v>
-      </c>
-      <c r="G312" s="6">
-        <v>9.5820000000000007</v>
-      </c>
-      <c r="H312" s="6">
-        <v>6.1589999999999998</v>
-      </c>
-      <c r="I312" s="6">
-        <f t="shared" si="31"/>
-        <v>0.78790932999373831</v>
-      </c>
-      <c r="J312" s="6">
-        <f t="shared" ref="J312:J317" si="33">(8*$E312*$D312*$C312*$C312)/(H312/1000)/10^12</f>
-        <v>1.2258073063809061</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C313" s="5">
-        <v>1536</v>
-      </c>
-      <c r="D313" s="5">
-        <v>16</v>
-      </c>
-      <c r="E313" s="5">
-        <v>50</v>
-      </c>
-      <c r="G313" s="6">
-        <v>17.681999999999999</v>
-      </c>
-      <c r="H313" s="6">
-        <v>9.7270000000000003</v>
-      </c>
-      <c r="I313" s="6">
-        <f t="shared" si="31"/>
-        <v>0.85394720054292506</v>
-      </c>
-      <c r="J313" s="6">
+      <c r="E339" s="15">
+        <v>1500</v>
+      </c>
+      <c r="F339" s="15"/>
+      <c r="G339" s="13">
+        <v>205.328</v>
+      </c>
+      <c r="H339" s="13">
+        <v>172.066</v>
+      </c>
+      <c r="I339" s="13">
+        <v>64.963999999999999</v>
+      </c>
+      <c r="J339" s="13">
+        <f>(6*$E339*$D339*$C339*$C339)/(G339/1000)/10^12</f>
+        <v>2.9415363515935478</v>
+      </c>
+      <c r="K339" s="13">
+        <f>(6*$E339*$D339*$C339*$C339)/(H339/1000)/10^12</f>
+        <v>3.5101634024153525</v>
+      </c>
+      <c r="L339" s="13">
+        <f>(6*$E339*$D339*$C339*$C339)/(I339/1000)/10^12</f>
+        <v>9.2971457422572517</v>
+      </c>
+      <c r="M339" s="14">
         <f t="shared" si="33"/>
-        <v>1.5523279942428294</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C314" s="5">
-        <v>1536</v>
-      </c>
-      <c r="D314" s="5">
-        <v>32</v>
-      </c>
-      <c r="E314" s="5">
-        <v>50</v>
-      </c>
-      <c r="G314" s="6">
-        <v>10.656000000000001</v>
-      </c>
-      <c r="H314" s="6">
-        <v>29.04</v>
-      </c>
-      <c r="I314" s="6">
-        <f t="shared" si="31"/>
-        <v>2.8339891891891891</v>
-      </c>
-      <c r="J314" s="6">
-        <f t="shared" si="33"/>
-        <v>1.0399100826446281</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C315" s="5">
-        <v>256</v>
-      </c>
-      <c r="D315" s="5">
-        <v>16</v>
-      </c>
-      <c r="E315" s="5">
-        <v>150</v>
-      </c>
-      <c r="G315" s="6">
-        <v>3.028</v>
-      </c>
-      <c r="H315" s="6">
-        <v>3.4660000000000002</v>
-      </c>
-      <c r="I315" s="6">
-        <f t="shared" si="31"/>
-        <v>0.41555191545574638</v>
-      </c>
-      <c r="J315" s="6">
-        <f t="shared" si="33"/>
-        <v>0.36303843046739753</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C316" s="5">
-        <v>256</v>
-      </c>
-      <c r="D316" s="5">
-        <v>32</v>
-      </c>
-      <c r="E316" s="5">
-        <v>150</v>
-      </c>
-      <c r="G316" s="6">
-        <v>6.0579999999999998</v>
-      </c>
-      <c r="H316" s="6">
-        <v>14.347</v>
-      </c>
-      <c r="I316" s="6">
-        <f t="shared" si="31"/>
-        <v>0.41541472433146254</v>
-      </c>
-      <c r="J316" s="6">
-        <f t="shared" si="33"/>
-        <v>0.17540826653655817</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C317" s="5">
-        <v>256</v>
-      </c>
-      <c r="D317" s="5">
-        <v>64</v>
-      </c>
-      <c r="E317" s="5">
-        <v>150</v>
-      </c>
-      <c r="G317" s="6">
-        <v>5.6029999999999998</v>
-      </c>
-      <c r="H317" s="6">
-        <v>8.0190000000000001</v>
-      </c>
-      <c r="I317" s="6">
-        <f t="shared" si="31"/>
-        <v>0.89829819739425321</v>
-      </c>
-      <c r="J317" s="6">
-        <f t="shared" si="33"/>
-        <v>0.62765491956603059</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G318" s="6"/>
-      <c r="H318" s="6"/>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G319" s="6"/>
-      <c r="H319" s="6"/>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A320" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C320" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D320" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E320" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G320" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H320" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I320" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J320" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="321" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C321" s="5">
-        <v>2816</v>
-      </c>
-      <c r="D321" s="5">
-        <v>32</v>
-      </c>
-      <c r="E321" s="5">
-        <v>1500</v>
-      </c>
-      <c r="G321" s="6">
-        <v>561.25300000000004</v>
-      </c>
-      <c r="H321" s="6">
-        <v>1213.086</v>
-      </c>
-      <c r="I321" s="6">
-        <f>(6*$E321*$D321*$C321*$C321)/(G321/1000)/10^12</f>
-        <v>4.0691070301628676</v>
-      </c>
-      <c r="J321" s="6">
-        <f>(6*$E321*$D321*$C321*$C321)/(H321/1000)/10^12</f>
-        <v>1.882635302031348</v>
-      </c>
-    </row>
-    <row r="322" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C322" s="5">
-        <v>2816</v>
-      </c>
-      <c r="D322" s="5">
-        <v>32</v>
-      </c>
-      <c r="E322" s="5">
-        <v>750</v>
-      </c>
-      <c r="G322" s="6">
-        <v>282.279</v>
-      </c>
-      <c r="H322" s="6">
-        <v>607.95400000000006</v>
-      </c>
-      <c r="I322" s="6">
-        <f t="shared" ref="I322:I339" si="34">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
-        <v>4.0452859192501034</v>
-      </c>
-      <c r="J322" s="6">
-        <f t="shared" ref="J322:J339" si="35">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
-        <v>1.8782658951170645</v>
-      </c>
-    </row>
-    <row r="323" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C323" s="5">
-        <v>2816</v>
-      </c>
-      <c r="D323" s="5">
-        <v>32</v>
-      </c>
-      <c r="E323" s="5">
-        <v>375</v>
-      </c>
-      <c r="G323" s="6">
-        <v>142.01300000000001</v>
-      </c>
-      <c r="H323" s="6">
-        <v>304.291</v>
-      </c>
-      <c r="I323" s="6">
-        <f t="shared" si="34"/>
-        <v>4.0204039911839056</v>
-      </c>
-      <c r="J323" s="6">
-        <f t="shared" si="35"/>
-        <v>1.8763276994718872</v>
-      </c>
-    </row>
-    <row r="324" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C324" s="5">
-        <v>2816</v>
-      </c>
-      <c r="D324" s="5">
-        <v>32</v>
-      </c>
-      <c r="E324" s="5">
-        <v>187</v>
-      </c>
-      <c r="G324" s="6">
-        <v>71.36</v>
-      </c>
-      <c r="H324" s="6">
-        <v>152.19400000000002</v>
-      </c>
-      <c r="I324" s="6">
-        <f t="shared" si="34"/>
-        <v>3.9898199246636779</v>
-      </c>
-      <c r="J324" s="6">
-        <f t="shared" si="35"/>
-        <v>1.8707278199140569</v>
-      </c>
-    </row>
-    <row r="325" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C325" s="5">
-        <v>2048</v>
-      </c>
-      <c r="D325" s="5">
-        <v>32</v>
-      </c>
-      <c r="E325" s="5">
-        <v>1500</v>
-      </c>
-      <c r="G325" s="6">
-        <v>383.34699999999998</v>
-      </c>
-      <c r="H325" s="6">
-        <v>866.298</v>
-      </c>
-      <c r="I325" s="6">
-        <f t="shared" si="34"/>
-        <v>3.1510864882208551</v>
-      </c>
-      <c r="J325" s="6">
-        <f t="shared" si="35"/>
-        <v>1.3943926362521903</v>
-      </c>
-    </row>
-    <row r="326" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C326" s="5">
-        <v>2048</v>
-      </c>
-      <c r="D326" s="5">
-        <v>32</v>
-      </c>
-      <c r="E326" s="5">
-        <v>750</v>
-      </c>
-      <c r="G326" s="6">
-        <v>191.446</v>
-      </c>
-      <c r="H326" s="6">
-        <v>431.84800000000001</v>
-      </c>
-      <c r="I326" s="6">
-        <f t="shared" si="34"/>
-        <v>3.154831001953553</v>
-      </c>
-      <c r="J326" s="6">
-        <f t="shared" si="35"/>
-        <v>1.398593431022026</v>
-      </c>
-    </row>
-    <row r="327" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C327" s="5">
-        <v>2048</v>
-      </c>
-      <c r="D327" s="5">
-        <v>32</v>
-      </c>
-      <c r="E327" s="5">
-        <v>375</v>
-      </c>
-      <c r="G327" s="6">
-        <v>96.722999999999999</v>
-      </c>
-      <c r="H327" s="6">
-        <v>217.494</v>
-      </c>
-      <c r="I327" s="6">
-        <f t="shared" si="34"/>
-        <v>3.1222138271145434</v>
-      </c>
-      <c r="J327" s="6">
-        <f t="shared" si="35"/>
-        <v>1.3884975585533395</v>
-      </c>
-    </row>
-    <row r="328" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C328" s="5">
-        <v>2048</v>
-      </c>
-      <c r="D328" s="5">
-        <v>32</v>
-      </c>
-      <c r="E328" s="5">
-        <v>187</v>
-      </c>
-      <c r="G328" s="6">
-        <v>48.928000000000004</v>
-      </c>
-      <c r="H328" s="6">
-        <v>108.84400000000001</v>
-      </c>
-      <c r="I328" s="6">
-        <f t="shared" si="34"/>
-        <v>3.0778345899280573</v>
-      </c>
-      <c r="J328" s="6">
-        <f t="shared" si="35"/>
-        <v>1.383560791738635</v>
-      </c>
-    </row>
-    <row r="329" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C329" s="5">
-        <v>1536</v>
-      </c>
-      <c r="D329" s="5">
-        <v>32</v>
-      </c>
-      <c r="E329" s="5">
-        <v>1500</v>
-      </c>
-      <c r="G329" s="6">
-        <v>272.92500000000001</v>
-      </c>
-      <c r="H329" s="6">
-        <v>649.56200000000001</v>
-      </c>
-      <c r="I329" s="6">
-        <f t="shared" si="34"/>
-        <v>2.489611607584501</v>
-      </c>
-      <c r="J329" s="6">
-        <f t="shared" si="35"/>
-        <v>1.0460544921039101</v>
-      </c>
-    </row>
-    <row r="330" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C330" s="5">
-        <v>1536</v>
-      </c>
-      <c r="D330" s="5">
-        <v>32</v>
-      </c>
-      <c r="E330" s="5">
-        <v>750</v>
-      </c>
-      <c r="G330" s="6">
-        <v>136.11799999999999</v>
-      </c>
-      <c r="H330" s="6">
-        <v>324.69200000000001</v>
-      </c>
-      <c r="I330" s="6">
-        <f t="shared" si="34"/>
-        <v>2.4959125464670362</v>
-      </c>
-      <c r="J330" s="6">
-        <f t="shared" si="35"/>
-        <v>1.0463412218348467</v>
-      </c>
-    </row>
-    <row r="331" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C331" s="5">
-        <v>1536</v>
-      </c>
-      <c r="D331" s="5">
-        <v>32</v>
-      </c>
-      <c r="E331" s="5">
-        <v>375</v>
-      </c>
-      <c r="G331" s="6">
-        <v>69.292000000000002</v>
-      </c>
-      <c r="H331" s="6">
-        <v>163.18899999999999</v>
-      </c>
-      <c r="I331" s="6">
-        <f t="shared" si="34"/>
-        <v>2.4514996247763086</v>
-      </c>
-      <c r="J331" s="6">
-        <f t="shared" si="35"/>
-        <v>1.040936043483323</v>
-      </c>
-    </row>
-    <row r="332" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C332" s="5">
-        <v>1536</v>
-      </c>
-      <c r="D332" s="5">
-        <v>32</v>
-      </c>
-      <c r="E332" s="5">
-        <v>187</v>
-      </c>
-      <c r="G332" s="6">
-        <v>35.615000000000002</v>
-      </c>
-      <c r="H332" s="6">
-        <v>82.433000000000007</v>
-      </c>
-      <c r="I332" s="6">
-        <f t="shared" si="34"/>
-        <v>2.3784406453460618</v>
-      </c>
-      <c r="J332" s="6">
-        <f t="shared" si="35"/>
-        <v>1.0276001550835223</v>
-      </c>
-    </row>
-    <row r="333" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C333" s="5">
-        <v>2560</v>
-      </c>
-      <c r="D333" s="7">
-        <v>32</v>
-      </c>
-      <c r="E333" s="7">
-        <v>1500</v>
-      </c>
-      <c r="G333" s="6">
-        <v>487.29300000000001</v>
-      </c>
-      <c r="H333" s="6">
-        <v>1093.913</v>
-      </c>
-      <c r="I333" s="6">
-        <f t="shared" si="34"/>
-        <v>3.8733098977411942</v>
-      </c>
-      <c r="J333" s="6">
-        <f t="shared" si="35"/>
-        <v>1.725399369054029</v>
-      </c>
-    </row>
-    <row r="334" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C334" s="5">
-        <v>2560</v>
-      </c>
-      <c r="D334" s="7">
-        <v>32</v>
-      </c>
-      <c r="E334" s="7">
-        <v>750</v>
-      </c>
-      <c r="G334" s="6">
-        <v>245.44300000000001</v>
-      </c>
-      <c r="H334" s="6">
-        <v>548.52499999999998</v>
-      </c>
-      <c r="I334" s="6">
-        <f t="shared" si="34"/>
-        <v>3.8449595221701167</v>
-      </c>
-      <c r="J334" s="6">
-        <f t="shared" si="35"/>
-        <v>1.7204656123239599</v>
-      </c>
-    </row>
-    <row r="335" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C335" s="5">
-        <v>2560</v>
-      </c>
-      <c r="D335" s="7">
-        <v>32</v>
-      </c>
-      <c r="E335" s="7">
-        <v>375</v>
-      </c>
-      <c r="G335" s="6">
-        <v>123.435</v>
-      </c>
-      <c r="H335" s="6">
-        <v>274.72199999999998</v>
-      </c>
-      <c r="I335" s="6">
-        <f t="shared" si="34"/>
-        <v>3.8227342325920524</v>
-      </c>
-      <c r="J335" s="6">
-        <f t="shared" si="35"/>
-        <v>1.7175879616485032</v>
-      </c>
-    </row>
-    <row r="336" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C336" s="5">
-        <v>2560</v>
-      </c>
-      <c r="D336" s="7">
-        <v>32</v>
-      </c>
-      <c r="E336" s="7">
-        <v>187</v>
-      </c>
-      <c r="G336" s="6">
-        <v>62.187000000000005</v>
-      </c>
-      <c r="H336" s="6">
-        <v>137.38900000000001</v>
-      </c>
-      <c r="I336" s="6">
-        <f t="shared" si="34"/>
-        <v>3.7837563220608805</v>
-      </c>
-      <c r="J336" s="6">
-        <f t="shared" si="35"/>
-        <v>1.7126586145906875</v>
-      </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C337" s="5">
-        <v>512</v>
-      </c>
-      <c r="D337" s="7">
-        <v>32</v>
-      </c>
-      <c r="E337" s="7">
-        <v>1</v>
-      </c>
-      <c r="G337" s="6">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H337" s="6">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="I337" s="6">
-        <f t="shared" si="34"/>
-        <v>0.86778703448275862</v>
-      </c>
-      <c r="J337" s="6">
-        <f t="shared" si="35"/>
-        <v>0.30690029268292685</v>
-      </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C338" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D338" s="7">
-        <v>32</v>
-      </c>
-      <c r="E338" s="7">
-        <v>1500</v>
-      </c>
-      <c r="G338" s="6">
-        <v>168.239</v>
-      </c>
-      <c r="H338" s="6">
-        <v>440.72800000000001</v>
-      </c>
-      <c r="I338" s="6">
-        <f t="shared" si="34"/>
-        <v>1.7950052484857852</v>
-      </c>
-      <c r="J338" s="6">
-        <f t="shared" si="35"/>
-        <v>0.68520694850338526</v>
-      </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C339" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D339" s="7">
-        <v>64</v>
-      </c>
-      <c r="E339" s="7">
-        <v>1500</v>
-      </c>
-      <c r="G339" s="6">
-        <v>195.11799999999999</v>
-      </c>
-      <c r="H339" s="6">
-        <v>156.56300000000002</v>
-      </c>
-      <c r="I339" s="6">
-        <f t="shared" si="34"/>
-        <v>3.0954590350454598</v>
-      </c>
-      <c r="J339" s="6">
-        <f t="shared" si="35"/>
-        <v>3.8577427361509424</v>
+        <v>442.358</v>
       </c>
     </row>
     <row r="340" spans="1:15" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -13248,25 +14242,25 @@
     </row>
     <row r="348" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
+        <v>67</v>
+      </c>
+      <c r="C348" t="s">
+        <v>68</v>
+      </c>
+      <c r="D348" t="s">
         <v>69</v>
       </c>
-      <c r="C348" t="s">
+      <c r="G348" t="s">
         <v>70</v>
       </c>
-      <c r="D348" t="s">
+      <c r="I348" t="s">
         <v>71</v>
       </c>
-      <c r="G348" t="s">
+      <c r="J348" t="s">
         <v>72</v>
       </c>
-      <c r="I348" t="s">
+      <c r="K348" t="s">
         <v>73</v>
-      </c>
-      <c r="J348" t="s">
-        <v>74</v>
-      </c>
-      <c r="K348" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="349" spans="1:15" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -13285,7 +14279,7 @@
         <v>12.835097316911146</v>
       </c>
       <c r="J350" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K350" s="13">
         <v>2.771354371816102E-3</v>
@@ -13309,7 +14303,7 @@
         <v>17.568133338618413</v>
       </c>
       <c r="J351" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K351" s="13">
         <v>3.1081657181485163E-3</v>
@@ -13333,7 +14327,7 @@
         <v>21.613808521919442</v>
       </c>
       <c r="J352" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K352" s="13">
         <v>2.7382020897316023E-3</v>
@@ -13360,7 +14354,7 @@
         <v>12.683225542430842</v>
       </c>
       <c r="J353" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K353" s="13">
         <v>1.4179616806863056E-2</v>
@@ -13385,7 +14379,7 @@
         <v>15.79122812082165</v>
       </c>
       <c r="J354" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K354" s="13">
         <v>2.8936258206434941E-2</v>
@@ -13407,7 +14401,7 @@
         <v>23.731852135606193</v>
       </c>
       <c r="J355" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K355" s="13">
         <v>3.4120529396769019E-3</v>
@@ -13431,7 +14425,7 @@
         <v>28.819072539613313</v>
       </c>
       <c r="J356" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K356" s="13">
         <v>2.1974866025578255E-3</v>
@@ -13455,7 +14449,7 @@
         <v>39.558659023908042</v>
       </c>
       <c r="J357" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K357" s="13">
         <v>5.0596776473147715E-3</v>
@@ -13482,7 +14476,7 @@
         <v>44.12763479595634</v>
       </c>
       <c r="J358" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K358" s="13">
         <v>0.13407438703550872</v>
@@ -13507,7 +14501,7 @@
         <v>85.614661814865158</v>
       </c>
       <c r="J359" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K359" s="13">
         <v>9.5564268900705421E-2</v>
@@ -13529,7 +14523,7 @@
         <v>23.982011935818178</v>
       </c>
       <c r="J360" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K360" s="13">
         <v>3.3130523372675203E-3</v>
@@ -13553,7 +14547,7 @@
         <v>29.01377604842197</v>
       </c>
       <c r="J361" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K361" s="13">
         <v>2.3169853371637567E-3</v>
@@ -13577,7 +14571,7 @@
         <v>39.497711966108255</v>
       </c>
       <c r="J362" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K362" s="13">
         <v>1.786874366036955E-3</v>
@@ -13604,7 +14598,7 @@
         <v>44.922131896148869</v>
       </c>
       <c r="J363" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K363" s="13">
         <v>7.6055643584500903E-3</v>
@@ -13629,7 +14623,7 @@
         <v>88.854658986255586</v>
       </c>
       <c r="J364" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K364" s="13">
         <v>0.19492017565835568</v>
@@ -13651,7 +14645,7 @@
         <v>24.097439904398577</v>
       </c>
       <c r="J365" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K365" s="13">
         <v>1.8945906376340066E-3</v>
@@ -13675,7 +14669,7 @@
         <v>29.332848450940624</v>
       </c>
       <c r="J366" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K366" s="13">
         <v>3.1434978841042975E-3</v>
@@ -13699,7 +14693,7 @@
         <v>39.469115820378669</v>
       </c>
       <c r="J367" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K367" s="13">
         <v>4.977845655343466E-3</v>
@@ -13726,7 +14720,7 @@
         <v>45.485056899373731</v>
       </c>
       <c r="J368" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K368" s="13">
         <v>8.1828182637063429E-3</v>
@@ -13751,7 +14745,7 @@
         <v>75.955594369660886</v>
       </c>
       <c r="J369" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K369" s="13">
         <v>0.34646444410114541</v>
@@ -13773,7 +14767,7 @@
         <v>24.260088749107531</v>
       </c>
       <c r="J370" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K370" s="13">
         <v>3.4101242453056131E-3</v>
@@ -13797,7 +14791,7 @@
         <v>29.352927360006991</v>
       </c>
       <c r="J371" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K371" s="13">
         <v>6.0341135484666842E-3</v>
@@ -13821,7 +14815,7 @@
         <v>39.581887632662536</v>
       </c>
       <c r="J372" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K372" s="13">
         <v>8.720665112249169E-3</v>
@@ -13848,7 +14842,7 @@
         <v>18.858364725395088</v>
       </c>
       <c r="J373" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K373" s="13">
         <v>0.53443442340576508</v>
@@ -13873,7 +14867,7 @@
         <v>34.116869923736488</v>
       </c>
       <c r="J374" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K374" s="13">
         <v>0.40676579786873596</v>
@@ -13895,7 +14889,7 @@
         <v>24.386522568340752</v>
       </c>
       <c r="J375" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K375" s="13">
         <v>7.5253956007218402E-3</v>
@@ -13916,7 +14910,7 @@
         <v>29.51436141820507</v>
       </c>
       <c r="J376" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K376" s="13">
         <v>1.4455375980472994E-2</v>
@@ -13937,7 +14931,7 @@
         <v>39.774351064898376</v>
       </c>
       <c r="J377" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K377" s="13">
         <v>1.0036250086036608E-2</v>
@@ -13961,7 +14955,7 @@
         <v>45.536169457821465</v>
       </c>
       <c r="J378" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K378" s="13">
         <v>4.3722356981296812E-2</v>
@@ -13985,7 +14979,7 @@
         <v>53.063780922995392</v>
       </c>
       <c r="J379" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K379" s="13">
         <v>2.0521634074351365</v>
@@ -14006,7 +15000,7 @@
         <v>24.414131807923237</v>
       </c>
       <c r="J380" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K380" s="13">
         <v>1.1580837166357418E-2</v>
@@ -14027,7 +15021,7 @@
         <v>29.396977409619254</v>
       </c>
       <c r="J381" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K381" s="13">
         <v>2.0194514627804788E-2</v>
@@ -14048,7 +15042,7 @@
         <v>39.83260271513997</v>
       </c>
       <c r="J382" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K382" s="13">
         <v>2.4471842035931668E-2</v>
@@ -14072,7 +15066,7 @@
         <v>45.539023512278831</v>
       </c>
       <c r="J383" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K383" s="13">
         <v>7.679382582089879E-2</v>
@@ -14096,7 +15090,7 @@
         <v>62.52556004907531</v>
       </c>
       <c r="J384" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K384" s="13">
         <v>0.28406578185528109</v>
@@ -14109,7 +15103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14120,53 +15114,53 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4">
         <v>375.66</v>
@@ -14174,15 +15168,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5">
         <v>3502</v>
@@ -14190,19 +15184,19 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5"/>
     </row>
